--- a/Courses/Software-Sciences/Module-3-Databases-New/11-MS-Access/Resources/Excel/Employees.xlsx
+++ b/Courses/Software-Sciences/Module-3-Databases-New/11-MS-Access/Resources/Excel/Employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045DB2D-83F3-47A4-98E5-2F334D238F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10876FE3-7F5A-4098-8672-0A8B34D3A826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3226,10 +3226,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\);&quot;$&quot;0_)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3241,6 +3242,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3289,13 +3297,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3305,16 +3313,21 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\);&quot;$&quot;0_)"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -3376,10 +3389,10 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Gender"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Age"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Hire Date" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Annual Salary" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Annual Salary" dataDxfId="0" dataCellStyle="Currency"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Country"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="City"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Exit Date" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Exit Date" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3685,7 +3698,7 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3697,44 +3710,44 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3760,7 +3773,7 @@
       <c r="G2" s="1">
         <v>42468</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="6">
         <v>141604</v>
       </c>
       <c r="I2" t="s">
@@ -3795,7 +3808,7 @@
       <c r="G3" s="1">
         <v>35763</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <v>99975</v>
       </c>
       <c r="I3" t="s">
@@ -3830,7 +3843,7 @@
       <c r="G4" s="1">
         <v>39016</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>163099</v>
       </c>
       <c r="I4" t="s">
@@ -3865,7 +3878,7 @@
       <c r="G5" s="1">
         <v>43735</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>84913</v>
       </c>
       <c r="I5" t="s">
@@ -3900,7 +3913,7 @@
       <c r="G6" s="1">
         <v>35023</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <v>95409</v>
       </c>
       <c r="I6" t="s">
@@ -3935,7 +3948,7 @@
       <c r="G7" s="1">
         <v>42759</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <v>50994</v>
       </c>
       <c r="I7" t="s">
@@ -3970,7 +3983,7 @@
       <c r="G8" s="1">
         <v>44013</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="6">
         <v>119746</v>
       </c>
       <c r="I8" t="s">
@@ -4005,7 +4018,7 @@
       <c r="G9" s="1">
         <v>43967</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="6">
         <v>41336</v>
       </c>
       <c r="I9" t="s">
@@ -4040,7 +4053,7 @@
       <c r="G10" s="1">
         <v>43490</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="6">
         <v>113527</v>
       </c>
       <c r="I10" t="s">
@@ -4075,7 +4088,7 @@
       <c r="G11" s="1">
         <v>43264</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="6">
         <v>77203</v>
       </c>
       <c r="I11" t="s">
@@ -4110,7 +4123,7 @@
       <c r="G12" s="1">
         <v>39855</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="6">
         <v>157333</v>
       </c>
       <c r="I12" t="s">
@@ -4145,7 +4158,7 @@
       <c r="G13" s="1">
         <v>44490</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="6">
         <v>109851</v>
       </c>
       <c r="I13" t="s">
@@ -4180,7 +4193,7 @@
       <c r="G14" s="1">
         <v>36233</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="6">
         <v>105086</v>
       </c>
       <c r="I14" t="s">
@@ -4215,7 +4228,7 @@
       <c r="G15" s="1">
         <v>44357</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="6">
         <v>146742</v>
       </c>
       <c r="I15" t="s">
@@ -4250,7 +4263,7 @@
       <c r="G16" s="1">
         <v>43043</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="6">
         <v>97078</v>
       </c>
       <c r="I16" t="s">
@@ -4285,7 +4298,7 @@
       <c r="G17" s="1">
         <v>41346</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="6">
         <v>249270</v>
       </c>
       <c r="I17" t="s">
@@ -4320,7 +4333,7 @@
       <c r="G18" s="1">
         <v>37319</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="6">
         <v>175837</v>
       </c>
       <c r="I18" t="s">
@@ -4355,7 +4368,7 @@
       <c r="G19" s="1">
         <v>37956</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="6">
         <v>154828</v>
       </c>
       <c r="I19" t="s">
@@ -4390,7 +4403,7 @@
       <c r="G20" s="1">
         <v>41581</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="6">
         <v>186503</v>
       </c>
       <c r="I20" t="s">
@@ -4425,7 +4438,7 @@
       <c r="G21" s="1">
         <v>37446</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="6">
         <v>166331</v>
       </c>
       <c r="I21" t="s">
@@ -4460,7 +4473,7 @@
       <c r="G22" s="1">
         <v>40917</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="6">
         <v>146140</v>
       </c>
       <c r="I22" t="s">
@@ -4495,7 +4508,7 @@
       <c r="G23" s="1">
         <v>44288</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="6">
         <v>151703</v>
       </c>
       <c r="I23" t="s">
@@ -4530,7 +4543,7 @@
       <c r="G24" s="1">
         <v>37400</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="6">
         <v>172787</v>
       </c>
       <c r="I24" t="s">
@@ -4565,7 +4578,7 @@
       <c r="G25" s="1">
         <v>43713</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="6">
         <v>49998</v>
       </c>
       <c r="I25" t="s">
@@ -4600,7 +4613,7 @@
       <c r="G26" s="1">
         <v>41700</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="6">
         <v>207172</v>
       </c>
       <c r="I26" t="s">
@@ -4635,7 +4648,7 @@
       <c r="G27" s="1">
         <v>42111</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="6">
         <v>152239</v>
       </c>
       <c r="I27" t="s">
@@ -4670,7 +4683,7 @@
       <c r="G28" s="1">
         <v>38388</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6">
         <v>98581</v>
       </c>
       <c r="I28" t="s">
@@ -4705,7 +4718,7 @@
       <c r="G29" s="1">
         <v>38145</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="6">
         <v>246231</v>
       </c>
       <c r="I29" t="s">
@@ -4740,7 +4753,7 @@
       <c r="G30" s="1">
         <v>35403</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="6">
         <v>99354</v>
       </c>
       <c r="I30" t="s">
@@ -4775,7 +4788,7 @@
       <c r="G31" s="1">
         <v>41040</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="6">
         <v>231141</v>
       </c>
       <c r="I31" t="s">
@@ -4810,7 +4823,7 @@
       <c r="G32" s="1">
         <v>42911</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="6">
         <v>54775</v>
       </c>
       <c r="I32" t="s">
@@ -4845,7 +4858,7 @@
       <c r="G33" s="1">
         <v>38123</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="6">
         <v>55499</v>
       </c>
       <c r="I33" t="s">
@@ -4880,7 +4893,7 @@
       <c r="G34" s="1">
         <v>39640</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="6">
         <v>66521</v>
       </c>
       <c r="I34" t="s">
@@ -4915,7 +4928,7 @@
       <c r="G35" s="1">
         <v>42642</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="6">
         <v>59100</v>
       </c>
       <c r="I35" t="s">
@@ -4950,7 +4963,7 @@
       <c r="G36" s="1">
         <v>43226</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="6">
         <v>49011</v>
       </c>
       <c r="I36" t="s">
@@ -4985,7 +4998,7 @@
       <c r="G37" s="1">
         <v>41681</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="6">
         <v>99575</v>
       </c>
       <c r="I37" t="s">
@@ -5020,7 +5033,7 @@
       <c r="G38" s="1">
         <v>43815</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="6">
         <v>99989</v>
       </c>
       <c r="I38" t="s">
@@ -5055,7 +5068,7 @@
       <c r="G39" s="1">
         <v>43758</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="6">
         <v>256420</v>
       </c>
       <c r="I39" t="s">
@@ -5090,7 +5103,7 @@
       <c r="G40" s="1">
         <v>41409</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="6">
         <v>78940</v>
       </c>
       <c r="I40" t="s">
@@ -5125,7 +5138,7 @@
       <c r="G41" s="1">
         <v>34337</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="6">
         <v>82872</v>
       </c>
       <c r="I41" t="s">
@@ -5160,7 +5173,7 @@
       <c r="G42" s="1">
         <v>42884</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="6">
         <v>86317</v>
       </c>
       <c r="I42" t="s">
@@ -5195,7 +5208,7 @@
       <c r="G43" s="1">
         <v>41601</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="6">
         <v>113135</v>
       </c>
       <c r="I43" t="s">
@@ -5230,7 +5243,7 @@
       <c r="G44" s="1">
         <v>38664</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="6">
         <v>199808</v>
       </c>
       <c r="I44" t="s">
@@ -5265,7 +5278,7 @@
       <c r="G45" s="1">
         <v>41592</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="6">
         <v>56037</v>
       </c>
       <c r="I45" t="s">
@@ -5300,7 +5313,7 @@
       <c r="G46" s="1">
         <v>43609</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="6">
         <v>122350</v>
       </c>
       <c r="I46" t="s">
@@ -5335,7 +5348,7 @@
       <c r="G47" s="1">
         <v>40486</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="6">
         <v>92952</v>
       </c>
       <c r="I47" t="s">
@@ -5370,7 +5383,7 @@
       <c r="G48" s="1">
         <v>41353</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="6">
         <v>79921</v>
       </c>
       <c r="I48" t="s">
@@ -5405,7 +5418,7 @@
       <c r="G49" s="1">
         <v>40076</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="6">
         <v>167199</v>
       </c>
       <c r="I49" t="s">
@@ -5440,7 +5453,7 @@
       <c r="G50" s="1">
         <v>41199</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="6">
         <v>71476</v>
       </c>
       <c r="I50" t="s">
@@ -5475,7 +5488,7 @@
       <c r="G51" s="1">
         <v>41941</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="6">
         <v>189420</v>
       </c>
       <c r="I51" t="s">
@@ -5510,7 +5523,7 @@
       <c r="G52" s="1">
         <v>37184</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="6">
         <v>64057</v>
       </c>
       <c r="I52" t="s">
@@ -5545,7 +5558,7 @@
       <c r="G53" s="1">
         <v>44460</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="6">
         <v>68728</v>
       </c>
       <c r="I53" t="s">
@@ -5580,7 +5593,7 @@
       <c r="G54" s="1">
         <v>44379</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="6">
         <v>125633</v>
       </c>
       <c r="I54" t="s">
@@ -5615,7 +5628,7 @@
       <c r="G55" s="1">
         <v>40678</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="6">
         <v>66889</v>
       </c>
       <c r="I55" t="s">
@@ -5650,7 +5663,7 @@
       <c r="G56" s="1">
         <v>42276</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="6">
         <v>178700</v>
       </c>
       <c r="I56" t="s">
@@ -5685,7 +5698,7 @@
       <c r="G57" s="1">
         <v>43456</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="6">
         <v>83990</v>
       </c>
       <c r="I57" t="s">
@@ -5720,7 +5733,7 @@
       <c r="G58" s="1">
         <v>38696</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="6">
         <v>102043</v>
       </c>
       <c r="I58" t="s">
@@ -5755,7 +5768,7 @@
       <c r="G59" s="1">
         <v>37041</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="6">
         <v>90678</v>
       </c>
       <c r="I59" t="s">
@@ -5790,7 +5803,7 @@
       <c r="G60" s="1">
         <v>39681</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="6">
         <v>59067</v>
       </c>
       <c r="I60" t="s">
@@ -5825,7 +5838,7 @@
       <c r="G61" s="1">
         <v>44266</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="6">
         <v>135062</v>
       </c>
       <c r="I61" t="s">
@@ -5860,7 +5873,7 @@
       <c r="G62" s="1">
         <v>38945</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="6">
         <v>159044</v>
       </c>
       <c r="I62" t="s">
@@ -5895,7 +5908,7 @@
       <c r="G63" s="1">
         <v>43467</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="6">
         <v>74691</v>
       </c>
       <c r="I63" t="s">
@@ -5930,7 +5943,7 @@
       <c r="G64" s="1">
         <v>39800</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="6">
         <v>92753</v>
       </c>
       <c r="I64" t="s">
@@ -5965,7 +5978,7 @@
       <c r="G65" s="1">
         <v>41493</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="6">
         <v>236946</v>
       </c>
       <c r="I65" t="s">
@@ -6000,7 +6013,7 @@
       <c r="G66" s="1">
         <v>44435</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="6">
         <v>48906</v>
       </c>
       <c r="I66" t="s">
@@ -6035,7 +6048,7 @@
       <c r="G67" s="1">
         <v>39474</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="6">
         <v>80024</v>
       </c>
       <c r="I67" t="s">
@@ -6070,7 +6083,7 @@
       <c r="G68" s="1">
         <v>40109</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="6">
         <v>54415</v>
       </c>
       <c r="I68" t="s">
@@ -6105,7 +6118,7 @@
       <c r="G69" s="1">
         <v>42484</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="6">
         <v>120341</v>
       </c>
       <c r="I69" t="s">
@@ -6140,7 +6153,7 @@
       <c r="G70" s="1">
         <v>40029</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="6">
         <v>208415</v>
       </c>
       <c r="I70" t="s">
@@ -6175,7 +6188,7 @@
       <c r="G71" s="1">
         <v>43835</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="6">
         <v>78844</v>
       </c>
       <c r="I71" t="s">
@@ -6210,7 +6223,7 @@
       <c r="G72" s="1">
         <v>37399</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="6">
         <v>76354</v>
       </c>
       <c r="I72" t="s">
@@ -6245,7 +6258,7 @@
       <c r="G73" s="1">
         <v>43493</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="6">
         <v>165927</v>
       </c>
       <c r="I73" t="s">
@@ -6280,7 +6293,7 @@
       <c r="G74" s="1">
         <v>44516</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="6">
         <v>109812</v>
       </c>
       <c r="I74" t="s">
@@ -6315,7 +6328,7 @@
       <c r="G75" s="1">
         <v>36041</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="6">
         <v>86299</v>
       </c>
       <c r="I75" t="s">
@@ -6350,7 +6363,7 @@
       <c r="G76" s="1">
         <v>37828</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="6">
         <v>206624</v>
       </c>
       <c r="I76" t="s">
@@ -6385,7 +6398,7 @@
       <c r="G77" s="1">
         <v>40535</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="6">
         <v>53215</v>
       </c>
       <c r="I77" t="s">
@@ -6420,7 +6433,7 @@
       <c r="G78" s="1">
         <v>42877</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="6">
         <v>86858</v>
       </c>
       <c r="I78" t="s">
@@ -6455,7 +6468,7 @@
       <c r="G79" s="1">
         <v>39265</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="6">
         <v>93971</v>
       </c>
       <c r="I79" t="s">
@@ -6490,7 +6503,7 @@
       <c r="G80" s="1">
         <v>42182</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="6">
         <v>57008</v>
       </c>
       <c r="I80" t="s">
@@ -6525,7 +6538,7 @@
       <c r="G81" s="1">
         <v>42270</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="6">
         <v>141899</v>
       </c>
       <c r="I81" t="s">
@@ -6560,7 +6573,7 @@
       <c r="G82" s="1">
         <v>42626</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="6">
         <v>64847</v>
       </c>
       <c r="I82" t="s">
@@ -6595,7 +6608,7 @@
       <c r="G83" s="1">
         <v>33702</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="6">
         <v>116878</v>
       </c>
       <c r="I83" t="s">
@@ -6630,7 +6643,7 @@
       <c r="G84" s="1">
         <v>38388</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="6">
         <v>70505</v>
       </c>
       <c r="I84" t="s">
@@ -6665,7 +6678,7 @@
       <c r="G85" s="1">
         <v>42512</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="6">
         <v>189702</v>
       </c>
       <c r="I85" t="s">
@@ -6700,7 +6713,7 @@
       <c r="G86" s="1">
         <v>44040</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="6">
         <v>180664</v>
       </c>
       <c r="I86" t="s">
@@ -6735,7 +6748,7 @@
       <c r="G87" s="1">
         <v>37972</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="6">
         <v>48345</v>
       </c>
       <c r="I87" t="s">
@@ -6770,7 +6783,7 @@
       <c r="G88" s="1">
         <v>41655</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="6">
         <v>152214</v>
       </c>
       <c r="I88" t="s">
@@ -6805,7 +6818,7 @@
       <c r="G89" s="1">
         <v>39931</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="6">
         <v>69803</v>
       </c>
       <c r="I89" t="s">
@@ -6840,7 +6853,7 @@
       <c r="G90" s="1">
         <v>43650</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="6">
         <v>76588</v>
       </c>
       <c r="I90" t="s">
@@ -6875,7 +6888,7 @@
       <c r="G91" s="1">
         <v>43444</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="6">
         <v>84596</v>
       </c>
       <c r="I91" t="s">
@@ -6910,7 +6923,7 @@
       <c r="G92" s="1">
         <v>43368</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="6">
         <v>114441</v>
       </c>
       <c r="I92" t="s">
@@ -6945,7 +6958,7 @@
       <c r="G93" s="1">
         <v>43211</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="6">
         <v>140402</v>
       </c>
       <c r="I93" t="s">
@@ -6980,7 +6993,7 @@
       <c r="G94" s="1">
         <v>43578</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="6">
         <v>59817</v>
       </c>
       <c r="I94" t="s">
@@ -7015,7 +7028,7 @@
       <c r="G95" s="1">
         <v>42938</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95" s="6">
         <v>55854</v>
       </c>
       <c r="I95" t="s">
@@ -7050,7 +7063,7 @@
       <c r="G96" s="1">
         <v>37576</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96" s="6">
         <v>95998</v>
       </c>
       <c r="I96" t="s">
@@ -7085,7 +7098,7 @@
       <c r="G97" s="1">
         <v>42116</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="6">
         <v>154941</v>
       </c>
       <c r="I97" t="s">
@@ -7120,7 +7133,7 @@
       <c r="G98" s="1">
         <v>40734</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="6">
         <v>247022</v>
       </c>
       <c r="I98" t="s">
@@ -7155,7 +7168,7 @@
       <c r="G99" s="1">
         <v>44474</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="6">
         <v>88072</v>
       </c>
       <c r="I99" t="s">
@@ -7190,7 +7203,7 @@
       <c r="G100" s="1">
         <v>43977</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="6">
         <v>67925</v>
       </c>
       <c r="I100" t="s">
@@ -7225,7 +7238,7 @@
       <c r="G101" s="1">
         <v>44063</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="6">
         <v>219693</v>
       </c>
       <c r="I101" t="s">
@@ -7260,7 +7273,7 @@
       <c r="G102" s="1">
         <v>41386</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102" s="6">
         <v>61773</v>
       </c>
       <c r="I102" t="s">
@@ -7295,7 +7308,7 @@
       <c r="G103" s="1">
         <v>39091</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="6">
         <v>74546</v>
       </c>
       <c r="I103" t="s">
@@ -7330,7 +7343,7 @@
       <c r="G104" s="1">
         <v>42031</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104" s="6">
         <v>62575</v>
       </c>
       <c r="I104" t="s">
@@ -7365,7 +7378,7 @@
       <c r="G105" s="1">
         <v>44250</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105" s="6">
         <v>199041</v>
       </c>
       <c r="I105" t="s">
@@ -7400,7 +7413,7 @@
       <c r="G106" s="1">
         <v>39177</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="6">
         <v>52310</v>
       </c>
       <c r="I106" t="s">
@@ -7435,7 +7448,7 @@
       <c r="G107" s="1">
         <v>41454</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107" s="6">
         <v>159571</v>
       </c>
       <c r="I107" t="s">
@@ -7470,7 +7483,7 @@
       <c r="G108" s="1">
         <v>35726</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108" s="6">
         <v>91763</v>
       </c>
       <c r="I108" t="s">
@@ -7505,7 +7518,7 @@
       <c r="G109" s="1">
         <v>35055</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109" s="6">
         <v>96475</v>
       </c>
       <c r="I109" t="s">
@@ -7540,7 +7553,7 @@
       <c r="G110" s="1">
         <v>42706</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="6">
         <v>113781</v>
       </c>
       <c r="I110" t="s">
@@ -7575,7 +7588,7 @@
       <c r="G111" s="1">
         <v>37636</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111" s="6">
         <v>166599</v>
       </c>
       <c r="I111" t="s">
@@ -7610,7 +7623,7 @@
       <c r="G112" s="1">
         <v>38398</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="6">
         <v>95372</v>
       </c>
       <c r="I112" t="s">
@@ -7645,7 +7658,7 @@
       <c r="G113" s="1">
         <v>44052</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="6">
         <v>161203</v>
       </c>
       <c r="I113" t="s">
@@ -7680,7 +7693,7 @@
       <c r="G114" s="1">
         <v>39064</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="6">
         <v>74738</v>
       </c>
       <c r="I114" t="s">
@@ -7715,7 +7728,7 @@
       <c r="G115" s="1">
         <v>43322</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115" s="6">
         <v>171173</v>
       </c>
       <c r="I115" t="s">
@@ -7750,7 +7763,7 @@
       <c r="G116" s="1">
         <v>43732</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H116" s="6">
         <v>201464</v>
       </c>
       <c r="I116" t="s">
@@ -7785,7 +7798,7 @@
       <c r="G117" s="1">
         <v>35998</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H117" s="6">
         <v>174895</v>
       </c>
       <c r="I117" t="s">
@@ -7820,7 +7833,7 @@
       <c r="G118" s="1">
         <v>38825</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H118" s="6">
         <v>134486</v>
       </c>
       <c r="I118" t="s">
@@ -7855,7 +7868,7 @@
       <c r="G119" s="1">
         <v>39137</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H119" s="6">
         <v>71699</v>
       </c>
       <c r="I119" t="s">
@@ -7890,7 +7903,7 @@
       <c r="G120" s="1">
         <v>44198</v>
       </c>
-      <c r="H120" s="2">
+      <c r="H120" s="6">
         <v>94430</v>
       </c>
       <c r="I120" t="s">
@@ -7925,7 +7938,7 @@
       <c r="G121" s="1">
         <v>40192</v>
       </c>
-      <c r="H121" s="2">
+      <c r="H121" s="6">
         <v>103504</v>
       </c>
       <c r="I121" t="s">
@@ -7960,7 +7973,7 @@
       <c r="G122" s="1">
         <v>38573</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H122" s="6">
         <v>92771</v>
       </c>
       <c r="I122" t="s">
@@ -7995,7 +8008,7 @@
       <c r="G123" s="1">
         <v>38813</v>
       </c>
-      <c r="H123" s="2">
+      <c r="H123" s="6">
         <v>71531</v>
       </c>
       <c r="I123" t="s">
@@ -8030,7 +8043,7 @@
       <c r="G124" s="1">
         <v>43530</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H124" s="6">
         <v>90304</v>
       </c>
       <c r="I124" t="s">
@@ -8065,7 +8078,7 @@
       <c r="G125" s="1">
         <v>40793</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H125" s="6">
         <v>104903</v>
       </c>
       <c r="I125" t="s">
@@ -8100,7 +8113,7 @@
       <c r="G126" s="1">
         <v>43515</v>
       </c>
-      <c r="H126" s="2">
+      <c r="H126" s="6">
         <v>55859</v>
       </c>
       <c r="I126" t="s">
@@ -8135,7 +8148,7 @@
       <c r="G127" s="1">
         <v>39002</v>
       </c>
-      <c r="H127" s="2">
+      <c r="H127" s="6">
         <v>79785</v>
       </c>
       <c r="I127" t="s">
@@ -8170,7 +8183,7 @@
       <c r="G128" s="1">
         <v>39391</v>
       </c>
-      <c r="H128" s="2">
+      <c r="H128" s="6">
         <v>99017</v>
       </c>
       <c r="I128" t="s">
@@ -8205,7 +8218,7 @@
       <c r="G129" s="1">
         <v>33695</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H129" s="6">
         <v>53809</v>
       </c>
       <c r="I129" t="s">
@@ -8240,7 +8253,7 @@
       <c r="G130" s="1">
         <v>43937</v>
       </c>
-      <c r="H130" s="2">
+      <c r="H130" s="6">
         <v>71864</v>
       </c>
       <c r="I130" t="s">
@@ -8275,7 +8288,7 @@
       <c r="G131" s="1">
         <v>40883</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H131" s="6">
         <v>225558</v>
       </c>
       <c r="I131" t="s">
@@ -8310,7 +8323,7 @@
       <c r="G132" s="1">
         <v>41695</v>
       </c>
-      <c r="H132" s="2">
+      <c r="H132" s="6">
         <v>128984</v>
       </c>
       <c r="I132" t="s">
@@ -8345,7 +8358,7 @@
       <c r="G133" s="1">
         <v>36331</v>
       </c>
-      <c r="H133" s="2">
+      <c r="H133" s="6">
         <v>96997</v>
       </c>
       <c r="I133" t="s">
@@ -8380,7 +8393,7 @@
       <c r="G134" s="1">
         <v>43122</v>
       </c>
-      <c r="H134" s="2">
+      <c r="H134" s="6">
         <v>176294</v>
       </c>
       <c r="I134" t="s">
@@ -8415,7 +8428,7 @@
       <c r="G135" s="1">
         <v>44241</v>
       </c>
-      <c r="H135" s="2">
+      <c r="H135" s="6">
         <v>48340</v>
       </c>
       <c r="I135" t="s">
@@ -8450,7 +8463,7 @@
       <c r="G136" s="1">
         <v>42922</v>
       </c>
-      <c r="H136" s="2">
+      <c r="H136" s="6">
         <v>240488</v>
       </c>
       <c r="I136" t="s">
@@ -8485,7 +8498,7 @@
       <c r="G137" s="1">
         <v>40565</v>
       </c>
-      <c r="H137" s="2">
+      <c r="H137" s="6">
         <v>97339</v>
       </c>
       <c r="I137" t="s">
@@ -8520,7 +8533,7 @@
       <c r="G138" s="1">
         <v>37680</v>
       </c>
-      <c r="H138" s="2">
+      <c r="H138" s="6">
         <v>211291</v>
       </c>
       <c r="I138" t="s">
@@ -8555,7 +8568,7 @@
       <c r="G139" s="1">
         <v>40778</v>
       </c>
-      <c r="H139" s="2">
+      <c r="H139" s="6">
         <v>249506</v>
       </c>
       <c r="I139" t="s">
@@ -8590,7 +8603,7 @@
       <c r="G140" s="1">
         <v>37582</v>
       </c>
-      <c r="H140" s="2">
+      <c r="H140" s="6">
         <v>80950</v>
       </c>
       <c r="I140" t="s">
@@ -8625,7 +8638,7 @@
       <c r="G141" s="1">
         <v>44206</v>
       </c>
-      <c r="H141" s="2">
+      <c r="H141" s="6">
         <v>86538</v>
       </c>
       <c r="I141" t="s">
@@ -8660,7 +8673,7 @@
       <c r="G142" s="1">
         <v>43715</v>
       </c>
-      <c r="H142" s="2">
+      <c r="H142" s="6">
         <v>70992</v>
       </c>
       <c r="I142" t="s">
@@ -8695,7 +8708,7 @@
       <c r="G143" s="1">
         <v>42173</v>
       </c>
-      <c r="H143" s="2">
+      <c r="H143" s="6">
         <v>205314</v>
       </c>
       <c r="I143" t="s">
@@ -8730,7 +8743,7 @@
       <c r="G144" s="1">
         <v>42804</v>
       </c>
-      <c r="H144" s="2">
+      <c r="H144" s="6">
         <v>196951</v>
       </c>
       <c r="I144" t="s">
@@ -8765,7 +8778,7 @@
       <c r="G145" s="1">
         <v>38613</v>
       </c>
-      <c r="H145" s="2">
+      <c r="H145" s="6">
         <v>67686</v>
       </c>
       <c r="I145" t="s">
@@ -8800,7 +8813,7 @@
       <c r="G146" s="1">
         <v>39553</v>
       </c>
-      <c r="H146" s="2">
+      <c r="H146" s="6">
         <v>86431</v>
       </c>
       <c r="I146" t="s">
@@ -8835,7 +8848,7 @@
       <c r="G147" s="1">
         <v>35019</v>
       </c>
-      <c r="H147" s="2">
+      <c r="H147" s="6">
         <v>125936</v>
       </c>
       <c r="I147" t="s">
@@ -8870,7 +8883,7 @@
       <c r="G148" s="1">
         <v>41473</v>
       </c>
-      <c r="H148" s="2">
+      <c r="H148" s="6">
         <v>149712</v>
       </c>
       <c r="I148" t="s">
@@ -8905,7 +8918,7 @@
       <c r="G149" s="1">
         <v>44471</v>
       </c>
-      <c r="H149" s="2">
+      <c r="H149" s="6">
         <v>88758</v>
       </c>
       <c r="I149" t="s">
@@ -8940,7 +8953,7 @@
       <c r="G150" s="1">
         <v>41468</v>
       </c>
-      <c r="H150" s="2">
+      <c r="H150" s="6">
         <v>83639</v>
       </c>
       <c r="I150" t="s">
@@ -8975,7 +8988,7 @@
       <c r="G151" s="1">
         <v>35933</v>
       </c>
-      <c r="H151" s="2">
+      <c r="H151" s="6">
         <v>68268</v>
       </c>
       <c r="I151" t="s">
@@ -9010,7 +9023,7 @@
       <c r="G152" s="1">
         <v>37313</v>
       </c>
-      <c r="H152" s="2">
+      <c r="H152" s="6">
         <v>75819</v>
       </c>
       <c r="I152" t="s">
@@ -9045,7 +9058,7 @@
       <c r="G153" s="1">
         <v>35200</v>
       </c>
-      <c r="H153" s="2">
+      <c r="H153" s="6">
         <v>86658</v>
       </c>
       <c r="I153" t="s">
@@ -9080,7 +9093,7 @@
       <c r="G154" s="1">
         <v>41714</v>
       </c>
-      <c r="H154" s="2">
+      <c r="H154" s="6">
         <v>74552</v>
       </c>
       <c r="I154" t="s">
@@ -9115,7 +9128,7 @@
       <c r="G155" s="1">
         <v>39887</v>
       </c>
-      <c r="H155" s="2">
+      <c r="H155" s="6">
         <v>82839</v>
       </c>
       <c r="I155" t="s">
@@ -9150,7 +9163,7 @@
       <c r="G156" s="1">
         <v>44477</v>
       </c>
-      <c r="H156" s="2">
+      <c r="H156" s="6">
         <v>64475</v>
       </c>
       <c r="I156" t="s">
@@ -9185,7 +9198,7 @@
       <c r="G157" s="1">
         <v>44036</v>
       </c>
-      <c r="H157" s="2">
+      <c r="H157" s="6">
         <v>69453</v>
       </c>
       <c r="I157" t="s">
@@ -9220,7 +9233,7 @@
       <c r="G158" s="1">
         <v>41642</v>
       </c>
-      <c r="H158" s="2">
+      <c r="H158" s="6">
         <v>127148</v>
       </c>
       <c r="I158" t="s">
@@ -9255,7 +9268,7 @@
       <c r="G159" s="1">
         <v>43102</v>
       </c>
-      <c r="H159" s="2">
+      <c r="H159" s="6">
         <v>190253</v>
       </c>
       <c r="I159" t="s">
@@ -9290,7 +9303,7 @@
       <c r="G160" s="1">
         <v>36644</v>
       </c>
-      <c r="H160" s="2">
+      <c r="H160" s="6">
         <v>115798</v>
       </c>
       <c r="I160" t="s">
@@ -9325,7 +9338,7 @@
       <c r="G161" s="1">
         <v>34567</v>
       </c>
-      <c r="H161" s="2">
+      <c r="H161" s="6">
         <v>93102</v>
       </c>
       <c r="I161" t="s">
@@ -9360,7 +9373,7 @@
       <c r="G162" s="1">
         <v>43055</v>
       </c>
-      <c r="H162" s="2">
+      <c r="H162" s="6">
         <v>110054</v>
       </c>
       <c r="I162" t="s">
@@ -9395,7 +9408,7 @@
       <c r="G163" s="1">
         <v>44224</v>
       </c>
-      <c r="H163" s="2">
+      <c r="H163" s="6">
         <v>95786</v>
       </c>
       <c r="I163" t="s">
@@ -9430,7 +9443,7 @@
       <c r="G164" s="1">
         <v>42858</v>
       </c>
-      <c r="H164" s="2">
+      <c r="H164" s="6">
         <v>90855</v>
       </c>
       <c r="I164" t="s">
@@ -9465,7 +9478,7 @@
       <c r="G165" s="1">
         <v>36233</v>
       </c>
-      <c r="H165" s="2">
+      <c r="H165" s="6">
         <v>92897</v>
       </c>
       <c r="I165" t="s">
@@ -9500,7 +9513,7 @@
       <c r="G166" s="1">
         <v>39872</v>
       </c>
-      <c r="H166" s="2">
+      <c r="H166" s="6">
         <v>242919</v>
       </c>
       <c r="I166" t="s">
@@ -9535,7 +9548,7 @@
       <c r="G167" s="1">
         <v>43240</v>
       </c>
-      <c r="H167" s="2">
+      <c r="H167" s="6">
         <v>184368</v>
       </c>
       <c r="I167" t="s">
@@ -9570,7 +9583,7 @@
       <c r="G168" s="1">
         <v>44554</v>
       </c>
-      <c r="H168" s="2">
+      <c r="H168" s="6">
         <v>144754</v>
       </c>
       <c r="I168" t="s">
@@ -9605,7 +9618,7 @@
       <c r="G169" s="1">
         <v>42722</v>
       </c>
-      <c r="H169" s="2">
+      <c r="H169" s="6">
         <v>89458</v>
       </c>
       <c r="I169" t="s">
@@ -9640,7 +9653,7 @@
       <c r="G170" s="1">
         <v>41714</v>
       </c>
-      <c r="H170" s="2">
+      <c r="H170" s="6">
         <v>190815</v>
       </c>
       <c r="I170" t="s">
@@ -9675,7 +9688,7 @@
       <c r="G171" s="1">
         <v>36374</v>
       </c>
-      <c r="H171" s="2">
+      <c r="H171" s="6">
         <v>137995</v>
       </c>
       <c r="I171" t="s">
@@ -9710,7 +9723,7 @@
       <c r="G172" s="1">
         <v>39437</v>
       </c>
-      <c r="H172" s="2">
+      <c r="H172" s="6">
         <v>93840</v>
       </c>
       <c r="I172" t="s">
@@ -9745,7 +9758,7 @@
       <c r="G173" s="1">
         <v>44495</v>
       </c>
-      <c r="H173" s="2">
+      <c r="H173" s="6">
         <v>94790</v>
       </c>
       <c r="I173" t="s">
@@ -9780,7 +9793,7 @@
       <c r="G174" s="1">
         <v>41706</v>
       </c>
-      <c r="H174" s="2">
+      <c r="H174" s="6">
         <v>197367</v>
       </c>
       <c r="I174" t="s">
@@ -9815,7 +9828,7 @@
       <c r="G175" s="1">
         <v>43276</v>
       </c>
-      <c r="H175" s="2">
+      <c r="H175" s="6">
         <v>174097</v>
       </c>
       <c r="I175" t="s">
@@ -9850,7 +9863,7 @@
       <c r="G176" s="1">
         <v>39021</v>
       </c>
-      <c r="H176" s="2">
+      <c r="H176" s="6">
         <v>120128</v>
       </c>
       <c r="I176" t="s">
@@ -9885,7 +9898,7 @@
       <c r="G177" s="1">
         <v>39197</v>
       </c>
-      <c r="H177" s="2">
+      <c r="H177" s="6">
         <v>129708</v>
       </c>
       <c r="I177" t="s">
@@ -9920,7 +9933,7 @@
       <c r="G178" s="1">
         <v>34595</v>
       </c>
-      <c r="H178" s="2">
+      <c r="H178" s="6">
         <v>102270</v>
       </c>
       <c r="I178" t="s">
@@ -9955,7 +9968,7 @@
       <c r="G179" s="1">
         <v>38564</v>
       </c>
-      <c r="H179" s="2">
+      <c r="H179" s="6">
         <v>249686</v>
       </c>
       <c r="I179" t="s">
@@ -9990,7 +10003,7 @@
       <c r="G180" s="1">
         <v>37343</v>
       </c>
-      <c r="H180" s="2">
+      <c r="H180" s="6">
         <v>50475</v>
       </c>
       <c r="I180" t="s">
@@ -10025,7 +10038,7 @@
       <c r="G181" s="1">
         <v>44014</v>
       </c>
-      <c r="H181" s="2">
+      <c r="H181" s="6">
         <v>100099</v>
       </c>
       <c r="I181" t="s">
@@ -10060,7 +10073,7 @@
       <c r="G182" s="1">
         <v>42731</v>
       </c>
-      <c r="H182" s="2">
+      <c r="H182" s="6">
         <v>41673</v>
       </c>
       <c r="I182" t="s">
@@ -10095,7 +10108,7 @@
       <c r="G183" s="1">
         <v>42928</v>
       </c>
-      <c r="H183" s="2">
+      <c r="H183" s="6">
         <v>70996</v>
       </c>
       <c r="I183" t="s">
@@ -10130,7 +10143,7 @@
       <c r="G184" s="1">
         <v>38328</v>
       </c>
-      <c r="H184" s="2">
+      <c r="H184" s="6">
         <v>40752</v>
       </c>
       <c r="I184" t="s">
@@ -10165,7 +10178,7 @@
       <c r="G185" s="1">
         <v>36914</v>
       </c>
-      <c r="H185" s="2">
+      <c r="H185" s="6">
         <v>97537</v>
       </c>
       <c r="I185" t="s">
@@ -10200,7 +10213,7 @@
       <c r="G186" s="1">
         <v>44086</v>
       </c>
-      <c r="H186" s="2">
+      <c r="H186" s="6">
         <v>96567</v>
       </c>
       <c r="I186" t="s">
@@ -10235,7 +10248,7 @@
       <c r="G187" s="1">
         <v>36229</v>
       </c>
-      <c r="H187" s="2">
+      <c r="H187" s="6">
         <v>49404</v>
       </c>
       <c r="I187" t="s">
@@ -10270,7 +10283,7 @@
       <c r="G188" s="1">
         <v>43753</v>
       </c>
-      <c r="H188" s="2">
+      <c r="H188" s="6">
         <v>66819</v>
       </c>
       <c r="I188" t="s">
@@ -10305,7 +10318,7 @@
       <c r="G189" s="1">
         <v>42492</v>
       </c>
-      <c r="H189" s="2">
+      <c r="H189" s="6">
         <v>50784</v>
       </c>
       <c r="I189" t="s">
@@ -10340,7 +10353,7 @@
       <c r="G190" s="1">
         <v>43594</v>
       </c>
-      <c r="H190" s="2">
+      <c r="H190" s="6">
         <v>125828</v>
       </c>
       <c r="I190" t="s">
@@ -10375,7 +10388,7 @@
       <c r="G191" s="1">
         <v>42951</v>
       </c>
-      <c r="H191" s="2">
+      <c r="H191" s="6">
         <v>92610</v>
       </c>
       <c r="I191" t="s">
@@ -10410,7 +10423,7 @@
       <c r="G192" s="1">
         <v>37705</v>
       </c>
-      <c r="H192" s="2">
+      <c r="H192" s="6">
         <v>123405</v>
       </c>
       <c r="I192" t="s">
@@ -10445,7 +10458,7 @@
       <c r="G193" s="1">
         <v>38066</v>
       </c>
-      <c r="H193" s="2">
+      <c r="H193" s="6">
         <v>73004</v>
       </c>
       <c r="I193" t="s">
@@ -10480,7 +10493,7 @@
       <c r="G194" s="1">
         <v>36275</v>
       </c>
-      <c r="H194" s="2">
+      <c r="H194" s="6">
         <v>95061</v>
       </c>
       <c r="I194" t="s">
@@ -10515,7 +10528,7 @@
       <c r="G195" s="1">
         <v>35887</v>
       </c>
-      <c r="H195" s="2">
+      <c r="H195" s="6">
         <v>160832</v>
       </c>
       <c r="I195" t="s">
@@ -10550,7 +10563,7 @@
       <c r="G196" s="1">
         <v>40540</v>
       </c>
-      <c r="H196" s="2">
+      <c r="H196" s="6">
         <v>64417</v>
       </c>
       <c r="I196" t="s">
@@ -10585,7 +10598,7 @@
       <c r="G197" s="1">
         <v>44274</v>
       </c>
-      <c r="H197" s="2">
+      <c r="H197" s="6">
         <v>127543</v>
       </c>
       <c r="I197" t="s">
@@ -10620,7 +10633,7 @@
       <c r="G198" s="1">
         <v>43272</v>
       </c>
-      <c r="H198" s="2">
+      <c r="H198" s="6">
         <v>56154</v>
       </c>
       <c r="I198" t="s">
@@ -10655,7 +10668,7 @@
       <c r="G199" s="1">
         <v>41692</v>
       </c>
-      <c r="H199" s="2">
+      <c r="H199" s="6">
         <v>218530</v>
       </c>
       <c r="I199" t="s">
@@ -10690,7 +10703,7 @@
       <c r="G200" s="1">
         <v>43818</v>
       </c>
-      <c r="H200" s="2">
+      <c r="H200" s="6">
         <v>91954</v>
       </c>
       <c r="I200" t="s">
@@ -10725,7 +10738,7 @@
       <c r="G201" s="1">
         <v>42634</v>
       </c>
-      <c r="H201" s="2">
+      <c r="H201" s="6">
         <v>221217</v>
       </c>
       <c r="I201" t="s">
@@ -10760,7 +10773,7 @@
       <c r="G202" s="1">
         <v>42866</v>
       </c>
-      <c r="H202" s="2">
+      <c r="H202" s="6">
         <v>87536</v>
       </c>
       <c r="I202" t="s">
@@ -10795,7 +10808,7 @@
       <c r="G203" s="1">
         <v>42164</v>
       </c>
-      <c r="H203" s="2">
+      <c r="H203" s="6">
         <v>41429</v>
       </c>
       <c r="I203" t="s">
@@ -10830,7 +10843,7 @@
       <c r="G204" s="1">
         <v>40826</v>
       </c>
-      <c r="H204" s="2">
+      <c r="H204" s="6">
         <v>245482</v>
       </c>
       <c r="I204" t="s">
@@ -10865,7 +10878,7 @@
       <c r="G205" s="1">
         <v>43850</v>
       </c>
-      <c r="H205" s="2">
+      <c r="H205" s="6">
         <v>71359</v>
       </c>
       <c r="I205" t="s">
@@ -10900,7 +10913,7 @@
       <c r="G206" s="1">
         <v>41879</v>
       </c>
-      <c r="H206" s="2">
+      <c r="H206" s="6">
         <v>183161</v>
       </c>
       <c r="I206" t="s">
@@ -10935,7 +10948,7 @@
       <c r="G207" s="1">
         <v>34176</v>
       </c>
-      <c r="H207" s="2">
+      <c r="H207" s="6">
         <v>69260</v>
       </c>
       <c r="I207" t="s">
@@ -10970,7 +10983,7 @@
       <c r="G208" s="1">
         <v>36442</v>
       </c>
-      <c r="H208" s="2">
+      <c r="H208" s="6">
         <v>95639</v>
       </c>
       <c r="I208" t="s">
@@ -11005,7 +11018,7 @@
       <c r="G209" s="1">
         <v>38168</v>
       </c>
-      <c r="H209" s="2">
+      <c r="H209" s="6">
         <v>120660</v>
       </c>
       <c r="I209" t="s">
@@ -11040,7 +11053,7 @@
       <c r="G210" s="1">
         <v>44556</v>
       </c>
-      <c r="H210" s="2">
+      <c r="H210" s="6">
         <v>75119</v>
       </c>
       <c r="I210" t="s">
@@ -11075,7 +11088,7 @@
       <c r="G211" s="1">
         <v>40681</v>
       </c>
-      <c r="H211" s="2">
+      <c r="H211" s="6">
         <v>192213</v>
       </c>
       <c r="I211" t="s">
@@ -11110,7 +11123,7 @@
       <c r="G212" s="1">
         <v>41769</v>
       </c>
-      <c r="H212" s="2">
+      <c r="H212" s="6">
         <v>65047</v>
       </c>
       <c r="I212" t="s">
@@ -11145,7 +11158,7 @@
       <c r="G213" s="1">
         <v>42810</v>
       </c>
-      <c r="H213" s="2">
+      <c r="H213" s="6">
         <v>151413</v>
       </c>
       <c r="I213" t="s">
@@ -11180,7 +11193,7 @@
       <c r="G214" s="1">
         <v>37733</v>
       </c>
-      <c r="H214" s="2">
+      <c r="H214" s="6">
         <v>76906</v>
       </c>
       <c r="I214" t="s">
@@ -11215,7 +11228,7 @@
       <c r="G215" s="1">
         <v>34388</v>
       </c>
-      <c r="H215" s="2">
+      <c r="H215" s="6">
         <v>122802</v>
       </c>
       <c r="I215" t="s">
@@ -11250,7 +11263,7 @@
       <c r="G216" s="1">
         <v>35990</v>
       </c>
-      <c r="H216" s="2">
+      <c r="H216" s="6">
         <v>99091</v>
       </c>
       <c r="I216" t="s">
@@ -11285,7 +11298,7 @@
       <c r="G217" s="1">
         <v>39506</v>
       </c>
-      <c r="H217" s="2">
+      <c r="H217" s="6">
         <v>113987</v>
       </c>
       <c r="I217" t="s">
@@ -11320,7 +11333,7 @@
       <c r="G218" s="1">
         <v>44078</v>
       </c>
-      <c r="H218" s="2">
+      <c r="H218" s="6">
         <v>95045</v>
       </c>
       <c r="I218" t="s">
@@ -11355,7 +11368,7 @@
       <c r="G219" s="1">
         <v>42740</v>
       </c>
-      <c r="H219" s="2">
+      <c r="H219" s="6">
         <v>190401</v>
       </c>
       <c r="I219" t="s">
@@ -11390,7 +11403,7 @@
       <c r="G220" s="1">
         <v>41294</v>
       </c>
-      <c r="H220" s="2">
+      <c r="H220" s="6">
         <v>86061</v>
       </c>
       <c r="I220" t="s">
@@ -11425,7 +11438,7 @@
       <c r="G221" s="1">
         <v>44237</v>
       </c>
-      <c r="H221" s="2">
+      <c r="H221" s="6">
         <v>79882</v>
       </c>
       <c r="I221" t="s">
@@ -11460,7 +11473,7 @@
       <c r="G222" s="1">
         <v>43165</v>
       </c>
-      <c r="H222" s="2">
+      <c r="H222" s="6">
         <v>255431</v>
       </c>
       <c r="I222" t="s">
@@ -11495,7 +11508,7 @@
       <c r="G223" s="1">
         <v>37855</v>
       </c>
-      <c r="H223" s="2">
+      <c r="H223" s="6">
         <v>82017</v>
       </c>
       <c r="I223" t="s">
@@ -11530,7 +11543,7 @@
       <c r="G224" s="1">
         <v>42753</v>
       </c>
-      <c r="H224" s="2">
+      <c r="H224" s="6">
         <v>53799</v>
       </c>
       <c r="I224" t="s">
@@ -11565,7 +11578,7 @@
       <c r="G225" s="1">
         <v>44380</v>
       </c>
-      <c r="H225" s="2">
+      <c r="H225" s="6">
         <v>82739</v>
       </c>
       <c r="I225" t="s">
@@ -11600,7 +11613,7 @@
       <c r="G226" s="1">
         <v>41789</v>
       </c>
-      <c r="H226" s="2">
+      <c r="H226" s="6">
         <v>99080</v>
       </c>
       <c r="I226" t="s">
@@ -11635,7 +11648,7 @@
       <c r="G227" s="1">
         <v>40563</v>
       </c>
-      <c r="H227" s="2">
+      <c r="H227" s="6">
         <v>96719</v>
       </c>
       <c r="I227" t="s">
@@ -11670,7 +11683,7 @@
       <c r="G228" s="1">
         <v>44283</v>
       </c>
-      <c r="H228" s="2">
+      <c r="H228" s="6">
         <v>180687</v>
       </c>
       <c r="I228" t="s">
@@ -11705,7 +11718,7 @@
       <c r="G229" s="1">
         <v>36993</v>
       </c>
-      <c r="H229" s="2">
+      <c r="H229" s="6">
         <v>95743</v>
       </c>
       <c r="I229" t="s">
@@ -11740,7 +11753,7 @@
       <c r="G230" s="1">
         <v>40060</v>
       </c>
-      <c r="H230" s="2">
+      <c r="H230" s="6">
         <v>89695</v>
       </c>
       <c r="I230" t="s">
@@ -11775,7 +11788,7 @@
       <c r="G231" s="1">
         <v>35996</v>
       </c>
-      <c r="H231" s="2">
+      <c r="H231" s="6">
         <v>122753</v>
       </c>
       <c r="I231" t="s">
@@ -11810,7 +11823,7 @@
       <c r="G232" s="1">
         <v>42078</v>
       </c>
-      <c r="H232" s="2">
+      <c r="H232" s="6">
         <v>93734</v>
       </c>
       <c r="I232" t="s">
@@ -11845,7 +11858,7 @@
       <c r="G233" s="1">
         <v>42867</v>
       </c>
-      <c r="H233" s="2">
+      <c r="H233" s="6">
         <v>52069</v>
       </c>
       <c r="I233" t="s">
@@ -11880,7 +11893,7 @@
       <c r="G234" s="1">
         <v>44181</v>
       </c>
-      <c r="H234" s="2">
+      <c r="H234" s="6">
         <v>258426</v>
       </c>
       <c r="I234" t="s">
@@ -11915,7 +11928,7 @@
       <c r="G235" s="1">
         <v>34746</v>
       </c>
-      <c r="H235" s="2">
+      <c r="H235" s="6">
         <v>125375</v>
       </c>
       <c r="I235" t="s">
@@ -11950,7 +11963,7 @@
       <c r="G236" s="1">
         <v>44235</v>
       </c>
-      <c r="H236" s="2">
+      <c r="H236" s="6">
         <v>198243</v>
       </c>
       <c r="I236" t="s">
@@ -11985,7 +11998,7 @@
       <c r="G237" s="1">
         <v>43062</v>
       </c>
-      <c r="H237" s="2">
+      <c r="H237" s="6">
         <v>96023</v>
       </c>
       <c r="I237" t="s">
@@ -12020,7 +12033,7 @@
       <c r="G238" s="1">
         <v>41085</v>
       </c>
-      <c r="H238" s="2">
+      <c r="H238" s="6">
         <v>83066</v>
       </c>
       <c r="I238" t="s">
@@ -12055,7 +12068,7 @@
       <c r="G239" s="1">
         <v>41773</v>
       </c>
-      <c r="H239" s="2">
+      <c r="H239" s="6">
         <v>61216</v>
       </c>
       <c r="I239" t="s">
@@ -12090,7 +12103,7 @@
       <c r="G240" s="1">
         <v>41315</v>
       </c>
-      <c r="H240" s="2">
+      <c r="H240" s="6">
         <v>144231</v>
       </c>
       <c r="I240" t="s">
@@ -12125,7 +12138,7 @@
       <c r="G241" s="1">
         <v>39379</v>
       </c>
-      <c r="H241" s="2">
+      <c r="H241" s="6">
         <v>51630</v>
       </c>
       <c r="I241" t="s">
@@ -12160,7 +12173,7 @@
       <c r="G242" s="1">
         <v>41594</v>
       </c>
-      <c r="H242" s="2">
+      <c r="H242" s="6">
         <v>124129</v>
       </c>
       <c r="I242" t="s">
@@ -12195,7 +12208,7 @@
       <c r="G243" s="1">
         <v>39912</v>
       </c>
-      <c r="H243" s="2">
+      <c r="H243" s="6">
         <v>60055</v>
       </c>
       <c r="I243" t="s">
@@ -12230,7 +12243,7 @@
       <c r="G244" s="1">
         <v>44069</v>
       </c>
-      <c r="H244" s="2">
+      <c r="H244" s="6">
         <v>189290</v>
       </c>
       <c r="I244" t="s">
@@ -12265,7 +12278,7 @@
       <c r="G245" s="1">
         <v>39568</v>
       </c>
-      <c r="H245" s="2">
+      <c r="H245" s="6">
         <v>182202</v>
       </c>
       <c r="I245" t="s">
@@ -12300,7 +12313,7 @@
       <c r="G246" s="1">
         <v>38748</v>
       </c>
-      <c r="H246" s="2">
+      <c r="H246" s="6">
         <v>117518</v>
       </c>
       <c r="I246" t="s">
@@ -12335,7 +12348,7 @@
       <c r="G247" s="1">
         <v>41329</v>
       </c>
-      <c r="H247" s="2">
+      <c r="H247" s="6">
         <v>157474</v>
       </c>
       <c r="I247" t="s">
@@ -12370,7 +12383,7 @@
       <c r="G248" s="1">
         <v>39544</v>
       </c>
-      <c r="H248" s="2">
+      <c r="H248" s="6">
         <v>126856</v>
       </c>
       <c r="I248" t="s">
@@ -12405,7 +12418,7 @@
       <c r="G249" s="1">
         <v>36983</v>
       </c>
-      <c r="H249" s="2">
+      <c r="H249" s="6">
         <v>129124</v>
       </c>
       <c r="I249" t="s">
@@ -12440,7 +12453,7 @@
       <c r="G250" s="1">
         <v>37316</v>
       </c>
-      <c r="H250" s="2">
+      <c r="H250" s="6">
         <v>165181</v>
       </c>
       <c r="I250" t="s">
@@ -12475,7 +12488,7 @@
       <c r="G251" s="1">
         <v>38004</v>
       </c>
-      <c r="H251" s="2">
+      <c r="H251" s="6">
         <v>247939</v>
       </c>
       <c r="I251" t="s">
@@ -12510,7 +12523,7 @@
       <c r="G252" s="1">
         <v>42972</v>
       </c>
-      <c r="H252" s="2">
+      <c r="H252" s="6">
         <v>169509</v>
       </c>
       <c r="I252" t="s">
@@ -12545,7 +12558,7 @@
       <c r="G253" s="1">
         <v>40552</v>
       </c>
-      <c r="H253" s="2">
+      <c r="H253" s="6">
         <v>138521</v>
       </c>
       <c r="I253" t="s">
@@ -12580,7 +12593,7 @@
       <c r="G254" s="1">
         <v>41712</v>
       </c>
-      <c r="H254" s="2">
+      <c r="H254" s="6">
         <v>113873</v>
       </c>
       <c r="I254" t="s">
@@ -12615,7 +12628,7 @@
       <c r="G255" s="1">
         <v>43229</v>
       </c>
-      <c r="H255" s="2">
+      <c r="H255" s="6">
         <v>73317</v>
       </c>
       <c r="I255" t="s">
@@ -12650,7 +12663,7 @@
       <c r="G256" s="1">
         <v>41451</v>
       </c>
-      <c r="H256" s="2">
+      <c r="H256" s="6">
         <v>69096</v>
       </c>
       <c r="I256" t="s">
@@ -12685,7 +12698,7 @@
       <c r="G257" s="1">
         <v>38454</v>
       </c>
-      <c r="H257" s="2">
+      <c r="H257" s="6">
         <v>87158</v>
       </c>
       <c r="I257" t="s">
@@ -12720,7 +12733,7 @@
       <c r="G258" s="1">
         <v>33875</v>
       </c>
-      <c r="H258" s="2">
+      <c r="H258" s="6">
         <v>70778</v>
       </c>
       <c r="I258" t="s">
@@ -12755,7 +12768,7 @@
       <c r="G259" s="1">
         <v>38130</v>
       </c>
-      <c r="H259" s="2">
+      <c r="H259" s="6">
         <v>153938</v>
       </c>
       <c r="I259" t="s">
@@ -12790,7 +12803,7 @@
       <c r="G260" s="1">
         <v>43224</v>
       </c>
-      <c r="H260" s="2">
+      <c r="H260" s="6">
         <v>59888</v>
       </c>
       <c r="I260" t="s">
@@ -12825,7 +12838,7 @@
       <c r="G261" s="1">
         <v>43447</v>
       </c>
-      <c r="H261" s="2">
+      <c r="H261" s="6">
         <v>63098</v>
       </c>
       <c r="I261" t="s">
@@ -12860,7 +12873,7 @@
       <c r="G262" s="1">
         <v>44545</v>
       </c>
-      <c r="H262" s="2">
+      <c r="H262" s="6">
         <v>255369</v>
       </c>
       <c r="I262" t="s">
@@ -12895,7 +12908,7 @@
       <c r="G263" s="1">
         <v>38301</v>
       </c>
-      <c r="H263" s="2">
+      <c r="H263" s="6">
         <v>142318</v>
       </c>
       <c r="I263" t="s">
@@ -12930,7 +12943,7 @@
       <c r="G264" s="1">
         <v>38219</v>
       </c>
-      <c r="H264" s="2">
+      <c r="H264" s="6">
         <v>49186</v>
       </c>
       <c r="I264" t="s">
@@ -12965,7 +12978,7 @@
       <c r="G265" s="1">
         <v>43673</v>
       </c>
-      <c r="H265" s="2">
+      <c r="H265" s="6">
         <v>220937</v>
       </c>
       <c r="I265" t="s">
@@ -13000,7 +13013,7 @@
       <c r="G266" s="1">
         <v>41208</v>
       </c>
-      <c r="H266" s="2">
+      <c r="H266" s="6">
         <v>183156</v>
       </c>
       <c r="I266" t="s">
@@ -13035,7 +13048,7 @@
       <c r="G267" s="1">
         <v>44034</v>
       </c>
-      <c r="H267" s="2">
+      <c r="H267" s="6">
         <v>192749</v>
       </c>
       <c r="I267" t="s">
@@ -13070,7 +13083,7 @@
       <c r="G268" s="1">
         <v>42819</v>
       </c>
-      <c r="H268" s="2">
+      <c r="H268" s="6">
         <v>135325</v>
       </c>
       <c r="I268" t="s">
@@ -13105,7 +13118,7 @@
       <c r="G269" s="1">
         <v>43752</v>
       </c>
-      <c r="H269" s="2">
+      <c r="H269" s="6">
         <v>79356</v>
       </c>
       <c r="I269" t="s">
@@ -13140,7 +13153,7 @@
       <c r="G270" s="1">
         <v>38540</v>
       </c>
-      <c r="H270" s="2">
+      <c r="H270" s="6">
         <v>74412</v>
       </c>
       <c r="I270" t="s">
@@ -13175,7 +13188,7 @@
       <c r="G271" s="1">
         <v>43010</v>
       </c>
-      <c r="H271" s="2">
+      <c r="H271" s="6">
         <v>61886</v>
       </c>
       <c r="I271" t="s">
@@ -13210,7 +13223,7 @@
       <c r="G272" s="1">
         <v>37755</v>
       </c>
-      <c r="H272" s="2">
+      <c r="H272" s="6">
         <v>173071</v>
       </c>
       <c r="I272" t="s">
@@ -13245,7 +13258,7 @@
       <c r="G273" s="1">
         <v>34999</v>
       </c>
-      <c r="H273" s="2">
+      <c r="H273" s="6">
         <v>70189</v>
       </c>
       <c r="I273" t="s">
@@ -13280,7 +13293,7 @@
       <c r="G274" s="1">
         <v>41528</v>
       </c>
-      <c r="H274" s="2">
+      <c r="H274" s="6">
         <v>181452</v>
       </c>
       <c r="I274" t="s">
@@ -13315,7 +13328,7 @@
       <c r="G275" s="1">
         <v>44267</v>
       </c>
-      <c r="H275" s="2">
+      <c r="H275" s="6">
         <v>70369</v>
       </c>
       <c r="I275" t="s">
@@ -13350,7 +13363,7 @@
       <c r="G276" s="1">
         <v>39634</v>
       </c>
-      <c r="H276" s="2">
+      <c r="H276" s="6">
         <v>78056</v>
       </c>
       <c r="I276" t="s">
@@ -13385,7 +13398,7 @@
       <c r="G277" s="1">
         <v>35187</v>
       </c>
-      <c r="H277" s="2">
+      <c r="H277" s="6">
         <v>189933</v>
       </c>
       <c r="I277" t="s">
@@ -13420,7 +13433,7 @@
       <c r="G278" s="1">
         <v>40360</v>
       </c>
-      <c r="H278" s="2">
+      <c r="H278" s="6">
         <v>78237</v>
       </c>
       <c r="I278" t="s">
@@ -13455,7 +13468,7 @@
       <c r="G279" s="1">
         <v>35242</v>
       </c>
-      <c r="H279" s="2">
+      <c r="H279" s="6">
         <v>48687</v>
       </c>
       <c r="I279" t="s">
@@ -13490,7 +13503,7 @@
       <c r="G280" s="1">
         <v>38218</v>
       </c>
-      <c r="H280" s="2">
+      <c r="H280" s="6">
         <v>121065</v>
       </c>
       <c r="I280" t="s">
@@ -13525,7 +13538,7 @@
       <c r="G281" s="1">
         <v>38093</v>
       </c>
-      <c r="H281" s="2">
+      <c r="H281" s="6">
         <v>94246</v>
       </c>
       <c r="I281" t="s">
@@ -13560,7 +13573,7 @@
       <c r="G282" s="1">
         <v>42512</v>
       </c>
-      <c r="H282" s="2">
+      <c r="H282" s="6">
         <v>44614</v>
       </c>
       <c r="I282" t="s">
@@ -13595,7 +13608,7 @@
       <c r="G283" s="1">
         <v>44143</v>
       </c>
-      <c r="H283" s="2">
+      <c r="H283" s="6">
         <v>234469</v>
       </c>
       <c r="I283" t="s">
@@ -13630,7 +13643,7 @@
       <c r="G284" s="1">
         <v>44022</v>
       </c>
-      <c r="H284" s="2">
+      <c r="H284" s="6">
         <v>88272</v>
       </c>
       <c r="I284" t="s">
@@ -13665,7 +13678,7 @@
       <c r="G285" s="1">
         <v>42992</v>
       </c>
-      <c r="H285" s="2">
+      <c r="H285" s="6">
         <v>74449</v>
       </c>
       <c r="I285" t="s">
@@ -13700,7 +13713,7 @@
       <c r="G286" s="1">
         <v>41071</v>
       </c>
-      <c r="H286" s="2">
+      <c r="H286" s="6">
         <v>222941</v>
       </c>
       <c r="I286" t="s">
@@ -13735,7 +13748,7 @@
       <c r="G287" s="1">
         <v>41543</v>
       </c>
-      <c r="H287" s="2">
+      <c r="H287" s="6">
         <v>50341</v>
       </c>
       <c r="I287" t="s">
@@ -13770,7 +13783,7 @@
       <c r="G288" s="1">
         <v>44297</v>
       </c>
-      <c r="H288" s="2">
+      <c r="H288" s="6">
         <v>72235</v>
       </c>
       <c r="I288" t="s">
@@ -13805,7 +13818,7 @@
       <c r="G289" s="1">
         <v>42533</v>
       </c>
-      <c r="H289" s="2">
+      <c r="H289" s="6">
         <v>70165</v>
       </c>
       <c r="I289" t="s">
@@ -13840,7 +13853,7 @@
       <c r="G290" s="1">
         <v>44030</v>
       </c>
-      <c r="H290" s="2">
+      <c r="H290" s="6">
         <v>148485</v>
       </c>
       <c r="I290" t="s">
@@ -13875,7 +13888,7 @@
       <c r="G291" s="1">
         <v>38521</v>
       </c>
-      <c r="H291" s="2">
+      <c r="H291" s="6">
         <v>86089</v>
       </c>
       <c r="I291" t="s">
@@ -13910,7 +13923,7 @@
       <c r="G292" s="1">
         <v>39382</v>
       </c>
-      <c r="H292" s="2">
+      <c r="H292" s="6">
         <v>106313</v>
       </c>
       <c r="I292" t="s">
@@ -13945,7 +13958,7 @@
       <c r="G293" s="1">
         <v>44251</v>
       </c>
-      <c r="H293" s="2">
+      <c r="H293" s="6">
         <v>46833</v>
       </c>
       <c r="I293" t="s">
@@ -13980,7 +13993,7 @@
       <c r="G294" s="1">
         <v>36826</v>
       </c>
-      <c r="H294" s="2">
+      <c r="H294" s="6">
         <v>155320</v>
       </c>
       <c r="I294" t="s">
@@ -14015,7 +14028,7 @@
       <c r="G295" s="1">
         <v>42384</v>
       </c>
-      <c r="H295" s="2">
+      <c r="H295" s="6">
         <v>89984</v>
       </c>
       <c r="I295" t="s">
@@ -14050,7 +14063,7 @@
       <c r="G296" s="1">
         <v>38792</v>
       </c>
-      <c r="H296" s="2">
+      <c r="H296" s="6">
         <v>83756</v>
       </c>
       <c r="I296" t="s">
@@ -14085,7 +14098,7 @@
       <c r="G297" s="1">
         <v>42667</v>
       </c>
-      <c r="H297" s="2">
+      <c r="H297" s="6">
         <v>176324</v>
       </c>
       <c r="I297" t="s">
@@ -14120,7 +14133,7 @@
       <c r="G298" s="1">
         <v>44482</v>
       </c>
-      <c r="H298" s="2">
+      <c r="H298" s="6">
         <v>74077</v>
       </c>
       <c r="I298" t="s">
@@ -14155,7 +14168,7 @@
       <c r="G299" s="1">
         <v>44214</v>
       </c>
-      <c r="H299" s="2">
+      <c r="H299" s="6">
         <v>104162</v>
       </c>
       <c r="I299" t="s">
@@ -14190,7 +14203,7 @@
       <c r="G300" s="1">
         <v>40418</v>
       </c>
-      <c r="H300" s="2">
+      <c r="H300" s="6">
         <v>82162</v>
       </c>
       <c r="I300" t="s">
@@ -14225,7 +14238,7 @@
       <c r="G301" s="1">
         <v>42195</v>
       </c>
-      <c r="H301" s="2">
+      <c r="H301" s="6">
         <v>63880</v>
       </c>
       <c r="I301" t="s">
@@ -14260,7 +14273,7 @@
       <c r="G302" s="1">
         <v>41525</v>
       </c>
-      <c r="H302" s="2">
+      <c r="H302" s="6">
         <v>73248</v>
       </c>
       <c r="I302" t="s">
@@ -14295,7 +14308,7 @@
       <c r="G303" s="1">
         <v>44113</v>
       </c>
-      <c r="H303" s="2">
+      <c r="H303" s="6">
         <v>91853</v>
       </c>
       <c r="I303" t="s">
@@ -14330,7 +14343,7 @@
       <c r="G304" s="1">
         <v>43844</v>
       </c>
-      <c r="H304" s="2">
+      <c r="H304" s="6">
         <v>168014</v>
       </c>
       <c r="I304" t="s">
@@ -14365,7 +14378,7 @@
       <c r="G305" s="1">
         <v>42995</v>
       </c>
-      <c r="H305" s="2">
+      <c r="H305" s="6">
         <v>70770</v>
       </c>
       <c r="I305" t="s">
@@ -14400,7 +14413,7 @@
       <c r="G306" s="1">
         <v>38271</v>
       </c>
-      <c r="H306" s="2">
+      <c r="H306" s="6">
         <v>50825</v>
       </c>
       <c r="I306" t="s">
@@ -14435,7 +14448,7 @@
       <c r="G307" s="1">
         <v>42266</v>
       </c>
-      <c r="H307" s="2">
+      <c r="H307" s="6">
         <v>145846</v>
       </c>
       <c r="I307" t="s">
@@ -14470,7 +14483,7 @@
       <c r="G308" s="1">
         <v>37962</v>
       </c>
-      <c r="H308" s="2">
+      <c r="H308" s="6">
         <v>125807</v>
       </c>
       <c r="I308" t="s">
@@ -14505,7 +14518,7 @@
       <c r="G309" s="1">
         <v>44405</v>
       </c>
-      <c r="H309" s="2">
+      <c r="H309" s="6">
         <v>46845</v>
       </c>
       <c r="I309" t="s">
@@ -14540,7 +14553,7 @@
       <c r="G310" s="1">
         <v>39689</v>
       </c>
-      <c r="H310" s="2">
+      <c r="H310" s="6">
         <v>157969</v>
       </c>
       <c r="I310" t="s">
@@ -14575,7 +14588,7 @@
       <c r="G311" s="1">
         <v>40522</v>
       </c>
-      <c r="H311" s="2">
+      <c r="H311" s="6">
         <v>97807</v>
       </c>
       <c r="I311" t="s">
@@ -14610,7 +14623,7 @@
       <c r="G312" s="1">
         <v>42347</v>
       </c>
-      <c r="H312" s="2">
+      <c r="H312" s="6">
         <v>73854</v>
       </c>
       <c r="I312" t="s">
@@ -14645,7 +14658,7 @@
       <c r="G313" s="1">
         <v>39063</v>
       </c>
-      <c r="H313" s="2">
+      <c r="H313" s="6">
         <v>149537</v>
       </c>
       <c r="I313" t="s">
@@ -14680,7 +14693,7 @@
       <c r="G314" s="1">
         <v>41379</v>
       </c>
-      <c r="H314" s="2">
+      <c r="H314" s="6">
         <v>128303</v>
       </c>
       <c r="I314" t="s">
@@ -14715,7 +14728,7 @@
       <c r="G315" s="1">
         <v>38513</v>
       </c>
-      <c r="H315" s="2">
+      <c r="H315" s="6">
         <v>67374</v>
       </c>
       <c r="I315" t="s">
@@ -14750,7 +14763,7 @@
       <c r="G316" s="1">
         <v>40810</v>
       </c>
-      <c r="H316" s="2">
+      <c r="H316" s="6">
         <v>102167</v>
       </c>
       <c r="I316" t="s">
@@ -14785,7 +14798,7 @@
       <c r="G317" s="1">
         <v>39332</v>
       </c>
-      <c r="H317" s="2">
+      <c r="H317" s="6">
         <v>151027</v>
       </c>
       <c r="I317" t="s">
@@ -14820,7 +14833,7 @@
       <c r="G318" s="1">
         <v>43147</v>
       </c>
-      <c r="H318" s="2">
+      <c r="H318" s="6">
         <v>120905</v>
       </c>
       <c r="I318" t="s">
@@ -14855,7 +14868,7 @@
       <c r="G319" s="1">
         <v>43253</v>
       </c>
-      <c r="H319" s="2">
+      <c r="H319" s="6">
         <v>231567</v>
       </c>
       <c r="I319" t="s">
@@ -14890,7 +14903,7 @@
       <c r="G320" s="1">
         <v>42197</v>
       </c>
-      <c r="H320" s="2">
+      <c r="H320" s="6">
         <v>215388</v>
       </c>
       <c r="I320" t="s">
@@ -14925,7 +14938,7 @@
       <c r="G321" s="1">
         <v>42168</v>
       </c>
-      <c r="H321" s="2">
+      <c r="H321" s="6">
         <v>127972</v>
       </c>
       <c r="I321" t="s">
@@ -14960,7 +14973,7 @@
       <c r="G322" s="1">
         <v>34915</v>
       </c>
-      <c r="H322" s="2">
+      <c r="H322" s="6">
         <v>80701</v>
       </c>
       <c r="I322" t="s">
@@ -14995,7 +15008,7 @@
       <c r="G323" s="1">
         <v>43863</v>
       </c>
-      <c r="H323" s="2">
+      <c r="H323" s="6">
         <v>115417</v>
       </c>
       <c r="I323" t="s">
@@ -15030,7 +15043,7 @@
       <c r="G324" s="1">
         <v>43635</v>
       </c>
-      <c r="H324" s="2">
+      <c r="H324" s="6">
         <v>88045</v>
       </c>
       <c r="I324" t="s">
@@ -15065,7 +15078,7 @@
       <c r="G325" s="1">
         <v>43185</v>
       </c>
-      <c r="H325" s="2">
+      <c r="H325" s="6">
         <v>86478</v>
       </c>
       <c r="I325" t="s">
@@ -15100,7 +15113,7 @@
       <c r="G326" s="1">
         <v>42387</v>
       </c>
-      <c r="H326" s="2">
+      <c r="H326" s="6">
         <v>180994</v>
       </c>
       <c r="I326" t="s">
@@ -15135,7 +15148,7 @@
       <c r="G327" s="1">
         <v>39418</v>
       </c>
-      <c r="H327" s="2">
+      <c r="H327" s="6">
         <v>64494</v>
       </c>
       <c r="I327" t="s">
@@ -15170,7 +15183,7 @@
       <c r="G328" s="1">
         <v>37550</v>
       </c>
-      <c r="H328" s="2">
+      <c r="H328" s="6">
         <v>70122</v>
       </c>
       <c r="I328" t="s">
@@ -15205,7 +15218,7 @@
       <c r="G329" s="1">
         <v>42785</v>
       </c>
-      <c r="H329" s="2">
+      <c r="H329" s="6">
         <v>181854</v>
       </c>
       <c r="I329" t="s">
@@ -15240,7 +15253,7 @@
       <c r="G330" s="1">
         <v>42664</v>
       </c>
-      <c r="H330" s="2">
+      <c r="H330" s="6">
         <v>52811</v>
       </c>
       <c r="I330" t="s">
@@ -15275,7 +15288,7 @@
       <c r="G331" s="1">
         <v>43763</v>
       </c>
-      <c r="H331" s="2">
+      <c r="H331" s="6">
         <v>50111</v>
       </c>
       <c r="I331" t="s">
@@ -15310,7 +15323,7 @@
       <c r="G332" s="1">
         <v>42497</v>
       </c>
-      <c r="H332" s="2">
+      <c r="H332" s="6">
         <v>71192</v>
       </c>
       <c r="I332" t="s">
@@ -15345,7 +15358,7 @@
       <c r="G333" s="1">
         <v>43452</v>
       </c>
-      <c r="H333" s="2">
+      <c r="H333" s="6">
         <v>155351</v>
       </c>
       <c r="I333" t="s">
@@ -15380,7 +15393,7 @@
       <c r="G334" s="1">
         <v>39049</v>
       </c>
-      <c r="H334" s="2">
+      <c r="H334" s="6">
         <v>161690</v>
       </c>
       <c r="I334" t="s">
@@ -15415,7 +15428,7 @@
       <c r="G335" s="1">
         <v>42776</v>
       </c>
-      <c r="H335" s="2">
+      <c r="H335" s="6">
         <v>60132</v>
       </c>
       <c r="I335" t="s">
@@ -15450,7 +15463,7 @@
       <c r="G336" s="1">
         <v>34631</v>
       </c>
-      <c r="H336" s="2">
+      <c r="H336" s="6">
         <v>87216</v>
       </c>
       <c r="I336" t="s">
@@ -15485,7 +15498,7 @@
       <c r="G337" s="1">
         <v>43944</v>
       </c>
-      <c r="H337" s="2">
+      <c r="H337" s="6">
         <v>50069</v>
       </c>
       <c r="I337" t="s">
@@ -15520,7 +15533,7 @@
       <c r="G338" s="1">
         <v>44403</v>
       </c>
-      <c r="H338" s="2">
+      <c r="H338" s="6">
         <v>151108</v>
       </c>
       <c r="I338" t="s">
@@ -15555,7 +15568,7 @@
       <c r="G339" s="1">
         <v>38640</v>
       </c>
-      <c r="H339" s="2">
+      <c r="H339" s="6">
         <v>67398</v>
       </c>
       <c r="I339" t="s">
@@ -15590,7 +15603,7 @@
       <c r="G340" s="1">
         <v>42245</v>
       </c>
-      <c r="H340" s="2">
+      <c r="H340" s="6">
         <v>68488</v>
       </c>
       <c r="I340" t="s">
@@ -15625,7 +15638,7 @@
       <c r="G341" s="1">
         <v>35992</v>
       </c>
-      <c r="H341" s="2">
+      <c r="H341" s="6">
         <v>92932</v>
       </c>
       <c r="I341" t="s">
@@ -15660,7 +15673,7 @@
       <c r="G342" s="1">
         <v>39994</v>
       </c>
-      <c r="H342" s="2">
+      <c r="H342" s="6">
         <v>43363</v>
       </c>
       <c r="I342" t="s">
@@ -15695,7 +15708,7 @@
       <c r="G343" s="1">
         <v>42780</v>
       </c>
-      <c r="H343" s="2">
+      <c r="H343" s="6">
         <v>95963</v>
       </c>
       <c r="I343" t="s">
@@ -15730,7 +15743,7 @@
       <c r="G344" s="1">
         <v>40297</v>
       </c>
-      <c r="H344" s="2">
+      <c r="H344" s="6">
         <v>111038</v>
       </c>
       <c r="I344" t="s">
@@ -15765,7 +15778,7 @@
       <c r="G345" s="1">
         <v>35230</v>
       </c>
-      <c r="H345" s="2">
+      <c r="H345" s="6">
         <v>200246</v>
       </c>
       <c r="I345" t="s">
@@ -15800,7 +15813,7 @@
       <c r="G346" s="1">
         <v>42053</v>
       </c>
-      <c r="H346" s="2">
+      <c r="H346" s="6">
         <v>194871</v>
       </c>
       <c r="I346" t="s">
@@ -15835,7 +15848,7 @@
       <c r="G347" s="1">
         <v>34592</v>
       </c>
-      <c r="H347" s="2">
+      <c r="H347" s="6">
         <v>98769</v>
       </c>
       <c r="I347" t="s">
@@ -15870,7 +15883,7 @@
       <c r="G348" s="1">
         <v>43239</v>
       </c>
-      <c r="H348" s="2">
+      <c r="H348" s="6">
         <v>65334</v>
       </c>
       <c r="I348" t="s">
@@ -15905,7 +15918,7 @@
       <c r="G349" s="1">
         <v>44327</v>
       </c>
-      <c r="H349" s="2">
+      <c r="H349" s="6">
         <v>83934</v>
       </c>
       <c r="I349" t="s">
@@ -15940,7 +15953,7 @@
       <c r="G350" s="1">
         <v>42616</v>
       </c>
-      <c r="H350" s="2">
+      <c r="H350" s="6">
         <v>150399</v>
       </c>
       <c r="I350" t="s">
@@ -15975,7 +15988,7 @@
       <c r="G351" s="1">
         <v>41048</v>
       </c>
-      <c r="H351" s="2">
+      <c r="H351" s="6">
         <v>160280</v>
       </c>
       <c r="I351" t="s">
@@ -16010,7 +16023,7 @@
       <c r="G352" s="1">
         <v>35548</v>
       </c>
-      <c r="H352" s="2">
+      <c r="H352" s="6">
         <v>54051</v>
       </c>
       <c r="I352" t="s">
@@ -16045,7 +16058,7 @@
       <c r="G353" s="1">
         <v>37726</v>
       </c>
-      <c r="H353" s="2">
+      <c r="H353" s="6">
         <v>150699</v>
       </c>
       <c r="I353" t="s">
@@ -16080,7 +16093,7 @@
       <c r="G354" s="1">
         <v>41363</v>
       </c>
-      <c r="H354" s="2">
+      <c r="H354" s="6">
         <v>69570</v>
       </c>
       <c r="I354" t="s">
@@ -16115,7 +16128,7 @@
       <c r="G355" s="1">
         <v>43553</v>
       </c>
-      <c r="H355" s="2">
+      <c r="H355" s="6">
         <v>86774</v>
       </c>
       <c r="I355" t="s">
@@ -16150,7 +16163,7 @@
       <c r="G356" s="1">
         <v>36979</v>
       </c>
-      <c r="H356" s="2">
+      <c r="H356" s="6">
         <v>57606</v>
       </c>
       <c r="I356" t="s">
@@ -16185,7 +16198,7 @@
       <c r="G357" s="1">
         <v>37144</v>
       </c>
-      <c r="H357" s="2">
+      <c r="H357" s="6">
         <v>125730</v>
       </c>
       <c r="I357" t="s">
@@ -16220,7 +16233,7 @@
       <c r="G358" s="1">
         <v>40964</v>
       </c>
-      <c r="H358" s="2">
+      <c r="H358" s="6">
         <v>64170</v>
       </c>
       <c r="I358" t="s">
@@ -16255,7 +16268,7 @@
       <c r="G359" s="1">
         <v>35816</v>
       </c>
-      <c r="H359" s="2">
+      <c r="H359" s="6">
         <v>72303</v>
       </c>
       <c r="I359" t="s">
@@ -16290,7 +16303,7 @@
       <c r="G360" s="1">
         <v>41116</v>
       </c>
-      <c r="H360" s="2">
+      <c r="H360" s="6">
         <v>105891</v>
       </c>
       <c r="I360" t="s">
@@ -16325,7 +16338,7 @@
       <c r="G361" s="1">
         <v>44433</v>
       </c>
-      <c r="H361" s="2">
+      <c r="H361" s="6">
         <v>255230</v>
       </c>
       <c r="I361" t="s">
@@ -16360,7 +16373,7 @@
       <c r="G362" s="1">
         <v>33770</v>
       </c>
-      <c r="H362" s="2">
+      <c r="H362" s="6">
         <v>59591</v>
       </c>
       <c r="I362" t="s">
@@ -16395,7 +16408,7 @@
       <c r="G363" s="1">
         <v>41113</v>
       </c>
-      <c r="H363" s="2">
+      <c r="H363" s="6">
         <v>187048</v>
       </c>
       <c r="I363" t="s">
@@ -16430,7 +16443,7 @@
       <c r="G364" s="1">
         <v>37296</v>
       </c>
-      <c r="H364" s="2">
+      <c r="H364" s="6">
         <v>58605</v>
       </c>
       <c r="I364" t="s">
@@ -16465,7 +16478,7 @@
       <c r="G365" s="1">
         <v>42739</v>
       </c>
-      <c r="H365" s="2">
+      <c r="H365" s="6">
         <v>178502</v>
       </c>
       <c r="I365" t="s">
@@ -16500,7 +16513,7 @@
       <c r="G366" s="1">
         <v>42214</v>
       </c>
-      <c r="H366" s="2">
+      <c r="H366" s="6">
         <v>103724</v>
       </c>
       <c r="I366" t="s">
@@ -16535,7 +16548,7 @@
       <c r="G367" s="1">
         <v>39528</v>
       </c>
-      <c r="H367" s="2">
+      <c r="H367" s="6">
         <v>156277</v>
       </c>
       <c r="I367" t="s">
@@ -16570,7 +16583,7 @@
       <c r="G368" s="1">
         <v>43086</v>
       </c>
-      <c r="H368" s="2">
+      <c r="H368" s="6">
         <v>87744</v>
       </c>
       <c r="I368" t="s">
@@ -16605,7 +16618,7 @@
       <c r="G369" s="1">
         <v>43542</v>
       </c>
-      <c r="H369" s="2">
+      <c r="H369" s="6">
         <v>54714</v>
       </c>
       <c r="I369" t="s">
@@ -16640,7 +16653,7 @@
       <c r="G370" s="1">
         <v>41511</v>
       </c>
-      <c r="H370" s="2">
+      <c r="H370" s="6">
         <v>99169</v>
       </c>
       <c r="I370" t="s">
@@ -16675,7 +16688,7 @@
       <c r="G371" s="1">
         <v>38888</v>
       </c>
-      <c r="H371" s="2">
+      <c r="H371" s="6">
         <v>142628</v>
       </c>
       <c r="I371" t="s">
@@ -16710,7 +16723,7 @@
       <c r="G372" s="1">
         <v>41756</v>
       </c>
-      <c r="H372" s="2">
+      <c r="H372" s="6">
         <v>75869</v>
       </c>
       <c r="I372" t="s">
@@ -16745,7 +16758,7 @@
       <c r="G373" s="1">
         <v>43234</v>
       </c>
-      <c r="H373" s="2">
+      <c r="H373" s="6">
         <v>60985</v>
       </c>
       <c r="I373" t="s">
@@ -16780,7 +16793,7 @@
       <c r="G374" s="1">
         <v>40383</v>
       </c>
-      <c r="H374" s="2">
+      <c r="H374" s="6">
         <v>126911</v>
       </c>
       <c r="I374" t="s">
@@ -16815,7 +16828,7 @@
       <c r="G375" s="1">
         <v>38042</v>
       </c>
-      <c r="H375" s="2">
+      <c r="H375" s="6">
         <v>216949</v>
       </c>
       <c r="I375" t="s">
@@ -16850,7 +16863,7 @@
       <c r="G376" s="1">
         <v>41204</v>
       </c>
-      <c r="H376" s="2">
+      <c r="H376" s="6">
         <v>168510</v>
       </c>
       <c r="I376" t="s">
@@ -16885,7 +16898,7 @@
       <c r="G377" s="1">
         <v>42443</v>
       </c>
-      <c r="H377" s="2">
+      <c r="H377" s="6">
         <v>85870</v>
       </c>
       <c r="I377" t="s">
@@ -16920,7 +16933,7 @@
       <c r="G378" s="1">
         <v>37271</v>
       </c>
-      <c r="H378" s="2">
+      <c r="H378" s="6">
         <v>86510</v>
       </c>
       <c r="I378" t="s">
@@ -16955,7 +16968,7 @@
       <c r="G379" s="1">
         <v>42999</v>
       </c>
-      <c r="H379" s="2">
+      <c r="H379" s="6">
         <v>119647</v>
       </c>
       <c r="I379" t="s">
@@ -16990,7 +17003,7 @@
       <c r="G380" s="1">
         <v>36996</v>
       </c>
-      <c r="H380" s="2">
+      <c r="H380" s="6">
         <v>80921</v>
       </c>
       <c r="I380" t="s">
@@ -17025,7 +17038,7 @@
       <c r="G381" s="1">
         <v>40193</v>
       </c>
-      <c r="H381" s="2">
+      <c r="H381" s="6">
         <v>98110</v>
       </c>
       <c r="I381" t="s">
@@ -17060,7 +17073,7 @@
       <c r="G382" s="1">
         <v>43028</v>
       </c>
-      <c r="H382" s="2">
+      <c r="H382" s="6">
         <v>86831</v>
       </c>
       <c r="I382" t="s">
@@ -17095,7 +17108,7 @@
       <c r="G383" s="1">
         <v>40431</v>
       </c>
-      <c r="H383" s="2">
+      <c r="H383" s="6">
         <v>72826</v>
       </c>
       <c r="I383" t="s">
@@ -17130,7 +17143,7 @@
       <c r="G384" s="1">
         <v>40588</v>
       </c>
-      <c r="H384" s="2">
+      <c r="H384" s="6">
         <v>171217</v>
       </c>
       <c r="I384" t="s">
@@ -17165,7 +17178,7 @@
       <c r="G385" s="1">
         <v>43948</v>
       </c>
-      <c r="H385" s="2">
+      <c r="H385" s="6">
         <v>103058</v>
       </c>
       <c r="I385" t="s">
@@ -17200,7 +17213,7 @@
       <c r="G386" s="1">
         <v>41858</v>
       </c>
-      <c r="H386" s="2">
+      <c r="H386" s="6">
         <v>117062</v>
       </c>
       <c r="I386" t="s">
@@ -17235,7 +17248,7 @@
       <c r="G387" s="1">
         <v>43488</v>
       </c>
-      <c r="H387" s="2">
+      <c r="H387" s="6">
         <v>159031</v>
       </c>
       <c r="I387" t="s">
@@ -17270,7 +17283,7 @@
       <c r="G388" s="1">
         <v>38000</v>
       </c>
-      <c r="H388" s="2">
+      <c r="H388" s="6">
         <v>125086</v>
       </c>
       <c r="I388" t="s">
@@ -17305,7 +17318,7 @@
       <c r="G389" s="1">
         <v>42467</v>
       </c>
-      <c r="H389" s="2">
+      <c r="H389" s="6">
         <v>67976</v>
       </c>
       <c r="I389" t="s">
@@ -17340,7 +17353,7 @@
       <c r="G390" s="1">
         <v>44308</v>
       </c>
-      <c r="H390" s="2">
+      <c r="H390" s="6">
         <v>74215</v>
       </c>
       <c r="I390" t="s">
@@ -17375,7 +17388,7 @@
       <c r="G391" s="1">
         <v>40340</v>
       </c>
-      <c r="H391" s="2">
+      <c r="H391" s="6">
         <v>187389</v>
       </c>
       <c r="I391" t="s">
@@ -17410,7 +17423,7 @@
       <c r="G392" s="1">
         <v>39747</v>
       </c>
-      <c r="H392" s="2">
+      <c r="H392" s="6">
         <v>131841</v>
       </c>
       <c r="I392" t="s">
@@ -17445,7 +17458,7 @@
       <c r="G393" s="1">
         <v>40750</v>
       </c>
-      <c r="H393" s="2">
+      <c r="H393" s="6">
         <v>97231</v>
       </c>
       <c r="I393" t="s">
@@ -17480,7 +17493,7 @@
       <c r="G394" s="1">
         <v>38060</v>
       </c>
-      <c r="H394" s="2">
+      <c r="H394" s="6">
         <v>155004</v>
       </c>
       <c r="I394" t="s">
@@ -17515,7 +17528,7 @@
       <c r="G395" s="1">
         <v>39293</v>
       </c>
-      <c r="H395" s="2">
+      <c r="H395" s="6">
         <v>41859</v>
       </c>
       <c r="I395" t="s">
@@ -17550,7 +17563,7 @@
       <c r="G396" s="1">
         <v>38984</v>
       </c>
-      <c r="H396" s="2">
+      <c r="H396" s="6">
         <v>52733</v>
       </c>
       <c r="I396" t="s">
@@ -17585,7 +17598,7 @@
       <c r="G397" s="1">
         <v>42250</v>
       </c>
-      <c r="H397" s="2">
+      <c r="H397" s="6">
         <v>250953</v>
       </c>
       <c r="I397" t="s">
@@ -17620,7 +17633,7 @@
       <c r="G398" s="1">
         <v>36210</v>
       </c>
-      <c r="H398" s="2">
+      <c r="H398" s="6">
         <v>191807</v>
       </c>
       <c r="I398" t="s">
@@ -17655,7 +17668,7 @@
       <c r="G399" s="1">
         <v>41813</v>
       </c>
-      <c r="H399" s="2">
+      <c r="H399" s="6">
         <v>64677</v>
       </c>
       <c r="I399" t="s">
@@ -17690,7 +17703,7 @@
       <c r="G400" s="1">
         <v>38244</v>
       </c>
-      <c r="H400" s="2">
+      <c r="H400" s="6">
         <v>130274</v>
       </c>
       <c r="I400" t="s">
@@ -17725,7 +17738,7 @@
       <c r="G401" s="1">
         <v>42922</v>
       </c>
-      <c r="H401" s="2">
+      <c r="H401" s="6">
         <v>96331</v>
       </c>
       <c r="I401" t="s">
@@ -17760,7 +17773,7 @@
       <c r="G402" s="1">
         <v>38835</v>
       </c>
-      <c r="H402" s="2">
+      <c r="H402" s="6">
         <v>150758</v>
       </c>
       <c r="I402" t="s">
@@ -17795,7 +17808,7 @@
       <c r="G403" s="1">
         <v>41839</v>
       </c>
-      <c r="H403" s="2">
+      <c r="H403" s="6">
         <v>173629</v>
       </c>
       <c r="I403" t="s">
@@ -17830,7 +17843,7 @@
       <c r="G404" s="1">
         <v>35919</v>
       </c>
-      <c r="H404" s="2">
+      <c r="H404" s="6">
         <v>62174</v>
       </c>
       <c r="I404" t="s">
@@ -17865,7 +17878,7 @@
       <c r="G405" s="1">
         <v>43028</v>
       </c>
-      <c r="H405" s="2">
+      <c r="H405" s="6">
         <v>56555</v>
       </c>
       <c r="I405" t="s">
@@ -17900,7 +17913,7 @@
       <c r="G406" s="1">
         <v>38623</v>
       </c>
-      <c r="H406" s="2">
+      <c r="H406" s="6">
         <v>74655</v>
       </c>
       <c r="I406" t="s">
@@ -17935,7 +17948,7 @@
       <c r="G407" s="1">
         <v>37844</v>
       </c>
-      <c r="H407" s="2">
+      <c r="H407" s="6">
         <v>93017</v>
       </c>
       <c r="I407" t="s">
@@ -17970,7 +17983,7 @@
       <c r="G408" s="1">
         <v>41013</v>
       </c>
-      <c r="H408" s="2">
+      <c r="H408" s="6">
         <v>82300</v>
       </c>
       <c r="I408" t="s">
@@ -18005,7 +18018,7 @@
       <c r="G409" s="1">
         <v>39471</v>
       </c>
-      <c r="H409" s="2">
+      <c r="H409" s="6">
         <v>91621</v>
       </c>
       <c r="I409" t="s">
@@ -18040,7 +18053,7 @@
       <c r="G410" s="1">
         <v>41973</v>
       </c>
-      <c r="H410" s="2">
+      <c r="H410" s="6">
         <v>91280</v>
       </c>
       <c r="I410" t="s">
@@ -18075,7 +18088,7 @@
       <c r="G411" s="1">
         <v>44092</v>
       </c>
-      <c r="H411" s="2">
+      <c r="H411" s="6">
         <v>47071</v>
       </c>
       <c r="I411" t="s">
@@ -18110,7 +18123,7 @@
       <c r="G412" s="1">
         <v>40868</v>
       </c>
-      <c r="H412" s="2">
+      <c r="H412" s="6">
         <v>81218</v>
       </c>
       <c r="I412" t="s">
@@ -18145,7 +18158,7 @@
       <c r="G413" s="1">
         <v>39734</v>
       </c>
-      <c r="H413" s="2">
+      <c r="H413" s="6">
         <v>181801</v>
       </c>
       <c r="I413" t="s">
@@ -18180,7 +18193,7 @@
       <c r="G414" s="1">
         <v>44521</v>
       </c>
-      <c r="H414" s="2">
+      <c r="H414" s="6">
         <v>63137</v>
       </c>
       <c r="I414" t="s">
@@ -18215,7 +18228,7 @@
       <c r="G415" s="1">
         <v>43345</v>
       </c>
-      <c r="H415" s="2">
+      <c r="H415" s="6">
         <v>221465</v>
       </c>
       <c r="I415" t="s">
@@ -18250,7 +18263,7 @@
       <c r="G416" s="1">
         <v>41404</v>
       </c>
-      <c r="H416" s="2">
+      <c r="H416" s="6">
         <v>79388</v>
       </c>
       <c r="I416" t="s">
@@ -18285,7 +18298,7 @@
       <c r="G417" s="1">
         <v>43122</v>
       </c>
-      <c r="H417" s="2">
+      <c r="H417" s="6">
         <v>68176</v>
       </c>
       <c r="I417" t="s">
@@ -18320,7 +18333,7 @@
       <c r="G418" s="1">
         <v>43756</v>
       </c>
-      <c r="H418" s="2">
+      <c r="H418" s="6">
         <v>122829</v>
       </c>
       <c r="I418" t="s">
@@ -18355,7 +18368,7 @@
       <c r="G419" s="1">
         <v>43695</v>
       </c>
-      <c r="H419" s="2">
+      <c r="H419" s="6">
         <v>126353</v>
       </c>
       <c r="I419" t="s">
@@ -18390,7 +18403,7 @@
       <c r="G420" s="1">
         <v>40468</v>
       </c>
-      <c r="H420" s="2">
+      <c r="H420" s="6">
         <v>188727</v>
       </c>
       <c r="I420" t="s">
@@ -18425,7 +18438,7 @@
       <c r="G421" s="1">
         <v>34383</v>
       </c>
-      <c r="H421" s="2">
+      <c r="H421" s="6">
         <v>99624</v>
       </c>
       <c r="I421" t="s">
@@ -18460,7 +18473,7 @@
       <c r="G422" s="1">
         <v>41202</v>
       </c>
-      <c r="H422" s="2">
+      <c r="H422" s="6">
         <v>108686</v>
       </c>
       <c r="I422" t="s">
@@ -18495,7 +18508,7 @@
       <c r="G423" s="1">
         <v>34802</v>
       </c>
-      <c r="H423" s="2">
+      <c r="H423" s="6">
         <v>50857</v>
       </c>
       <c r="I423" t="s">
@@ -18530,7 +18543,7 @@
       <c r="G424" s="1">
         <v>36893</v>
       </c>
-      <c r="H424" s="2">
+      <c r="H424" s="6">
         <v>120628</v>
       </c>
       <c r="I424" t="s">
@@ -18565,7 +18578,7 @@
       <c r="G425" s="1">
         <v>43996</v>
       </c>
-      <c r="H425" s="2">
+      <c r="H425" s="6">
         <v>181216</v>
       </c>
       <c r="I425" t="s">
@@ -18600,7 +18613,7 @@
       <c r="G426" s="1">
         <v>40984</v>
       </c>
-      <c r="H426" s="2">
+      <c r="H426" s="6">
         <v>46081</v>
       </c>
       <c r="I426" t="s">
@@ -18635,7 +18648,7 @@
       <c r="G427" s="1">
         <v>38135</v>
       </c>
-      <c r="H427" s="2">
+      <c r="H427" s="6">
         <v>159885</v>
       </c>
       <c r="I427" t="s">
@@ -18670,7 +18683,7 @@
       <c r="G428" s="1">
         <v>35001</v>
       </c>
-      <c r="H428" s="2">
+      <c r="H428" s="6">
         <v>153271</v>
       </c>
       <c r="I428" t="s">
@@ -18705,7 +18718,7 @@
       <c r="G429" s="1">
         <v>40159</v>
       </c>
-      <c r="H429" s="2">
+      <c r="H429" s="6">
         <v>114242</v>
       </c>
       <c r="I429" t="s">
@@ -18740,7 +18753,7 @@
       <c r="G430" s="1">
         <v>44153</v>
       </c>
-      <c r="H430" s="2">
+      <c r="H430" s="6">
         <v>48415</v>
       </c>
       <c r="I430" t="s">
@@ -18775,7 +18788,7 @@
       <c r="G431" s="1">
         <v>42878</v>
       </c>
-      <c r="H431" s="2">
+      <c r="H431" s="6">
         <v>65566</v>
       </c>
       <c r="I431" t="s">
@@ -18810,7 +18823,7 @@
       <c r="G432" s="1">
         <v>37014</v>
       </c>
-      <c r="H432" s="2">
+      <c r="H432" s="6">
         <v>147752</v>
       </c>
       <c r="I432" t="s">
@@ -18845,7 +18858,7 @@
       <c r="G433" s="1">
         <v>44453</v>
       </c>
-      <c r="H433" s="2">
+      <c r="H433" s="6">
         <v>136810</v>
       </c>
       <c r="I433" t="s">
@@ -18880,7 +18893,7 @@
       <c r="G434" s="1">
         <v>41333</v>
       </c>
-      <c r="H434" s="2">
+      <c r="H434" s="6">
         <v>54635</v>
       </c>
       <c r="I434" t="s">
@@ -18915,7 +18928,7 @@
       <c r="G435" s="1">
         <v>43866</v>
       </c>
-      <c r="H435" s="2">
+      <c r="H435" s="6">
         <v>96636</v>
       </c>
       <c r="I435" t="s">
@@ -18950,7 +18963,7 @@
       <c r="G436" s="1">
         <v>41941</v>
       </c>
-      <c r="H436" s="2">
+      <c r="H436" s="6">
         <v>91592</v>
       </c>
       <c r="I436" t="s">
@@ -18985,7 +18998,7 @@
       <c r="G437" s="1">
         <v>36755</v>
       </c>
-      <c r="H437" s="2">
+      <c r="H437" s="6">
         <v>55563</v>
       </c>
       <c r="I437" t="s">
@@ -19020,7 +19033,7 @@
       <c r="G438" s="1">
         <v>35109</v>
       </c>
-      <c r="H438" s="2">
+      <c r="H438" s="6">
         <v>159724</v>
       </c>
       <c r="I438" t="s">
@@ -19055,7 +19068,7 @@
       <c r="G439" s="1">
         <v>42951</v>
       </c>
-      <c r="H439" s="2">
+      <c r="H439" s="6">
         <v>183190</v>
       </c>
       <c r="I439" t="s">
@@ -19090,7 +19103,7 @@
       <c r="G440" s="1">
         <v>43824</v>
       </c>
-      <c r="H440" s="2">
+      <c r="H440" s="6">
         <v>54829</v>
       </c>
       <c r="I440" t="s">
@@ -19125,7 +19138,7 @@
       <c r="G441" s="1">
         <v>38464</v>
       </c>
-      <c r="H441" s="2">
+      <c r="H441" s="6">
         <v>96639</v>
       </c>
       <c r="I441" t="s">
@@ -19160,7 +19173,7 @@
       <c r="G442" s="1">
         <v>38879</v>
       </c>
-      <c r="H442" s="2">
+      <c r="H442" s="6">
         <v>117278</v>
       </c>
       <c r="I442" t="s">
@@ -19195,7 +19208,7 @@
       <c r="G443" s="1">
         <v>39487</v>
       </c>
-      <c r="H443" s="2">
+      <c r="H443" s="6">
         <v>84193</v>
       </c>
       <c r="I443" t="s">
@@ -19230,7 +19243,7 @@
       <c r="G444" s="1">
         <v>43309</v>
       </c>
-      <c r="H444" s="2">
+      <c r="H444" s="6">
         <v>87806</v>
       </c>
       <c r="I444" t="s">
@@ -19265,7 +19278,7 @@
       <c r="G445" s="1">
         <v>40820</v>
       </c>
-      <c r="H445" s="2">
+      <c r="H445" s="6">
         <v>63959</v>
       </c>
       <c r="I445" t="s">
@@ -19300,7 +19313,7 @@
       <c r="G446" s="1">
         <v>42166</v>
       </c>
-      <c r="H446" s="2">
+      <c r="H446" s="6">
         <v>234723</v>
       </c>
       <c r="I446" t="s">
@@ -19335,7 +19348,7 @@
       <c r="G447" s="1">
         <v>43701</v>
       </c>
-      <c r="H447" s="2">
+      <c r="H447" s="6">
         <v>50809</v>
       </c>
       <c r="I447" t="s">
@@ -19370,7 +19383,7 @@
       <c r="G448" s="1">
         <v>37456</v>
       </c>
-      <c r="H448" s="2">
+      <c r="H448" s="6">
         <v>77396</v>
       </c>
       <c r="I448" t="s">
@@ -19405,7 +19418,7 @@
       <c r="G449" s="1">
         <v>36525</v>
       </c>
-      <c r="H449" s="2">
+      <c r="H449" s="6">
         <v>89523</v>
       </c>
       <c r="I449" t="s">
@@ -19440,7 +19453,7 @@
       <c r="G450" s="1">
         <v>40744</v>
       </c>
-      <c r="H450" s="2">
+      <c r="H450" s="6">
         <v>86173</v>
       </c>
       <c r="I450" t="s">
@@ -19475,7 +19488,7 @@
       <c r="G451" s="1">
         <v>36757</v>
       </c>
-      <c r="H451" s="2">
+      <c r="H451" s="6">
         <v>222224</v>
       </c>
       <c r="I451" t="s">
@@ -19510,7 +19523,7 @@
       <c r="G452" s="1">
         <v>44303</v>
       </c>
-      <c r="H452" s="2">
+      <c r="H452" s="6">
         <v>146140</v>
       </c>
       <c r="I452" t="s">
@@ -19545,7 +19558,7 @@
       <c r="G453" s="1">
         <v>34505</v>
       </c>
-      <c r="H453" s="2">
+      <c r="H453" s="6">
         <v>109456</v>
       </c>
       <c r="I453" t="s">
@@ -19580,7 +19593,7 @@
       <c r="G454" s="1">
         <v>39728</v>
       </c>
-      <c r="H454" s="2">
+      <c r="H454" s="6">
         <v>170221</v>
       </c>
       <c r="I454" t="s">
@@ -19615,7 +19628,7 @@
       <c r="G455" s="1">
         <v>38777</v>
       </c>
-      <c r="H455" s="2">
+      <c r="H455" s="6">
         <v>97433</v>
       </c>
       <c r="I455" t="s">
@@ -19650,7 +19663,7 @@
       <c r="G456" s="1">
         <v>41516</v>
       </c>
-      <c r="H456" s="2">
+      <c r="H456" s="6">
         <v>59646</v>
       </c>
       <c r="I456" t="s">
@@ -19685,7 +19698,7 @@
       <c r="G457" s="1">
         <v>34940</v>
       </c>
-      <c r="H457" s="2">
+      <c r="H457" s="6">
         <v>158787</v>
       </c>
       <c r="I457" t="s">
@@ -19720,7 +19733,7 @@
       <c r="G458" s="1">
         <v>43219</v>
       </c>
-      <c r="H458" s="2">
+      <c r="H458" s="6">
         <v>83378</v>
       </c>
       <c r="I458" t="s">
@@ -19755,7 +19768,7 @@
       <c r="G459" s="1">
         <v>41590</v>
       </c>
-      <c r="H459" s="2">
+      <c r="H459" s="6">
         <v>88895</v>
       </c>
       <c r="I459" t="s">
@@ -19790,7 +19803,7 @@
       <c r="G460" s="1">
         <v>38332</v>
       </c>
-      <c r="H460" s="2">
+      <c r="H460" s="6">
         <v>168846</v>
       </c>
       <c r="I460" t="s">
@@ -19825,7 +19838,7 @@
       <c r="G461" s="1">
         <v>40596</v>
       </c>
-      <c r="H461" s="2">
+      <c r="H461" s="6">
         <v>43336</v>
       </c>
       <c r="I461" t="s">
@@ -19860,7 +19873,7 @@
       <c r="G462" s="1">
         <v>40083</v>
       </c>
-      <c r="H462" s="2">
+      <c r="H462" s="6">
         <v>127801</v>
       </c>
       <c r="I462" t="s">
@@ -19895,7 +19908,7 @@
       <c r="G463" s="1">
         <v>36617</v>
       </c>
-      <c r="H463" s="2">
+      <c r="H463" s="6">
         <v>76352</v>
       </c>
       <c r="I463" t="s">
@@ -19930,7 +19943,7 @@
       <c r="G464" s="1">
         <v>43638</v>
       </c>
-      <c r="H464" s="2">
+      <c r="H464" s="6">
         <v>250767</v>
       </c>
       <c r="I464" t="s">
@@ -19965,7 +19978,7 @@
       <c r="G465" s="1">
         <v>44101</v>
       </c>
-      <c r="H465" s="2">
+      <c r="H465" s="6">
         <v>223055</v>
       </c>
       <c r="I465" t="s">
@@ -20000,7 +20013,7 @@
       <c r="G466" s="1">
         <v>39185</v>
       </c>
-      <c r="H466" s="2">
+      <c r="H466" s="6">
         <v>189680</v>
       </c>
       <c r="I466" t="s">
@@ -20035,7 +20048,7 @@
       <c r="G467" s="1">
         <v>43299</v>
       </c>
-      <c r="H467" s="2">
+      <c r="H467" s="6">
         <v>71167</v>
       </c>
       <c r="I467" t="s">
@@ -20070,7 +20083,7 @@
       <c r="G468" s="1">
         <v>40272</v>
       </c>
-      <c r="H468" s="2">
+      <c r="H468" s="6">
         <v>76027</v>
       </c>
       <c r="I468" t="s">
@@ -20105,7 +20118,7 @@
       <c r="G469" s="1">
         <v>43809</v>
       </c>
-      <c r="H469" s="2">
+      <c r="H469" s="6">
         <v>183113</v>
       </c>
       <c r="I469" t="s">
@@ -20140,7 +20153,7 @@
       <c r="G470" s="1">
         <v>44124</v>
       </c>
-      <c r="H470" s="2">
+      <c r="H470" s="6">
         <v>67753</v>
       </c>
       <c r="I470" t="s">
@@ -20175,7 +20188,7 @@
       <c r="G471" s="1">
         <v>42656</v>
       </c>
-      <c r="H471" s="2">
+      <c r="H471" s="6">
         <v>63744</v>
       </c>
       <c r="I471" t="s">
@@ -20210,7 +20223,7 @@
       <c r="G472" s="1">
         <v>37446</v>
       </c>
-      <c r="H472" s="2">
+      <c r="H472" s="6">
         <v>92209</v>
       </c>
       <c r="I472" t="s">
@@ -20245,7 +20258,7 @@
       <c r="G473" s="1">
         <v>36770</v>
       </c>
-      <c r="H473" s="2">
+      <c r="H473" s="6">
         <v>157487</v>
       </c>
       <c r="I473" t="s">
@@ -20280,7 +20293,7 @@
       <c r="G474" s="1">
         <v>42101</v>
       </c>
-      <c r="H474" s="2">
+      <c r="H474" s="6">
         <v>99697</v>
       </c>
       <c r="I474" t="s">
@@ -20315,7 +20328,7 @@
       <c r="G475" s="1">
         <v>40235</v>
       </c>
-      <c r="H475" s="2">
+      <c r="H475" s="6">
         <v>90770</v>
       </c>
       <c r="I475" t="s">
@@ -20350,7 +20363,7 @@
       <c r="G476" s="1">
         <v>38380</v>
       </c>
-      <c r="H476" s="2">
+      <c r="H476" s="6">
         <v>55369</v>
       </c>
       <c r="I476" t="s">
@@ -20385,7 +20398,7 @@
       <c r="G477" s="1">
         <v>41898</v>
       </c>
-      <c r="H477" s="2">
+      <c r="H477" s="6">
         <v>69578</v>
       </c>
       <c r="I477" t="s">
@@ -20420,7 +20433,7 @@
       <c r="G478" s="1">
         <v>41429</v>
       </c>
-      <c r="H478" s="2">
+      <c r="H478" s="6">
         <v>167526</v>
       </c>
       <c r="I478" t="s">
@@ -20455,7 +20468,7 @@
       <c r="G479" s="1">
         <v>44232</v>
       </c>
-      <c r="H479" s="2">
+      <c r="H479" s="6">
         <v>65507</v>
       </c>
       <c r="I479" t="s">
@@ -20490,7 +20503,7 @@
       <c r="G480" s="1">
         <v>35913</v>
       </c>
-      <c r="H480" s="2">
+      <c r="H480" s="6">
         <v>108268</v>
       </c>
       <c r="I480" t="s">
@@ -20525,7 +20538,7 @@
       <c r="G481" s="1">
         <v>42405</v>
       </c>
-      <c r="H481" s="2">
+      <c r="H481" s="6">
         <v>80055</v>
       </c>
       <c r="I481" t="s">
@@ -20560,7 +20573,7 @@
       <c r="G482" s="1">
         <v>39930</v>
       </c>
-      <c r="H482" s="2">
+      <c r="H482" s="6">
         <v>76802</v>
       </c>
       <c r="I482" t="s">
@@ -20595,7 +20608,7 @@
       <c r="G483" s="1">
         <v>42696</v>
       </c>
-      <c r="H483" s="2">
+      <c r="H483" s="6">
         <v>253249</v>
       </c>
       <c r="I483" t="s">
@@ -20630,7 +20643,7 @@
       <c r="G484" s="1">
         <v>38667</v>
       </c>
-      <c r="H484" s="2">
+      <c r="H484" s="6">
         <v>78388</v>
       </c>
       <c r="I484" t="s">
@@ -20665,7 +20678,7 @@
       <c r="G485" s="1">
         <v>42543</v>
       </c>
-      <c r="H485" s="2">
+      <c r="H485" s="6">
         <v>249870</v>
       </c>
       <c r="I485" t="s">
@@ -20700,7 +20713,7 @@
       <c r="G486" s="1">
         <v>42064</v>
       </c>
-      <c r="H486" s="2">
+      <c r="H486" s="6">
         <v>148321</v>
       </c>
       <c r="I486" t="s">
@@ -20735,7 +20748,7 @@
       <c r="G487" s="1">
         <v>38027</v>
       </c>
-      <c r="H487" s="2">
+      <c r="H487" s="6">
         <v>90258</v>
       </c>
       <c r="I487" t="s">
@@ -20770,7 +20783,7 @@
       <c r="G488" s="1">
         <v>40593</v>
       </c>
-      <c r="H488" s="2">
+      <c r="H488" s="6">
         <v>72486</v>
       </c>
       <c r="I488" t="s">
@@ -20805,7 +20818,7 @@
       <c r="G489" s="1">
         <v>41886</v>
       </c>
-      <c r="H489" s="2">
+      <c r="H489" s="6">
         <v>95499</v>
       </c>
       <c r="I489" t="s">
@@ -20840,7 +20853,7 @@
       <c r="G490" s="1">
         <v>38344</v>
       </c>
-      <c r="H490" s="2">
+      <c r="H490" s="6">
         <v>90212</v>
       </c>
       <c r="I490" t="s">
@@ -20875,7 +20888,7 @@
       <c r="G491" s="1">
         <v>43804</v>
       </c>
-      <c r="H491" s="2">
+      <c r="H491" s="6">
         <v>254057</v>
       </c>
       <c r="I491" t="s">
@@ -20910,7 +20923,7 @@
       <c r="G492" s="1">
         <v>40463</v>
       </c>
-      <c r="H492" s="2">
+      <c r="H492" s="6">
         <v>43001</v>
       </c>
       <c r="I492" t="s">
@@ -20945,7 +20958,7 @@
       <c r="G493" s="1">
         <v>36010</v>
       </c>
-      <c r="H493" s="2">
+      <c r="H493" s="6">
         <v>85120</v>
       </c>
       <c r="I493" t="s">
@@ -20980,7 +20993,7 @@
       <c r="G494" s="1">
         <v>42219</v>
       </c>
-      <c r="H494" s="2">
+      <c r="H494" s="6">
         <v>52200</v>
       </c>
       <c r="I494" t="s">
@@ -21015,7 +21028,7 @@
       <c r="G495" s="1">
         <v>39739</v>
       </c>
-      <c r="H495" s="2">
+      <c r="H495" s="6">
         <v>150855</v>
       </c>
       <c r="I495" t="s">
@@ -21050,7 +21063,7 @@
       <c r="G496" s="1">
         <v>38188</v>
       </c>
-      <c r="H496" s="2">
+      <c r="H496" s="6">
         <v>65702</v>
       </c>
       <c r="I496" t="s">
@@ -21085,7 +21098,7 @@
       <c r="G497" s="1">
         <v>39367</v>
       </c>
-      <c r="H497" s="2">
+      <c r="H497" s="6">
         <v>162038</v>
       </c>
       <c r="I497" t="s">
@@ -21120,7 +21133,7 @@
       <c r="G498" s="1">
         <v>43930</v>
       </c>
-      <c r="H498" s="2">
+      <c r="H498" s="6">
         <v>157057</v>
       </c>
       <c r="I498" t="s">
@@ -21155,7 +21168,7 @@
       <c r="G499" s="1">
         <v>44419</v>
       </c>
-      <c r="H499" s="2">
+      <c r="H499" s="6">
         <v>127559</v>
       </c>
       <c r="I499" t="s">
@@ -21190,7 +21203,7 @@
       <c r="G500" s="1">
         <v>43536</v>
       </c>
-      <c r="H500" s="2">
+      <c r="H500" s="6">
         <v>62644</v>
       </c>
       <c r="I500" t="s">
@@ -21225,7 +21238,7 @@
       <c r="G501" s="1">
         <v>36956</v>
       </c>
-      <c r="H501" s="2">
+      <c r="H501" s="6">
         <v>73907</v>
       </c>
       <c r="I501" t="s">
@@ -21260,7 +21273,7 @@
       <c r="G502" s="1">
         <v>43169</v>
       </c>
-      <c r="H502" s="2">
+      <c r="H502" s="6">
         <v>90040</v>
       </c>
       <c r="I502" t="s">
@@ -21295,7 +21308,7 @@
       <c r="G503" s="1">
         <v>42516</v>
       </c>
-      <c r="H503" s="2">
+      <c r="H503" s="6">
         <v>91134</v>
       </c>
       <c r="I503" t="s">
@@ -21330,7 +21343,7 @@
       <c r="G504" s="1">
         <v>44461</v>
       </c>
-      <c r="H504" s="2">
+      <c r="H504" s="6">
         <v>201396</v>
       </c>
       <c r="I504" t="s">
@@ -21365,7 +21378,7 @@
       <c r="G505" s="1">
         <v>40899</v>
       </c>
-      <c r="H505" s="2">
+      <c r="H505" s="6">
         <v>54733</v>
       </c>
       <c r="I505" t="s">
@@ -21400,7 +21413,7 @@
       <c r="G506" s="1">
         <v>43633</v>
       </c>
-      <c r="H506" s="2">
+      <c r="H506" s="6">
         <v>65341</v>
       </c>
       <c r="I506" t="s">
@@ -21435,7 +21448,7 @@
       <c r="G507" s="1">
         <v>43400</v>
       </c>
-      <c r="H507" s="2">
+      <c r="H507" s="6">
         <v>139208</v>
       </c>
       <c r="I507" t="s">
@@ -21470,7 +21483,7 @@
       <c r="G508" s="1">
         <v>43171</v>
       </c>
-      <c r="H508" s="2">
+      <c r="H508" s="6">
         <v>73200</v>
       </c>
       <c r="I508" t="s">
@@ -21505,7 +21518,7 @@
       <c r="G509" s="1">
         <v>40292</v>
       </c>
-      <c r="H509" s="2">
+      <c r="H509" s="6">
         <v>102636</v>
       </c>
       <c r="I509" t="s">
@@ -21540,7 +21553,7 @@
       <c r="G510" s="1">
         <v>44236</v>
       </c>
-      <c r="H510" s="2">
+      <c r="H510" s="6">
         <v>87427</v>
       </c>
       <c r="I510" t="s">
@@ -21575,7 +21588,7 @@
       <c r="G511" s="1">
         <v>43248</v>
       </c>
-      <c r="H511" s="2">
+      <c r="H511" s="6">
         <v>49219</v>
       </c>
       <c r="I511" t="s">
@@ -21610,7 +21623,7 @@
       <c r="G512" s="1">
         <v>43239</v>
       </c>
-      <c r="H512" s="2">
+      <c r="H512" s="6">
         <v>106437</v>
       </c>
       <c r="I512" t="s">
@@ -21645,7 +21658,7 @@
       <c r="G513" s="1">
         <v>42129</v>
       </c>
-      <c r="H513" s="2">
+      <c r="H513" s="6">
         <v>64364</v>
       </c>
       <c r="I513" t="s">
@@ -21680,7 +21693,7 @@
       <c r="G514" s="1">
         <v>44486</v>
       </c>
-      <c r="H514" s="2">
+      <c r="H514" s="6">
         <v>172180</v>
       </c>
       <c r="I514" t="s">
@@ -21715,7 +21728,7 @@
       <c r="G515" s="1">
         <v>41043</v>
       </c>
-      <c r="H515" s="2">
+      <c r="H515" s="6">
         <v>88343</v>
       </c>
       <c r="I515" t="s">
@@ -21750,7 +21763,7 @@
       <c r="G516" s="1">
         <v>41830</v>
       </c>
-      <c r="H516" s="2">
+      <c r="H516" s="6">
         <v>66649</v>
       </c>
       <c r="I516" t="s">
@@ -21785,7 +21798,7 @@
       <c r="G517" s="1">
         <v>36272</v>
       </c>
-      <c r="H517" s="2">
+      <c r="H517" s="6">
         <v>102847</v>
       </c>
       <c r="I517" t="s">
@@ -21820,7 +21833,7 @@
       <c r="G518" s="1">
         <v>40378</v>
       </c>
-      <c r="H518" s="2">
+      <c r="H518" s="6">
         <v>134881</v>
       </c>
       <c r="I518" t="s">
@@ -21855,7 +21868,7 @@
       <c r="G519" s="1">
         <v>36303</v>
       </c>
-      <c r="H519" s="2">
+      <c r="H519" s="6">
         <v>68807</v>
       </c>
       <c r="I519" t="s">
@@ -21890,7 +21903,7 @@
       <c r="G520" s="1">
         <v>38866</v>
       </c>
-      <c r="H520" s="2">
+      <c r="H520" s="6">
         <v>228822</v>
       </c>
       <c r="I520" t="s">
@@ -21925,7 +21938,7 @@
       <c r="G521" s="1">
         <v>44395</v>
       </c>
-      <c r="H521" s="2">
+      <c r="H521" s="6">
         <v>43391</v>
       </c>
       <c r="I521" t="s">
@@ -21960,7 +21973,7 @@
       <c r="G522" s="1">
         <v>44515</v>
       </c>
-      <c r="H522" s="2">
+      <c r="H522" s="6">
         <v>91782</v>
       </c>
       <c r="I522" t="s">
@@ -21995,7 +22008,7 @@
       <c r="G523" s="1">
         <v>42428</v>
       </c>
-      <c r="H523" s="2">
+      <c r="H523" s="6">
         <v>211637</v>
       </c>
       <c r="I523" t="s">
@@ -22030,7 +22043,7 @@
       <c r="G524" s="1">
         <v>44051</v>
       </c>
-      <c r="H524" s="2">
+      <c r="H524" s="6">
         <v>73255</v>
       </c>
       <c r="I524" t="s">
@@ -22065,7 +22078,7 @@
       <c r="G525" s="1">
         <v>44204</v>
       </c>
-      <c r="H525" s="2">
+      <c r="H525" s="6">
         <v>108826</v>
       </c>
       <c r="I525" t="s">
@@ -22100,7 +22113,7 @@
       <c r="G526" s="1">
         <v>42514</v>
       </c>
-      <c r="H526" s="2">
+      <c r="H526" s="6">
         <v>94352</v>
       </c>
       <c r="I526" t="s">
@@ -22135,7 +22148,7 @@
       <c r="G527" s="1">
         <v>34576</v>
       </c>
-      <c r="H527" s="2">
+      <c r="H527" s="6">
         <v>73955</v>
       </c>
       <c r="I527" t="s">
@@ -22170,7 +22183,7 @@
       <c r="G528" s="1">
         <v>41499</v>
       </c>
-      <c r="H528" s="2">
+      <c r="H528" s="6">
         <v>113909</v>
       </c>
       <c r="I528" t="s">
@@ -22205,7 +22218,7 @@
       <c r="G529" s="1">
         <v>44189</v>
       </c>
-      <c r="H529" s="2">
+      <c r="H529" s="6">
         <v>92321</v>
       </c>
       <c r="I529" t="s">
@@ -22240,7 +22253,7 @@
       <c r="G530" s="1">
         <v>41417</v>
       </c>
-      <c r="H530" s="2">
+      <c r="H530" s="6">
         <v>99557</v>
       </c>
       <c r="I530" t="s">
@@ -22275,7 +22288,7 @@
       <c r="G531" s="1">
         <v>43418</v>
       </c>
-      <c r="H531" s="2">
+      <c r="H531" s="6">
         <v>115854</v>
       </c>
       <c r="I531" t="s">
@@ -22310,7 +22323,7 @@
       <c r="G532" s="1">
         <v>40603</v>
       </c>
-      <c r="H532" s="2">
+      <c r="H532" s="6">
         <v>82462</v>
       </c>
       <c r="I532" t="s">
@@ -22345,7 +22358,7 @@
       <c r="G533" s="1">
         <v>40856</v>
       </c>
-      <c r="H533" s="2">
+      <c r="H533" s="6">
         <v>198473</v>
       </c>
       <c r="I533" t="s">
@@ -22380,7 +22393,7 @@
       <c r="G534" s="1">
         <v>39005</v>
       </c>
-      <c r="H534" s="2">
+      <c r="H534" s="6">
         <v>153492</v>
       </c>
       <c r="I534" t="s">
@@ -22415,7 +22428,7 @@
       <c r="G535" s="1">
         <v>43121</v>
       </c>
-      <c r="H535" s="2">
+      <c r="H535" s="6">
         <v>208210</v>
       </c>
       <c r="I535" t="s">
@@ -22450,7 +22463,7 @@
       <c r="G536" s="1">
         <v>42325</v>
       </c>
-      <c r="H536" s="2">
+      <c r="H536" s="6">
         <v>91632</v>
       </c>
       <c r="I536" t="s">
@@ -22485,7 +22498,7 @@
       <c r="G537" s="1">
         <v>43002</v>
       </c>
-      <c r="H537" s="2">
+      <c r="H537" s="6">
         <v>71755</v>
       </c>
       <c r="I537" t="s">
@@ -22520,7 +22533,7 @@
       <c r="G538" s="1">
         <v>44519</v>
       </c>
-      <c r="H538" s="2">
+      <c r="H538" s="6">
         <v>111006</v>
       </c>
       <c r="I538" t="s">
@@ -22555,7 +22568,7 @@
       <c r="G539" s="1">
         <v>34692</v>
       </c>
-      <c r="H539" s="2">
+      <c r="H539" s="6">
         <v>99774</v>
       </c>
       <c r="I539" t="s">
@@ -22590,7 +22603,7 @@
       <c r="G540" s="1">
         <v>39154</v>
       </c>
-      <c r="H540" s="2">
+      <c r="H540" s="6">
         <v>184648</v>
       </c>
       <c r="I540" t="s">
@@ -22625,7 +22638,7 @@
       <c r="G541" s="1">
         <v>37091</v>
       </c>
-      <c r="H541" s="2">
+      <c r="H541" s="6">
         <v>247874</v>
       </c>
       <c r="I541" t="s">
@@ -22660,7 +22673,7 @@
       <c r="G542" s="1">
         <v>39944</v>
       </c>
-      <c r="H542" s="2">
+      <c r="H542" s="6">
         <v>62239</v>
       </c>
       <c r="I542" t="s">
@@ -22695,7 +22708,7 @@
       <c r="G543" s="1">
         <v>41919</v>
       </c>
-      <c r="H543" s="2">
+      <c r="H543" s="6">
         <v>114911</v>
       </c>
       <c r="I543" t="s">
@@ -22730,7 +22743,7 @@
       <c r="G544" s="1">
         <v>43217</v>
       </c>
-      <c r="H544" s="2">
+      <c r="H544" s="6">
         <v>115490</v>
       </c>
       <c r="I544" t="s">
@@ -22765,7 +22778,7 @@
       <c r="G545" s="1">
         <v>40952</v>
       </c>
-      <c r="H545" s="2">
+      <c r="H545" s="6">
         <v>118708</v>
       </c>
       <c r="I545" t="s">
@@ -22800,7 +22813,7 @@
       <c r="G546" s="1">
         <v>42914</v>
       </c>
-      <c r="H546" s="2">
+      <c r="H546" s="6">
         <v>197649</v>
       </c>
       <c r="I546" t="s">
@@ -22835,7 +22848,7 @@
       <c r="G547" s="1">
         <v>43999</v>
       </c>
-      <c r="H547" s="2">
+      <c r="H547" s="6">
         <v>89841</v>
       </c>
       <c r="I547" t="s">
@@ -22870,7 +22883,7 @@
       <c r="G548" s="1">
         <v>43819</v>
       </c>
-      <c r="H548" s="2">
+      <c r="H548" s="6">
         <v>61026</v>
       </c>
       <c r="I548" t="s">
@@ -22905,7 +22918,7 @@
       <c r="G549" s="1">
         <v>41907</v>
       </c>
-      <c r="H549" s="2">
+      <c r="H549" s="6">
         <v>96693</v>
       </c>
       <c r="I549" t="s">
@@ -22940,7 +22953,7 @@
       <c r="G550" s="1">
         <v>39991</v>
       </c>
-      <c r="H550" s="2">
+      <c r="H550" s="6">
         <v>82907</v>
       </c>
       <c r="I550" t="s">
@@ -22975,7 +22988,7 @@
       <c r="G551" s="1">
         <v>41916</v>
       </c>
-      <c r="H551" s="2">
+      <c r="H551" s="6">
         <v>257194</v>
       </c>
       <c r="I551" t="s">
@@ -23010,7 +23023,7 @@
       <c r="G552" s="1">
         <v>40929</v>
       </c>
-      <c r="H552" s="2">
+      <c r="H552" s="6">
         <v>94658</v>
       </c>
       <c r="I552" t="s">
@@ -23045,7 +23058,7 @@
       <c r="G553" s="1">
         <v>40663</v>
       </c>
-      <c r="H553" s="2">
+      <c r="H553" s="6">
         <v>89419</v>
       </c>
       <c r="I553" t="s">
@@ -23080,7 +23093,7 @@
       <c r="G554" s="1">
         <v>42357</v>
       </c>
-      <c r="H554" s="2">
+      <c r="H554" s="6">
         <v>51983</v>
       </c>
       <c r="I554" t="s">
@@ -23115,7 +23128,7 @@
       <c r="G555" s="1">
         <v>37304</v>
       </c>
-      <c r="H555" s="2">
+      <c r="H555" s="6">
         <v>179494</v>
       </c>
       <c r="I555" t="s">
@@ -23150,7 +23163,7 @@
       <c r="G556" s="1">
         <v>42545</v>
       </c>
-      <c r="H556" s="2">
+      <c r="H556" s="6">
         <v>68426</v>
       </c>
       <c r="I556" t="s">
@@ -23185,7 +23198,7 @@
       <c r="G557" s="1">
         <v>42772</v>
       </c>
-      <c r="H557" s="2">
+      <c r="H557" s="6">
         <v>144986</v>
       </c>
       <c r="I557" t="s">
@@ -23220,7 +23233,7 @@
       <c r="G558" s="1">
         <v>36754</v>
       </c>
-      <c r="H558" s="2">
+      <c r="H558" s="6">
         <v>60113</v>
       </c>
       <c r="I558" t="s">
@@ -23255,7 +23268,7 @@
       <c r="G559" s="1">
         <v>44304</v>
       </c>
-      <c r="H559" s="2">
+      <c r="H559" s="6">
         <v>50548</v>
       </c>
       <c r="I559" t="s">
@@ -23290,7 +23303,7 @@
       <c r="G560" s="1">
         <v>43904</v>
       </c>
-      <c r="H560" s="2">
+      <c r="H560" s="6">
         <v>68846</v>
       </c>
       <c r="I560" t="s">
@@ -23325,7 +23338,7 @@
       <c r="G561" s="1">
         <v>41717</v>
       </c>
-      <c r="H561" s="2">
+      <c r="H561" s="6">
         <v>90901</v>
       </c>
       <c r="I561" t="s">
@@ -23360,7 +23373,7 @@
       <c r="G562" s="1">
         <v>41155</v>
       </c>
-      <c r="H562" s="2">
+      <c r="H562" s="6">
         <v>102033</v>
       </c>
       <c r="I562" t="s">
@@ -23395,7 +23408,7 @@
       <c r="G563" s="1">
         <v>44219</v>
       </c>
-      <c r="H563" s="2">
+      <c r="H563" s="6">
         <v>151783</v>
       </c>
       <c r="I563" t="s">
@@ -23430,7 +23443,7 @@
       <c r="G564" s="1">
         <v>43441</v>
       </c>
-      <c r="H564" s="2">
+      <c r="H564" s="6">
         <v>170164</v>
       </c>
       <c r="I564" t="s">
@@ -23465,7 +23478,7 @@
       <c r="G565" s="1">
         <v>41690</v>
       </c>
-      <c r="H565" s="2">
+      <c r="H565" s="6">
         <v>155905</v>
       </c>
       <c r="I565" t="s">
@@ -23500,7 +23513,7 @@
       <c r="G566" s="1">
         <v>42721</v>
       </c>
-      <c r="H566" s="2">
+      <c r="H566" s="6">
         <v>50733</v>
       </c>
       <c r="I566" t="s">
@@ -23535,7 +23548,7 @@
       <c r="G567" s="1">
         <v>42761</v>
       </c>
-      <c r="H567" s="2">
+      <c r="H567" s="6">
         <v>88663</v>
       </c>
       <c r="I567" t="s">
@@ -23570,7 +23583,7 @@
       <c r="G568" s="1">
         <v>33890</v>
       </c>
-      <c r="H568" s="2">
+      <c r="H568" s="6">
         <v>88213</v>
       </c>
       <c r="I568" t="s">
@@ -23605,7 +23618,7 @@
       <c r="G569" s="1">
         <v>44410</v>
       </c>
-      <c r="H569" s="2">
+      <c r="H569" s="6">
         <v>67130</v>
       </c>
       <c r="I569" t="s">
@@ -23640,7 +23653,7 @@
       <c r="G570" s="1">
         <v>42285</v>
       </c>
-      <c r="H570" s="2">
+      <c r="H570" s="6">
         <v>94876</v>
       </c>
       <c r="I570" t="s">
@@ -23675,7 +23688,7 @@
       <c r="G571" s="1">
         <v>34616</v>
       </c>
-      <c r="H571" s="2">
+      <c r="H571" s="6">
         <v>98230</v>
       </c>
       <c r="I571" t="s">
@@ -23710,7 +23723,7 @@
       <c r="G572" s="1">
         <v>43448</v>
       </c>
-      <c r="H572" s="2">
+      <c r="H572" s="6">
         <v>96757</v>
       </c>
       <c r="I572" t="s">
@@ -23745,7 +23758,7 @@
       <c r="G573" s="1">
         <v>44015</v>
       </c>
-      <c r="H573" s="2">
+      <c r="H573" s="6">
         <v>51513</v>
       </c>
       <c r="I573" t="s">
@@ -23780,7 +23793,7 @@
       <c r="G574" s="1">
         <v>39109</v>
       </c>
-      <c r="H574" s="2">
+      <c r="H574" s="6">
         <v>234311</v>
       </c>
       <c r="I574" t="s">
@@ -23815,7 +23828,7 @@
       <c r="G575" s="1">
         <v>40685</v>
       </c>
-      <c r="H575" s="2">
+      <c r="H575" s="6">
         <v>152353</v>
       </c>
       <c r="I575" t="s">
@@ -23850,7 +23863,7 @@
       <c r="G576" s="1">
         <v>40389</v>
       </c>
-      <c r="H576" s="2">
+      <c r="H576" s="6">
         <v>124774</v>
       </c>
       <c r="I576" t="s">
@@ -23885,7 +23898,7 @@
       <c r="G577" s="1">
         <v>40434</v>
       </c>
-      <c r="H577" s="2">
+      <c r="H577" s="6">
         <v>157070</v>
       </c>
       <c r="I577" t="s">
@@ -23920,7 +23933,7 @@
       <c r="G578" s="1">
         <v>43685</v>
       </c>
-      <c r="H578" s="2">
+      <c r="H578" s="6">
         <v>130133</v>
       </c>
       <c r="I578" t="s">
@@ -23955,7 +23968,7 @@
       <c r="G579" s="1">
         <v>43729</v>
       </c>
-      <c r="H579" s="2">
+      <c r="H579" s="6">
         <v>108780</v>
       </c>
       <c r="I579" t="s">
@@ -23990,7 +24003,7 @@
       <c r="G580" s="1">
         <v>44125</v>
       </c>
-      <c r="H580" s="2">
+      <c r="H580" s="6">
         <v>151853</v>
       </c>
       <c r="I580" t="s">
@@ -24025,7 +24038,7 @@
       <c r="G581" s="1">
         <v>38977</v>
       </c>
-      <c r="H581" s="2">
+      <c r="H581" s="6">
         <v>64669</v>
       </c>
       <c r="I581" t="s">
@@ -24060,7 +24073,7 @@
       <c r="G582" s="1">
         <v>39568</v>
       </c>
-      <c r="H582" s="2">
+      <c r="H582" s="6">
         <v>69352</v>
       </c>
       <c r="I582" t="s">
@@ -24095,7 +24108,7 @@
       <c r="G583" s="1">
         <v>37181</v>
       </c>
-      <c r="H583" s="2">
+      <c r="H583" s="6">
         <v>74631</v>
       </c>
       <c r="I583" t="s">
@@ -24130,7 +24143,7 @@
       <c r="G584" s="1">
         <v>41028</v>
       </c>
-      <c r="H584" s="2">
+      <c r="H584" s="6">
         <v>96441</v>
       </c>
       <c r="I584" t="s">
@@ -24165,7 +24178,7 @@
       <c r="G585" s="1">
         <v>40836</v>
       </c>
-      <c r="H585" s="2">
+      <c r="H585" s="6">
         <v>114250</v>
       </c>
       <c r="I585" t="s">
@@ -24200,7 +24213,7 @@
       <c r="G586" s="1">
         <v>44192</v>
       </c>
-      <c r="H586" s="2">
+      <c r="H586" s="6">
         <v>70165</v>
       </c>
       <c r="I586" t="s">
@@ -24235,7 +24248,7 @@
       <c r="G587" s="1">
         <v>36554</v>
       </c>
-      <c r="H587" s="2">
+      <c r="H587" s="6">
         <v>109059</v>
       </c>
       <c r="I587" t="s">
@@ -24270,7 +24283,7 @@
       <c r="G588" s="1">
         <v>42322</v>
       </c>
-      <c r="H588" s="2">
+      <c r="H588" s="6">
         <v>77442</v>
       </c>
       <c r="I588" t="s">
@@ -24305,7 +24318,7 @@
       <c r="G589" s="1">
         <v>41066</v>
       </c>
-      <c r="H589" s="2">
+      <c r="H589" s="6">
         <v>72126</v>
       </c>
       <c r="I589" t="s">
@@ -24340,7 +24353,7 @@
       <c r="G590" s="1">
         <v>41565</v>
       </c>
-      <c r="H590" s="2">
+      <c r="H590" s="6">
         <v>70334</v>
       </c>
       <c r="I590" t="s">
@@ -24375,7 +24388,7 @@
       <c r="G591" s="1">
         <v>40170</v>
       </c>
-      <c r="H591" s="2">
+      <c r="H591" s="6">
         <v>78006</v>
       </c>
       <c r="I591" t="s">
@@ -24410,7 +24423,7 @@
       <c r="G592" s="1">
         <v>44221</v>
       </c>
-      <c r="H592" s="2">
+      <c r="H592" s="6">
         <v>160385</v>
       </c>
       <c r="I592" t="s">
@@ -24445,7 +24458,7 @@
       <c r="G593" s="1">
         <v>41650</v>
       </c>
-      <c r="H593" s="2">
+      <c r="H593" s="6">
         <v>202323</v>
       </c>
       <c r="I593" t="s">
@@ -24480,7 +24493,7 @@
       <c r="G594" s="1">
         <v>44025</v>
       </c>
-      <c r="H594" s="2">
+      <c r="H594" s="6">
         <v>141555</v>
       </c>
       <c r="I594" t="s">
@@ -24515,7 +24528,7 @@
       <c r="G595" s="1">
         <v>44032</v>
       </c>
-      <c r="H595" s="2">
+      <c r="H595" s="6">
         <v>184960</v>
       </c>
       <c r="I595" t="s">
@@ -24550,7 +24563,7 @@
       <c r="G596" s="1">
         <v>40719</v>
       </c>
-      <c r="H596" s="2">
+      <c r="H596" s="6">
         <v>221592</v>
       </c>
       <c r="I596" t="s">
@@ -24585,7 +24598,7 @@
       <c r="G597" s="1">
         <v>39841</v>
       </c>
-      <c r="H597" s="2">
+      <c r="H597" s="6">
         <v>53301</v>
       </c>
       <c r="I597" t="s">
@@ -24620,7 +24633,7 @@
       <c r="G598" s="1">
         <v>36587</v>
       </c>
-      <c r="H598" s="2">
+      <c r="H598" s="6">
         <v>91276</v>
       </c>
       <c r="I598" t="s">
@@ -24655,7 +24668,7 @@
       <c r="G599" s="1">
         <v>42983</v>
       </c>
-      <c r="H599" s="2">
+      <c r="H599" s="6">
         <v>140042</v>
       </c>
       <c r="I599" t="s">
@@ -24690,7 +24703,7 @@
       <c r="G600" s="1">
         <v>43440</v>
       </c>
-      <c r="H600" s="2">
+      <c r="H600" s="6">
         <v>57225</v>
       </c>
       <c r="I600" t="s">
@@ -24725,7 +24738,7 @@
       <c r="G601" s="1">
         <v>40233</v>
       </c>
-      <c r="H601" s="2">
+      <c r="H601" s="6">
         <v>102839</v>
       </c>
       <c r="I601" t="s">
@@ -24760,7 +24773,7 @@
       <c r="G602" s="1">
         <v>44454</v>
       </c>
-      <c r="H602" s="2">
+      <c r="H602" s="6">
         <v>199783</v>
       </c>
       <c r="I602" t="s">
@@ -24795,7 +24808,7 @@
       <c r="G603" s="1">
         <v>44295</v>
       </c>
-      <c r="H603" s="2">
+      <c r="H603" s="6">
         <v>70980</v>
       </c>
       <c r="I603" t="s">
@@ -24830,7 +24843,7 @@
       <c r="G604" s="1">
         <v>35456</v>
       </c>
-      <c r="H604" s="2">
+      <c r="H604" s="6">
         <v>104431</v>
       </c>
       <c r="I604" t="s">
@@ -24865,7 +24878,7 @@
       <c r="G605" s="1">
         <v>44374</v>
       </c>
-      <c r="H605" s="2">
+      <c r="H605" s="6">
         <v>48510</v>
       </c>
       <c r="I605" t="s">
@@ -24900,7 +24913,7 @@
       <c r="G606" s="1">
         <v>43613</v>
       </c>
-      <c r="H606" s="2">
+      <c r="H606" s="6">
         <v>70110</v>
       </c>
       <c r="I606" t="s">
@@ -24935,7 +24948,7 @@
       <c r="G607" s="1">
         <v>39519</v>
       </c>
-      <c r="H607" s="2">
+      <c r="H607" s="6">
         <v>186138</v>
       </c>
       <c r="I607" t="s">
@@ -24970,7 +24983,7 @@
       <c r="G608" s="1">
         <v>40287</v>
       </c>
-      <c r="H608" s="2">
+      <c r="H608" s="6">
         <v>56350</v>
       </c>
       <c r="I608" t="s">
@@ -25005,7 +25018,7 @@
       <c r="G609" s="1">
         <v>42379</v>
       </c>
-      <c r="H609" s="2">
+      <c r="H609" s="6">
         <v>149761</v>
       </c>
       <c r="I609" t="s">
@@ -25040,7 +25053,7 @@
       <c r="G610" s="1">
         <v>39305</v>
       </c>
-      <c r="H610" s="2">
+      <c r="H610" s="6">
         <v>126277</v>
       </c>
       <c r="I610" t="s">
@@ -25075,7 +25088,7 @@
       <c r="G611" s="1">
         <v>41446</v>
       </c>
-      <c r="H611" s="2">
+      <c r="H611" s="6">
         <v>119631</v>
       </c>
       <c r="I611" t="s">
@@ -25110,7 +25123,7 @@
       <c r="G612" s="1">
         <v>43960</v>
       </c>
-      <c r="H612" s="2">
+      <c r="H612" s="6">
         <v>256561</v>
       </c>
       <c r="I612" t="s">
@@ -25145,7 +25158,7 @@
       <c r="G613" s="1">
         <v>43937</v>
       </c>
-      <c r="H613" s="2">
+      <c r="H613" s="6">
         <v>66958</v>
       </c>
       <c r="I613" t="s">
@@ -25180,7 +25193,7 @@
       <c r="G614" s="1">
         <v>38046</v>
       </c>
-      <c r="H614" s="2">
+      <c r="H614" s="6">
         <v>158897</v>
       </c>
       <c r="I614" t="s">
@@ -25215,7 +25228,7 @@
       <c r="G615" s="1">
         <v>39493</v>
       </c>
-      <c r="H615" s="2">
+      <c r="H615" s="6">
         <v>71695</v>
       </c>
       <c r="I615" t="s">
@@ -25250,7 +25263,7 @@
       <c r="G616" s="1">
         <v>41904</v>
       </c>
-      <c r="H616" s="2">
+      <c r="H616" s="6">
         <v>73779</v>
       </c>
       <c r="I616" t="s">
@@ -25285,7 +25298,7 @@
       <c r="G617" s="1">
         <v>40836</v>
       </c>
-      <c r="H617" s="2">
+      <c r="H617" s="6">
         <v>123640</v>
       </c>
       <c r="I617" t="s">
@@ -25320,7 +25333,7 @@
       <c r="G618" s="1">
         <v>41742</v>
       </c>
-      <c r="H618" s="2">
+      <c r="H618" s="6">
         <v>46878</v>
       </c>
       <c r="I618" t="s">
@@ -25355,7 +25368,7 @@
       <c r="G619" s="1">
         <v>37662</v>
       </c>
-      <c r="H619" s="2">
+      <c r="H619" s="6">
         <v>57032</v>
       </c>
       <c r="I619" t="s">
@@ -25390,7 +25403,7 @@
       <c r="G620" s="1">
         <v>39357</v>
       </c>
-      <c r="H620" s="2">
+      <c r="H620" s="6">
         <v>98150</v>
       </c>
       <c r="I620" t="s">
@@ -25425,7 +25438,7 @@
       <c r="G621" s="1">
         <v>42800</v>
       </c>
-      <c r="H621" s="2">
+      <c r="H621" s="6">
         <v>171426</v>
       </c>
       <c r="I621" t="s">
@@ -25460,7 +25473,7 @@
       <c r="G622" s="1">
         <v>44302</v>
       </c>
-      <c r="H622" s="2">
+      <c r="H622" s="6">
         <v>48266</v>
       </c>
       <c r="I622" t="s">
@@ -25495,7 +25508,7 @@
       <c r="G623" s="1">
         <v>43330</v>
       </c>
-      <c r="H623" s="2">
+      <c r="H623" s="6">
         <v>223404</v>
       </c>
       <c r="I623" t="s">
@@ -25530,7 +25543,7 @@
       <c r="G624" s="1">
         <v>41649</v>
       </c>
-      <c r="H624" s="2">
+      <c r="H624" s="6">
         <v>74854</v>
       </c>
       <c r="I624" t="s">
@@ -25565,7 +25578,7 @@
       <c r="G625" s="1">
         <v>39197</v>
       </c>
-      <c r="H625" s="2">
+      <c r="H625" s="6">
         <v>217783</v>
       </c>
       <c r="I625" t="s">
@@ -25600,7 +25613,7 @@
       <c r="G626" s="1">
         <v>38214</v>
       </c>
-      <c r="H626" s="2">
+      <c r="H626" s="6">
         <v>44735</v>
       </c>
       <c r="I626" t="s">
@@ -25635,7 +25648,7 @@
       <c r="G627" s="1">
         <v>39091</v>
       </c>
-      <c r="H627" s="2">
+      <c r="H627" s="6">
         <v>50685</v>
       </c>
       <c r="I627" t="s">
@@ -25670,7 +25683,7 @@
       <c r="G628" s="1">
         <v>43169</v>
       </c>
-      <c r="H628" s="2">
+      <c r="H628" s="6">
         <v>58993</v>
       </c>
       <c r="I628" t="s">
@@ -25705,7 +25718,7 @@
       <c r="G629" s="1">
         <v>43990</v>
       </c>
-      <c r="H629" s="2">
+      <c r="H629" s="6">
         <v>115765</v>
       </c>
       <c r="I629" t="s">
@@ -25740,7 +25753,7 @@
       <c r="G630" s="1">
         <v>39147</v>
       </c>
-      <c r="H630" s="2">
+      <c r="H630" s="6">
         <v>193044</v>
       </c>
       <c r="I630" t="s">
@@ -25775,7 +25788,7 @@
       <c r="G631" s="1">
         <v>40711</v>
       </c>
-      <c r="H631" s="2">
+      <c r="H631" s="6">
         <v>56686</v>
       </c>
       <c r="I631" t="s">
@@ -25810,7 +25823,7 @@
       <c r="G632" s="1">
         <v>43763</v>
       </c>
-      <c r="H632" s="2">
+      <c r="H632" s="6">
         <v>131652</v>
       </c>
       <c r="I632" t="s">
@@ -25845,7 +25858,7 @@
       <c r="G633" s="1">
         <v>39507</v>
       </c>
-      <c r="H633" s="2">
+      <c r="H633" s="6">
         <v>150577</v>
       </c>
       <c r="I633" t="s">
@@ -25880,7 +25893,7 @@
       <c r="G634" s="1">
         <v>43461</v>
       </c>
-      <c r="H634" s="2">
+      <c r="H634" s="6">
         <v>87359</v>
       </c>
       <c r="I634" t="s">
@@ -25915,7 +25928,7 @@
       <c r="G635" s="1">
         <v>41647</v>
       </c>
-      <c r="H635" s="2">
+      <c r="H635" s="6">
         <v>51877</v>
       </c>
       <c r="I635" t="s">
@@ -25950,7 +25963,7 @@
       <c r="G636" s="1">
         <v>42753</v>
       </c>
-      <c r="H636" s="2">
+      <c r="H636" s="6">
         <v>86417</v>
       </c>
       <c r="I636" t="s">
@@ -25985,7 +25998,7 @@
       <c r="G637" s="1">
         <v>37749</v>
       </c>
-      <c r="H637" s="2">
+      <c r="H637" s="6">
         <v>96548</v>
       </c>
       <c r="I637" t="s">
@@ -26020,7 +26033,7 @@
       <c r="G638" s="1">
         <v>41662</v>
       </c>
-      <c r="H638" s="2">
+      <c r="H638" s="6">
         <v>92940</v>
       </c>
       <c r="I638" t="s">
@@ -26055,7 +26068,7 @@
       <c r="G639" s="1">
         <v>43336</v>
       </c>
-      <c r="H639" s="2">
+      <c r="H639" s="6">
         <v>61410</v>
       </c>
       <c r="I639" t="s">
@@ -26090,7 +26103,7 @@
       <c r="G640" s="1">
         <v>40293</v>
       </c>
-      <c r="H640" s="2">
+      <c r="H640" s="6">
         <v>110302</v>
       </c>
       <c r="I640" t="s">
@@ -26125,7 +26138,7 @@
       <c r="G641" s="1">
         <v>43212</v>
       </c>
-      <c r="H641" s="2">
+      <c r="H641" s="6">
         <v>187205</v>
       </c>
       <c r="I641" t="s">
@@ -26160,7 +26173,7 @@
       <c r="G642" s="1">
         <v>40618</v>
       </c>
-      <c r="H642" s="2">
+      <c r="H642" s="6">
         <v>81687</v>
       </c>
       <c r="I642" t="s">
@@ -26195,7 +26208,7 @@
       <c r="G643" s="1">
         <v>40040</v>
       </c>
-      <c r="H643" s="2">
+      <c r="H643" s="6">
         <v>241083</v>
       </c>
       <c r="I643" t="s">
@@ -26230,7 +26243,7 @@
       <c r="G644" s="1">
         <v>43413</v>
       </c>
-      <c r="H644" s="2">
+      <c r="H644" s="6">
         <v>223805</v>
       </c>
       <c r="I644" t="s">
@@ -26265,7 +26278,7 @@
       <c r="G645" s="1">
         <v>44393</v>
       </c>
-      <c r="H645" s="2">
+      <c r="H645" s="6">
         <v>161759</v>
       </c>
       <c r="I645" t="s">
@@ -26300,7 +26313,7 @@
       <c r="G646" s="1">
         <v>43520</v>
       </c>
-      <c r="H646" s="2">
+      <c r="H646" s="6">
         <v>95899</v>
       </c>
       <c r="I646" t="s">
@@ -26335,7 +26348,7 @@
       <c r="G647" s="1">
         <v>43623</v>
       </c>
-      <c r="H647" s="2">
+      <c r="H647" s="6">
         <v>80700</v>
       </c>
       <c r="I647" t="s">
@@ -26370,7 +26383,7 @@
       <c r="G648" s="1">
         <v>35500</v>
       </c>
-      <c r="H648" s="2">
+      <c r="H648" s="6">
         <v>128136</v>
       </c>
       <c r="I648" t="s">
@@ -26405,7 +26418,7 @@
       <c r="G649" s="1">
         <v>42843</v>
       </c>
-      <c r="H649" s="2">
+      <c r="H649" s="6">
         <v>58745</v>
       </c>
       <c r="I649" t="s">
@@ -26440,7 +26453,7 @@
       <c r="G650" s="1">
         <v>33728</v>
       </c>
-      <c r="H650" s="2">
+      <c r="H650" s="6">
         <v>76202</v>
       </c>
       <c r="I650" t="s">
@@ -26475,7 +26488,7 @@
       <c r="G651" s="1">
         <v>43178</v>
       </c>
-      <c r="H651" s="2">
+      <c r="H651" s="6">
         <v>195200</v>
       </c>
       <c r="I651" t="s">
@@ -26510,7 +26523,7 @@
       <c r="G652" s="1">
         <v>42711</v>
       </c>
-      <c r="H652" s="2">
+      <c r="H652" s="6">
         <v>71454</v>
       </c>
       <c r="I652" t="s">
@@ -26545,7 +26558,7 @@
       <c r="G653" s="1">
         <v>43864</v>
       </c>
-      <c r="H653" s="2">
+      <c r="H653" s="6">
         <v>94652</v>
       </c>
       <c r="I653" t="s">
@@ -26580,7 +26593,7 @@
       <c r="G654" s="1">
         <v>42416</v>
       </c>
-      <c r="H654" s="2">
+      <c r="H654" s="6">
         <v>63411</v>
       </c>
       <c r="I654" t="s">
@@ -26615,7 +26628,7 @@
       <c r="G655" s="1">
         <v>43878</v>
       </c>
-      <c r="H655" s="2">
+      <c r="H655" s="6">
         <v>67171</v>
       </c>
       <c r="I655" t="s">
@@ -26650,7 +26663,7 @@
       <c r="G656" s="1">
         <v>43652</v>
       </c>
-      <c r="H656" s="2">
+      <c r="H656" s="6">
         <v>152036</v>
       </c>
       <c r="I656" t="s">
@@ -26685,7 +26698,7 @@
       <c r="G657" s="1">
         <v>44276</v>
       </c>
-      <c r="H657" s="2">
+      <c r="H657" s="6">
         <v>95562</v>
       </c>
       <c r="I657" t="s">
@@ -26720,7 +26733,7 @@
       <c r="G658" s="1">
         <v>43773</v>
       </c>
-      <c r="H658" s="2">
+      <c r="H658" s="6">
         <v>96092</v>
       </c>
       <c r="I658" t="s">
@@ -26755,7 +26768,7 @@
       <c r="G659" s="1">
         <v>41428</v>
       </c>
-      <c r="H659" s="2">
+      <c r="H659" s="6">
         <v>254289</v>
       </c>
       <c r="I659" t="s">
@@ -26790,7 +26803,7 @@
       <c r="G660" s="1">
         <v>43656</v>
       </c>
-      <c r="H660" s="2">
+      <c r="H660" s="6">
         <v>69110</v>
       </c>
       <c r="I660" t="s">
@@ -26825,7 +26838,7 @@
       <c r="G661" s="1">
         <v>37418</v>
       </c>
-      <c r="H661" s="2">
+      <c r="H661" s="6">
         <v>236314</v>
       </c>
       <c r="I661" t="s">
@@ -26860,7 +26873,7 @@
       <c r="G662" s="1">
         <v>39252</v>
       </c>
-      <c r="H662" s="2">
+      <c r="H662" s="6">
         <v>45206</v>
       </c>
       <c r="I662" t="s">
@@ -26895,7 +26908,7 @@
       <c r="G663" s="1">
         <v>44515</v>
       </c>
-      <c r="H663" s="2">
+      <c r="H663" s="6">
         <v>210708</v>
       </c>
       <c r="I663" t="s">
@@ -26930,7 +26943,7 @@
       <c r="G664" s="1">
         <v>44465</v>
       </c>
-      <c r="H664" s="2">
+      <c r="H664" s="6">
         <v>87770</v>
       </c>
       <c r="I664" t="s">
@@ -26965,7 +26978,7 @@
       <c r="G665" s="1">
         <v>42228</v>
       </c>
-      <c r="H665" s="2">
+      <c r="H665" s="6">
         <v>106858</v>
       </c>
       <c r="I665" t="s">
@@ -27000,7 +27013,7 @@
       <c r="G666" s="1">
         <v>42108</v>
       </c>
-      <c r="H666" s="2">
+      <c r="H666" s="6">
         <v>155788</v>
       </c>
       <c r="I666" t="s">
@@ -27035,7 +27048,7 @@
       <c r="G667" s="1">
         <v>43581</v>
       </c>
-      <c r="H667" s="2">
+      <c r="H667" s="6">
         <v>74891</v>
       </c>
       <c r="I667" t="s">
@@ -27070,7 +27083,7 @@
       <c r="G668" s="1">
         <v>44548</v>
       </c>
-      <c r="H668" s="2">
+      <c r="H668" s="6">
         <v>95670</v>
       </c>
       <c r="I668" t="s">
@@ -27105,7 +27118,7 @@
       <c r="G669" s="1">
         <v>36798</v>
       </c>
-      <c r="H669" s="2">
+      <c r="H669" s="6">
         <v>67837</v>
       </c>
       <c r="I669" t="s">
@@ -27140,7 +27153,7 @@
       <c r="G670" s="1">
         <v>40333</v>
       </c>
-      <c r="H670" s="2">
+      <c r="H670" s="6">
         <v>72425</v>
       </c>
       <c r="I670" t="s">
@@ -27175,7 +27188,7 @@
       <c r="G671" s="1">
         <v>34623</v>
       </c>
-      <c r="H671" s="2">
+      <c r="H671" s="6">
         <v>93103</v>
       </c>
       <c r="I671" t="s">
@@ -27210,7 +27223,7 @@
       <c r="G672" s="1">
         <v>42291</v>
       </c>
-      <c r="H672" s="2">
+      <c r="H672" s="6">
         <v>76272</v>
       </c>
       <c r="I672" t="s">
@@ -27245,7 +27258,7 @@
       <c r="G673" s="1">
         <v>37796</v>
       </c>
-      <c r="H673" s="2">
+      <c r="H673" s="6">
         <v>55760</v>
       </c>
       <c r="I673" t="s">
@@ -27280,7 +27293,7 @@
       <c r="G674" s="1">
         <v>43843</v>
       </c>
-      <c r="H674" s="2">
+      <c r="H674" s="6">
         <v>253294</v>
       </c>
       <c r="I674" t="s">
@@ -27315,7 +27328,7 @@
       <c r="G675" s="1">
         <v>39310</v>
       </c>
-      <c r="H675" s="2">
+      <c r="H675" s="6">
         <v>58671</v>
       </c>
       <c r="I675" t="s">
@@ -27350,7 +27363,7 @@
       <c r="G676" s="1">
         <v>43175</v>
       </c>
-      <c r="H676" s="2">
+      <c r="H676" s="6">
         <v>55457</v>
       </c>
       <c r="I676" t="s">
@@ -27385,7 +27398,7 @@
       <c r="G677" s="1">
         <v>43004</v>
       </c>
-      <c r="H677" s="2">
+      <c r="H677" s="6">
         <v>72340</v>
       </c>
       <c r="I677" t="s">
@@ -27420,7 +27433,7 @@
       <c r="G678" s="1">
         <v>42676</v>
       </c>
-      <c r="H678" s="2">
+      <c r="H678" s="6">
         <v>122054</v>
       </c>
       <c r="I678" t="s">
@@ -27455,7 +27468,7 @@
       <c r="G679" s="1">
         <v>43103</v>
       </c>
-      <c r="H679" s="2">
+      <c r="H679" s="6">
         <v>167100</v>
       </c>
       <c r="I679" t="s">
@@ -27490,7 +27503,7 @@
       <c r="G680" s="1">
         <v>35543</v>
       </c>
-      <c r="H680" s="2">
+      <c r="H680" s="6">
         <v>78153</v>
       </c>
       <c r="I680" t="s">
@@ -27525,7 +27538,7 @@
       <c r="G681" s="1">
         <v>43935</v>
       </c>
-      <c r="H681" s="2">
+      <c r="H681" s="6">
         <v>103524</v>
       </c>
       <c r="I681" t="s">
@@ -27560,7 +27573,7 @@
       <c r="G682" s="1">
         <v>42952</v>
       </c>
-      <c r="H682" s="2">
+      <c r="H682" s="6">
         <v>119906</v>
       </c>
       <c r="I682" t="s">
@@ -27595,7 +27608,7 @@
       <c r="G683" s="1">
         <v>43847</v>
       </c>
-      <c r="H683" s="2">
+      <c r="H683" s="6">
         <v>45061</v>
       </c>
       <c r="I683" t="s">
@@ -27630,7 +27643,7 @@
       <c r="G684" s="1">
         <v>37638</v>
       </c>
-      <c r="H684" s="2">
+      <c r="H684" s="6">
         <v>91399</v>
       </c>
       <c r="I684" t="s">
@@ -27665,7 +27678,7 @@
       <c r="G685" s="1">
         <v>43006</v>
       </c>
-      <c r="H685" s="2">
+      <c r="H685" s="6">
         <v>97336</v>
       </c>
       <c r="I685" t="s">
@@ -27700,7 +27713,7 @@
       <c r="G686" s="1">
         <v>42755</v>
       </c>
-      <c r="H686" s="2">
+      <c r="H686" s="6">
         <v>124629</v>
       </c>
       <c r="I686" t="s">
@@ -27735,7 +27748,7 @@
       <c r="G687" s="1">
         <v>44402</v>
       </c>
-      <c r="H687" s="2">
+      <c r="H687" s="6">
         <v>231850</v>
       </c>
       <c r="I687" t="s">
@@ -27770,7 +27783,7 @@
       <c r="G688" s="1">
         <v>43255</v>
       </c>
-      <c r="H688" s="2">
+      <c r="H688" s="6">
         <v>128329</v>
       </c>
       <c r="I688" t="s">
@@ -27805,7 +27818,7 @@
       <c r="G689" s="1">
         <v>44283</v>
       </c>
-      <c r="H689" s="2">
+      <c r="H689" s="6">
         <v>186033</v>
       </c>
       <c r="I689" t="s">
@@ -27840,7 +27853,7 @@
       <c r="G690" s="1">
         <v>44403</v>
       </c>
-      <c r="H690" s="2">
+      <c r="H690" s="6">
         <v>121480</v>
       </c>
       <c r="I690" t="s">
@@ -27875,7 +27888,7 @@
       <c r="G691" s="1">
         <v>40319</v>
       </c>
-      <c r="H691" s="2">
+      <c r="H691" s="6">
         <v>153275</v>
       </c>
       <c r="I691" t="s">
@@ -27910,7 +27923,7 @@
       <c r="G692" s="1">
         <v>43969</v>
       </c>
-      <c r="H692" s="2">
+      <c r="H692" s="6">
         <v>97830</v>
       </c>
       <c r="I692" t="s">
@@ -27945,7 +27958,7 @@
       <c r="G693" s="1">
         <v>36232</v>
       </c>
-      <c r="H693" s="2">
+      <c r="H693" s="6">
         <v>239394</v>
       </c>
       <c r="I693" t="s">
@@ -27980,7 +27993,7 @@
       <c r="G694" s="1">
         <v>37519</v>
       </c>
-      <c r="H694" s="2">
+      <c r="H694" s="6">
         <v>49738</v>
       </c>
       <c r="I694" t="s">
@@ -28015,7 +28028,7 @@
       <c r="G695" s="1">
         <v>43247</v>
       </c>
-      <c r="H695" s="2">
+      <c r="H695" s="6">
         <v>45049</v>
       </c>
       <c r="I695" t="s">
@@ -28050,7 +28063,7 @@
       <c r="G696" s="1">
         <v>43977</v>
       </c>
-      <c r="H696" s="2">
+      <c r="H696" s="6">
         <v>153628</v>
       </c>
       <c r="I696" t="s">
@@ -28085,7 +28098,7 @@
       <c r="G697" s="1">
         <v>44362</v>
       </c>
-      <c r="H697" s="2">
+      <c r="H697" s="6">
         <v>142731</v>
       </c>
       <c r="I697" t="s">
@@ -28120,7 +28133,7 @@
       <c r="G698" s="1">
         <v>43966</v>
       </c>
-      <c r="H698" s="2">
+      <c r="H698" s="6">
         <v>137106</v>
       </c>
       <c r="I698" t="s">
@@ -28155,7 +28168,7 @@
       <c r="G699" s="1">
         <v>39330</v>
       </c>
-      <c r="H699" s="2">
+      <c r="H699" s="6">
         <v>183239</v>
       </c>
       <c r="I699" t="s">
@@ -28190,7 +28203,7 @@
       <c r="G700" s="1">
         <v>43610</v>
       </c>
-      <c r="H700" s="2">
+      <c r="H700" s="6">
         <v>45819</v>
       </c>
       <c r="I700" t="s">
@@ -28225,7 +28238,7 @@
       <c r="G701" s="1">
         <v>39080</v>
       </c>
-      <c r="H701" s="2">
+      <c r="H701" s="6">
         <v>55518</v>
       </c>
       <c r="I701" t="s">
@@ -28260,7 +28273,7 @@
       <c r="G702" s="1">
         <v>40979</v>
       </c>
-      <c r="H702" s="2">
+      <c r="H702" s="6">
         <v>108134</v>
       </c>
       <c r="I702" t="s">
@@ -28295,7 +28308,7 @@
       <c r="G703" s="1">
         <v>33958</v>
       </c>
-      <c r="H703" s="2">
+      <c r="H703" s="6">
         <v>113950</v>
       </c>
       <c r="I703" t="s">
@@ -28330,7 +28343,7 @@
       <c r="G704" s="1">
         <v>35886</v>
       </c>
-      <c r="H704" s="2">
+      <c r="H704" s="6">
         <v>182035</v>
       </c>
       <c r="I704" t="s">
@@ -28365,7 +28378,7 @@
       <c r="G705" s="1">
         <v>42963</v>
       </c>
-      <c r="H705" s="2">
+      <c r="H705" s="6">
         <v>181356</v>
       </c>
       <c r="I705" t="s">
@@ -28400,7 +28413,7 @@
       <c r="G706" s="1">
         <v>43698</v>
       </c>
-      <c r="H706" s="2">
+      <c r="H706" s="6">
         <v>66084</v>
       </c>
       <c r="I706" t="s">
@@ -28435,7 +28448,7 @@
       <c r="G707" s="1">
         <v>40290</v>
       </c>
-      <c r="H707" s="2">
+      <c r="H707" s="6">
         <v>76912</v>
       </c>
       <c r="I707" t="s">
@@ -28470,7 +28483,7 @@
       <c r="G708" s="1">
         <v>43227</v>
       </c>
-      <c r="H708" s="2">
+      <c r="H708" s="6">
         <v>67987</v>
       </c>
       <c r="I708" t="s">
@@ -28505,7 +28518,7 @@
       <c r="G709" s="1">
         <v>38584</v>
       </c>
-      <c r="H709" s="2">
+      <c r="H709" s="6">
         <v>59833</v>
       </c>
       <c r="I709" t="s">
@@ -28540,7 +28553,7 @@
       <c r="G710" s="1">
         <v>38453</v>
       </c>
-      <c r="H710" s="2">
+      <c r="H710" s="6">
         <v>128468</v>
       </c>
       <c r="I710" t="s">
@@ -28575,7 +28588,7 @@
       <c r="G711" s="1">
         <v>40692</v>
       </c>
-      <c r="H711" s="2">
+      <c r="H711" s="6">
         <v>102440</v>
       </c>
       <c r="I711" t="s">
@@ -28610,7 +28623,7 @@
       <c r="G712" s="1">
         <v>40542</v>
       </c>
-      <c r="H712" s="2">
+      <c r="H712" s="6">
         <v>246619</v>
       </c>
       <c r="I712" t="s">
@@ -28645,7 +28658,7 @@
       <c r="G713" s="1">
         <v>43058</v>
       </c>
-      <c r="H713" s="2">
+      <c r="H713" s="6">
         <v>101143</v>
       </c>
       <c r="I713" t="s">
@@ -28680,7 +28693,7 @@
       <c r="G714" s="1">
         <v>38639</v>
       </c>
-      <c r="H714" s="2">
+      <c r="H714" s="6">
         <v>51404</v>
       </c>
       <c r="I714" t="s">
@@ -28715,7 +28728,7 @@
       <c r="G715" s="1">
         <v>42329</v>
       </c>
-      <c r="H715" s="2">
+      <c r="H715" s="6">
         <v>87292</v>
       </c>
       <c r="I715" t="s">
@@ -28750,7 +28763,7 @@
       <c r="G716" s="1">
         <v>43810</v>
       </c>
-      <c r="H716" s="2">
+      <c r="H716" s="6">
         <v>182321</v>
       </c>
       <c r="I716" t="s">
@@ -28785,7 +28798,7 @@
       <c r="G717" s="1">
         <v>41697</v>
       </c>
-      <c r="H717" s="2">
+      <c r="H717" s="6">
         <v>53929</v>
       </c>
       <c r="I717" t="s">
@@ -28820,7 +28833,7 @@
       <c r="G718" s="1">
         <v>41256</v>
       </c>
-      <c r="H718" s="2">
+      <c r="H718" s="6">
         <v>191571</v>
       </c>
       <c r="I718" t="s">
@@ -28855,7 +28868,7 @@
       <c r="G719" s="1">
         <v>39843</v>
       </c>
-      <c r="H719" s="2">
+      <c r="H719" s="6">
         <v>150555</v>
       </c>
       <c r="I719" t="s">
@@ -28890,7 +28903,7 @@
       <c r="G720" s="1">
         <v>40091</v>
       </c>
-      <c r="H720" s="2">
+      <c r="H720" s="6">
         <v>122890</v>
       </c>
       <c r="I720" t="s">
@@ -28925,7 +28938,7 @@
       <c r="G721" s="1">
         <v>35576</v>
       </c>
-      <c r="H721" s="2">
+      <c r="H721" s="6">
         <v>216999</v>
       </c>
       <c r="I721" t="s">
@@ -28960,7 +28973,7 @@
       <c r="G722" s="1">
         <v>42201</v>
       </c>
-      <c r="H722" s="2">
+      <c r="H722" s="6">
         <v>110565</v>
       </c>
       <c r="I722" t="s">
@@ -28995,7 +29008,7 @@
       <c r="G723" s="1">
         <v>42113</v>
       </c>
-      <c r="H723" s="2">
+      <c r="H723" s="6">
         <v>48762</v>
       </c>
       <c r="I723" t="s">
@@ -29030,7 +29043,7 @@
       <c r="G724" s="1">
         <v>42777</v>
       </c>
-      <c r="H724" s="2">
+      <c r="H724" s="6">
         <v>87036</v>
       </c>
       <c r="I724" t="s">
@@ -29065,7 +29078,7 @@
       <c r="G725" s="1">
         <v>42702</v>
       </c>
-      <c r="H725" s="2">
+      <c r="H725" s="6">
         <v>177443</v>
       </c>
       <c r="I725" t="s">
@@ -29100,7 +29113,7 @@
       <c r="G726" s="1">
         <v>42489</v>
       </c>
-      <c r="H726" s="2">
+      <c r="H726" s="6">
         <v>75862</v>
       </c>
       <c r="I726" t="s">
@@ -29135,7 +29148,7 @@
       <c r="G727" s="1">
         <v>43581</v>
       </c>
-      <c r="H727" s="2">
+      <c r="H727" s="6">
         <v>90870</v>
       </c>
       <c r="I727" t="s">
@@ -29170,7 +29183,7 @@
       <c r="G728" s="1">
         <v>41977</v>
       </c>
-      <c r="H728" s="2">
+      <c r="H728" s="6">
         <v>99202</v>
       </c>
       <c r="I728" t="s">
@@ -29205,7 +29218,7 @@
       <c r="G729" s="1">
         <v>39347</v>
       </c>
-      <c r="H729" s="2">
+      <c r="H729" s="6">
         <v>92293</v>
       </c>
       <c r="I729" t="s">
@@ -29240,7 +29253,7 @@
       <c r="G730" s="1">
         <v>33785</v>
       </c>
-      <c r="H730" s="2">
+      <c r="H730" s="6">
         <v>63196</v>
       </c>
       <c r="I730" t="s">
@@ -29275,7 +29288,7 @@
       <c r="G731" s="1">
         <v>41032</v>
       </c>
-      <c r="H731" s="2">
+      <c r="H731" s="6">
         <v>65340</v>
       </c>
       <c r="I731" t="s">
@@ -29310,7 +29323,7 @@
       <c r="G732" s="1">
         <v>42271</v>
       </c>
-      <c r="H732" s="2">
+      <c r="H732" s="6">
         <v>202680</v>
       </c>
       <c r="I732" t="s">
@@ -29345,7 +29358,7 @@
       <c r="G733" s="1">
         <v>42849</v>
       </c>
-      <c r="H733" s="2">
+      <c r="H733" s="6">
         <v>77461</v>
       </c>
       <c r="I733" t="s">
@@ -29380,7 +29393,7 @@
       <c r="G734" s="1">
         <v>42622</v>
       </c>
-      <c r="H734" s="2">
+      <c r="H734" s="6">
         <v>109680</v>
       </c>
       <c r="I734" t="s">
@@ -29415,7 +29428,7 @@
       <c r="G735" s="1">
         <v>35661</v>
       </c>
-      <c r="H735" s="2">
+      <c r="H735" s="6">
         <v>159567</v>
       </c>
       <c r="I735" t="s">
@@ -29450,7 +29463,7 @@
       <c r="G736" s="1">
         <v>41237</v>
       </c>
-      <c r="H736" s="2">
+      <c r="H736" s="6">
         <v>94407</v>
       </c>
       <c r="I736" t="s">
@@ -29485,7 +29498,7 @@
       <c r="G737" s="1">
         <v>37484</v>
       </c>
-      <c r="H737" s="2">
+      <c r="H737" s="6">
         <v>234594</v>
       </c>
       <c r="I737" t="s">
@@ -29520,7 +29533,7 @@
       <c r="G738" s="1">
         <v>37298</v>
       </c>
-      <c r="H738" s="2">
+      <c r="H738" s="6">
         <v>43080</v>
       </c>
       <c r="I738" t="s">
@@ -29555,7 +29568,7 @@
       <c r="G739" s="1">
         <v>44325</v>
       </c>
-      <c r="H739" s="2">
+      <c r="H739" s="6">
         <v>129541</v>
       </c>
       <c r="I739" t="s">
@@ -29590,7 +29603,7 @@
       <c r="G740" s="1">
         <v>41635</v>
       </c>
-      <c r="H740" s="2">
+      <c r="H740" s="6">
         <v>165756</v>
       </c>
       <c r="I740" t="s">
@@ -29625,7 +29638,7 @@
       <c r="G741" s="1">
         <v>40274</v>
       </c>
-      <c r="H741" s="2">
+      <c r="H741" s="6">
         <v>142878</v>
       </c>
       <c r="I741" t="s">
@@ -29660,7 +29673,7 @@
       <c r="G742" s="1">
         <v>39018</v>
       </c>
-      <c r="H742" s="2">
+      <c r="H742" s="6">
         <v>187992</v>
       </c>
       <c r="I742" t="s">
@@ -29695,7 +29708,7 @@
       <c r="G743" s="1">
         <v>43521</v>
       </c>
-      <c r="H743" s="2">
+      <c r="H743" s="6">
         <v>249801</v>
       </c>
       <c r="I743" t="s">
@@ -29730,7 +29743,7 @@
       <c r="G744" s="1">
         <v>38987</v>
       </c>
-      <c r="H744" s="2">
+      <c r="H744" s="6">
         <v>76505</v>
       </c>
       <c r="I744" t="s">
@@ -29765,7 +29778,7 @@
       <c r="G745" s="1">
         <v>42664</v>
       </c>
-      <c r="H745" s="2">
+      <c r="H745" s="6">
         <v>84297</v>
       </c>
       <c r="I745" t="s">
@@ -29800,7 +29813,7 @@
       <c r="G746" s="1">
         <v>42744</v>
       </c>
-      <c r="H746" s="2">
+      <c r="H746" s="6">
         <v>75769</v>
       </c>
       <c r="I746" t="s">
@@ -29835,7 +29848,7 @@
       <c r="G747" s="1">
         <v>41503</v>
       </c>
-      <c r="H747" s="2">
+      <c r="H747" s="6">
         <v>235619</v>
       </c>
       <c r="I747" t="s">
@@ -29870,7 +29883,7 @@
       <c r="G748" s="1">
         <v>43868</v>
       </c>
-      <c r="H748" s="2">
+      <c r="H748" s="6">
         <v>187187</v>
       </c>
       <c r="I748" t="s">
@@ -29905,7 +29918,7 @@
       <c r="G749" s="1">
         <v>38560</v>
       </c>
-      <c r="H749" s="2">
+      <c r="H749" s="6">
         <v>68987</v>
       </c>
       <c r="I749" t="s">
@@ -29940,7 +29953,7 @@
       <c r="G750" s="1">
         <v>39156</v>
       </c>
-      <c r="H750" s="2">
+      <c r="H750" s="6">
         <v>155926</v>
       </c>
       <c r="I750" t="s">
@@ -29975,7 +29988,7 @@
       <c r="G751" s="1">
         <v>42494</v>
       </c>
-      <c r="H751" s="2">
+      <c r="H751" s="6">
         <v>93668</v>
       </c>
       <c r="I751" t="s">
@@ -30010,7 +30023,7 @@
       <c r="G752" s="1">
         <v>43798</v>
       </c>
-      <c r="H752" s="2">
+      <c r="H752" s="6">
         <v>69647</v>
       </c>
       <c r="I752" t="s">
@@ -30045,7 +30058,7 @@
       <c r="G753" s="1">
         <v>37798</v>
       </c>
-      <c r="H753" s="2">
+      <c r="H753" s="6">
         <v>63318</v>
       </c>
       <c r="I753" t="s">
@@ -30080,7 +30093,7 @@
       <c r="G754" s="1">
         <v>42778</v>
       </c>
-      <c r="H754" s="2">
+      <c r="H754" s="6">
         <v>77629</v>
       </c>
       <c r="I754" t="s">
@@ -30115,7 +30128,7 @@
       <c r="G755" s="1">
         <v>43061</v>
       </c>
-      <c r="H755" s="2">
+      <c r="H755" s="6">
         <v>138808</v>
       </c>
       <c r="I755" t="s">
@@ -30150,7 +30163,7 @@
       <c r="G756" s="1">
         <v>41703</v>
       </c>
-      <c r="H756" s="2">
+      <c r="H756" s="6">
         <v>88777</v>
       </c>
       <c r="I756" t="s">
@@ -30185,7 +30198,7 @@
       <c r="G757" s="1">
         <v>38121</v>
       </c>
-      <c r="H757" s="2">
+      <c r="H757" s="6">
         <v>186378</v>
       </c>
       <c r="I757" t="s">
@@ -30220,7 +30233,7 @@
       <c r="G758" s="1">
         <v>42117</v>
       </c>
-      <c r="H758" s="2">
+      <c r="H758" s="6">
         <v>60017</v>
       </c>
       <c r="I758" t="s">
@@ -30255,7 +30268,7 @@
       <c r="G759" s="1">
         <v>43305</v>
       </c>
-      <c r="H759" s="2">
+      <c r="H759" s="6">
         <v>148991</v>
       </c>
       <c r="I759" t="s">
@@ -30290,7 +30303,7 @@
       <c r="G760" s="1">
         <v>39532</v>
       </c>
-      <c r="H760" s="2">
+      <c r="H760" s="6">
         <v>97398</v>
       </c>
       <c r="I760" t="s">
@@ -30325,7 +30338,7 @@
       <c r="G761" s="1">
         <v>39204</v>
       </c>
-      <c r="H761" s="2">
+      <c r="H761" s="6">
         <v>72805</v>
       </c>
       <c r="I761" t="s">
@@ -30360,7 +30373,7 @@
       <c r="G762" s="1">
         <v>44213</v>
       </c>
-      <c r="H762" s="2">
+      <c r="H762" s="6">
         <v>72131</v>
       </c>
       <c r="I762" t="s">
@@ -30395,7 +30408,7 @@
       <c r="G763" s="1">
         <v>33964</v>
       </c>
-      <c r="H763" s="2">
+      <c r="H763" s="6">
         <v>104668</v>
       </c>
       <c r="I763" t="s">
@@ -30430,7 +30443,7 @@
       <c r="G764" s="1">
         <v>42952</v>
       </c>
-      <c r="H764" s="2">
+      <c r="H764" s="6">
         <v>89769</v>
       </c>
       <c r="I764" t="s">
@@ -30465,7 +30478,7 @@
       <c r="G765" s="1">
         <v>43358</v>
       </c>
-      <c r="H765" s="2">
+      <c r="H765" s="6">
         <v>127616</v>
       </c>
       <c r="I765" t="s">
@@ -30500,7 +30513,7 @@
       <c r="G766" s="1">
         <v>41099</v>
       </c>
-      <c r="H766" s="2">
+      <c r="H766" s="6">
         <v>109883</v>
       </c>
       <c r="I766" t="s">
@@ -30535,7 +30548,7 @@
       <c r="G767" s="1">
         <v>44270</v>
       </c>
-      <c r="H767" s="2">
+      <c r="H767" s="6">
         <v>47974</v>
       </c>
       <c r="I767" t="s">
@@ -30570,7 +30583,7 @@
       <c r="G768" s="1">
         <v>42090</v>
       </c>
-      <c r="H768" s="2">
+      <c r="H768" s="6">
         <v>120321</v>
       </c>
       <c r="I768" t="s">
@@ -30605,7 +30618,7 @@
       <c r="G769" s="1">
         <v>41861</v>
       </c>
-      <c r="H769" s="2">
+      <c r="H769" s="6">
         <v>57446</v>
       </c>
       <c r="I769" t="s">
@@ -30640,7 +30653,7 @@
       <c r="G770" s="1">
         <v>39968</v>
       </c>
-      <c r="H770" s="2">
+      <c r="H770" s="6">
         <v>174099</v>
       </c>
       <c r="I770" t="s">
@@ -30675,7 +30688,7 @@
       <c r="G771" s="1">
         <v>37295</v>
       </c>
-      <c r="H771" s="2">
+      <c r="H771" s="6">
         <v>128703</v>
       </c>
       <c r="I771" t="s">
@@ -30710,7 +30723,7 @@
       <c r="G772" s="1">
         <v>42317</v>
       </c>
-      <c r="H772" s="2">
+      <c r="H772" s="6">
         <v>65247</v>
       </c>
       <c r="I772" t="s">
@@ -30745,7 +30758,7 @@
       <c r="G773" s="1">
         <v>43371</v>
       </c>
-      <c r="H773" s="2">
+      <c r="H773" s="6">
         <v>64247</v>
       </c>
       <c r="I773" t="s">
@@ -30780,7 +30793,7 @@
       <c r="G774" s="1">
         <v>41071</v>
       </c>
-      <c r="H774" s="2">
+      <c r="H774" s="6">
         <v>118253</v>
       </c>
       <c r="I774" t="s">
@@ -30815,7 +30828,7 @@
       <c r="G775" s="1">
         <v>38057</v>
       </c>
-      <c r="H775" s="2">
+      <c r="H775" s="6">
         <v>109422</v>
       </c>
       <c r="I775" t="s">
@@ -30850,7 +30863,7 @@
       <c r="G776" s="1">
         <v>43502</v>
       </c>
-      <c r="H776" s="2">
+      <c r="H776" s="6">
         <v>126950</v>
       </c>
       <c r="I776" t="s">
@@ -30885,7 +30898,7 @@
       <c r="G777" s="1">
         <v>41964</v>
       </c>
-      <c r="H777" s="2">
+      <c r="H777" s="6">
         <v>97500</v>
       </c>
       <c r="I777" t="s">
@@ -30920,7 +30933,7 @@
       <c r="G778" s="1">
         <v>44213</v>
       </c>
-      <c r="H778" s="2">
+      <c r="H778" s="6">
         <v>41844</v>
       </c>
       <c r="I778" t="s">
@@ -30955,7 +30968,7 @@
       <c r="G779" s="1">
         <v>41680</v>
       </c>
-      <c r="H779" s="2">
+      <c r="H779" s="6">
         <v>58875</v>
       </c>
       <c r="I779" t="s">
@@ -30990,7 +31003,7 @@
       <c r="G780" s="1">
         <v>42318</v>
       </c>
-      <c r="H780" s="2">
+      <c r="H780" s="6">
         <v>64204</v>
       </c>
       <c r="I780" t="s">
@@ -31025,7 +31038,7 @@
       <c r="G781" s="1">
         <v>40307</v>
       </c>
-      <c r="H781" s="2">
+      <c r="H781" s="6">
         <v>67743</v>
       </c>
       <c r="I781" t="s">
@@ -31060,7 +31073,7 @@
       <c r="G782" s="1">
         <v>35641</v>
       </c>
-      <c r="H782" s="2">
+      <c r="H782" s="6">
         <v>71677</v>
       </c>
       <c r="I782" t="s">
@@ -31095,7 +31108,7 @@
       <c r="G783" s="1">
         <v>36793</v>
       </c>
-      <c r="H783" s="2">
+      <c r="H783" s="6">
         <v>40063</v>
       </c>
       <c r="I783" t="s">
@@ -31130,7 +31143,7 @@
       <c r="G784" s="1">
         <v>38107</v>
       </c>
-      <c r="H784" s="2">
+      <c r="H784" s="6">
         <v>40124</v>
       </c>
       <c r="I784" t="s">
@@ -31165,7 +31178,7 @@
       <c r="G785" s="1">
         <v>43157</v>
       </c>
-      <c r="H785" s="2">
+      <c r="H785" s="6">
         <v>103183</v>
       </c>
       <c r="I785" t="s">
@@ -31200,7 +31213,7 @@
       <c r="G786" s="1">
         <v>35961</v>
       </c>
-      <c r="H786" s="2">
+      <c r="H786" s="6">
         <v>95239</v>
       </c>
       <c r="I786" t="s">
@@ -31235,7 +31248,7 @@
       <c r="G787" s="1">
         <v>43778</v>
       </c>
-      <c r="H787" s="2">
+      <c r="H787" s="6">
         <v>75012</v>
       </c>
       <c r="I787" t="s">
@@ -31270,7 +31283,7 @@
       <c r="G788" s="1">
         <v>41819</v>
       </c>
-      <c r="H788" s="2">
+      <c r="H788" s="6">
         <v>96366</v>
       </c>
       <c r="I788" t="s">
@@ -31305,7 +31318,7 @@
       <c r="G789" s="1">
         <v>41849</v>
       </c>
-      <c r="H789" s="2">
+      <c r="H789" s="6">
         <v>40897</v>
       </c>
       <c r="I789" t="s">
@@ -31340,7 +31353,7 @@
       <c r="G790" s="1">
         <v>42605</v>
       </c>
-      <c r="H790" s="2">
+      <c r="H790" s="6">
         <v>124928</v>
       </c>
       <c r="I790" t="s">
@@ -31375,7 +31388,7 @@
       <c r="G791" s="1">
         <v>41439</v>
       </c>
-      <c r="H791" s="2">
+      <c r="H791" s="6">
         <v>108221</v>
       </c>
       <c r="I791" t="s">
@@ -31410,7 +31423,7 @@
       <c r="G792" s="1">
         <v>39133</v>
       </c>
-      <c r="H792" s="2">
+      <c r="H792" s="6">
         <v>75579</v>
       </c>
       <c r="I792" t="s">
@@ -31445,7 +31458,7 @@
       <c r="G793" s="1">
         <v>42365</v>
       </c>
-      <c r="H793" s="2">
+      <c r="H793" s="6">
         <v>129903</v>
       </c>
       <c r="I793" t="s">
@@ -31480,7 +31493,7 @@
       <c r="G794" s="1">
         <v>44303</v>
       </c>
-      <c r="H794" s="2">
+      <c r="H794" s="6">
         <v>186870</v>
       </c>
       <c r="I794" t="s">
@@ -31515,7 +31528,7 @@
       <c r="G795" s="1">
         <v>40291</v>
       </c>
-      <c r="H795" s="2">
+      <c r="H795" s="6">
         <v>57531</v>
       </c>
       <c r="I795" t="s">
@@ -31550,7 +31563,7 @@
       <c r="G796" s="1">
         <v>40657</v>
       </c>
-      <c r="H796" s="2">
+      <c r="H796" s="6">
         <v>55894</v>
       </c>
       <c r="I796" t="s">
@@ -31585,7 +31598,7 @@
       <c r="G797" s="1">
         <v>41026</v>
       </c>
-      <c r="H797" s="2">
+      <c r="H797" s="6">
         <v>72903</v>
       </c>
       <c r="I797" t="s">
@@ -31620,7 +31633,7 @@
       <c r="G798" s="1">
         <v>42317</v>
       </c>
-      <c r="H798" s="2">
+      <c r="H798" s="6">
         <v>45369</v>
       </c>
       <c r="I798" t="s">
@@ -31655,7 +31668,7 @@
       <c r="G799" s="1">
         <v>40344</v>
       </c>
-      <c r="H799" s="2">
+      <c r="H799" s="6">
         <v>106578</v>
       </c>
       <c r="I799" t="s">
@@ -31690,7 +31703,7 @@
       <c r="G800" s="1">
         <v>36416</v>
       </c>
-      <c r="H800" s="2">
+      <c r="H800" s="6">
         <v>92994</v>
       </c>
       <c r="I800" t="s">
@@ -31725,7 +31738,7 @@
       <c r="G801" s="1">
         <v>35502</v>
       </c>
-      <c r="H801" s="2">
+      <c r="H801" s="6">
         <v>83685</v>
       </c>
       <c r="I801" t="s">
@@ -31760,7 +31773,7 @@
       <c r="G802" s="1">
         <v>40435</v>
       </c>
-      <c r="H802" s="2">
+      <c r="H802" s="6">
         <v>99335</v>
       </c>
       <c r="I802" t="s">
@@ -31795,7 +31808,7 @@
       <c r="G803" s="1">
         <v>41382</v>
       </c>
-      <c r="H803" s="2">
+      <c r="H803" s="6">
         <v>131179</v>
       </c>
       <c r="I803" t="s">
@@ -31830,7 +31843,7 @@
       <c r="G804" s="1">
         <v>42493</v>
       </c>
-      <c r="H804" s="2">
+      <c r="H804" s="6">
         <v>73899</v>
       </c>
       <c r="I804" t="s">
@@ -31865,7 +31878,7 @@
       <c r="G805" s="1">
         <v>41362</v>
       </c>
-      <c r="H805" s="2">
+      <c r="H805" s="6">
         <v>252325</v>
       </c>
       <c r="I805" t="s">
@@ -31900,7 +31913,7 @@
       <c r="G806" s="1">
         <v>42068</v>
       </c>
-      <c r="H806" s="2">
+      <c r="H806" s="6">
         <v>52697</v>
       </c>
       <c r="I806" t="s">
@@ -31935,7 +31948,7 @@
       <c r="G807" s="1">
         <v>44099</v>
       </c>
-      <c r="H807" s="2">
+      <c r="H807" s="6">
         <v>123588</v>
       </c>
       <c r="I807" t="s">
@@ -31970,7 +31983,7 @@
       <c r="G808" s="1">
         <v>44556</v>
       </c>
-      <c r="H808" s="2">
+      <c r="H808" s="6">
         <v>243568</v>
       </c>
       <c r="I808" t="s">
@@ -32005,7 +32018,7 @@
       <c r="G809" s="1">
         <v>37092</v>
       </c>
-      <c r="H809" s="2">
+      <c r="H809" s="6">
         <v>199176</v>
       </c>
       <c r="I809" t="s">
@@ -32040,7 +32053,7 @@
       <c r="G810" s="1">
         <v>35238</v>
       </c>
-      <c r="H810" s="2">
+      <c r="H810" s="6">
         <v>82806</v>
       </c>
       <c r="I810" t="s">
@@ -32075,7 +32088,7 @@
       <c r="G811" s="1">
         <v>35601</v>
       </c>
-      <c r="H811" s="2">
+      <c r="H811" s="6">
         <v>164399</v>
       </c>
       <c r="I811" t="s">
@@ -32110,7 +32123,7 @@
       <c r="G812" s="1">
         <v>42839</v>
       </c>
-      <c r="H812" s="2">
+      <c r="H812" s="6">
         <v>154956</v>
       </c>
       <c r="I812" t="s">
@@ -32145,7 +32158,7 @@
       <c r="G813" s="1">
         <v>42764</v>
       </c>
-      <c r="H813" s="2">
+      <c r="H813" s="6">
         <v>143970</v>
       </c>
       <c r="I813" t="s">
@@ -32180,7 +32193,7 @@
       <c r="G814" s="1">
         <v>44099</v>
       </c>
-      <c r="H814" s="2">
+      <c r="H814" s="6">
         <v>163143</v>
       </c>
       <c r="I814" t="s">
@@ -32215,7 +32228,7 @@
       <c r="G815" s="1">
         <v>44036</v>
       </c>
-      <c r="H815" s="2">
+      <c r="H815" s="6">
         <v>89390</v>
       </c>
       <c r="I815" t="s">
@@ -32250,7 +32263,7 @@
       <c r="G816" s="1">
         <v>43013</v>
       </c>
-      <c r="H816" s="2">
+      <c r="H816" s="6">
         <v>67468</v>
       </c>
       <c r="I816" t="s">
@@ -32285,7 +32298,7 @@
       <c r="G817" s="1">
         <v>42441</v>
       </c>
-      <c r="H817" s="2">
+      <c r="H817" s="6">
         <v>100810</v>
       </c>
       <c r="I817" t="s">
@@ -32320,7 +32333,7 @@
       <c r="G818" s="1">
         <v>43542</v>
       </c>
-      <c r="H818" s="2">
+      <c r="H818" s="6">
         <v>74779</v>
       </c>
       <c r="I818" t="s">
@@ -32355,7 +32368,7 @@
       <c r="G819" s="1">
         <v>43048</v>
       </c>
-      <c r="H819" s="2">
+      <c r="H819" s="6">
         <v>63985</v>
       </c>
       <c r="I819" t="s">
@@ -32390,7 +32403,7 @@
       <c r="G820" s="1">
         <v>38176</v>
       </c>
-      <c r="H820" s="2">
+      <c r="H820" s="6">
         <v>77903</v>
       </c>
       <c r="I820" t="s">
@@ -32425,7 +32438,7 @@
       <c r="G821" s="1">
         <v>42898</v>
       </c>
-      <c r="H821" s="2">
+      <c r="H821" s="6">
         <v>164396</v>
       </c>
       <c r="I821" t="s">
@@ -32460,7 +32473,7 @@
       <c r="G822" s="1">
         <v>44375</v>
       </c>
-      <c r="H822" s="2">
+      <c r="H822" s="6">
         <v>71234</v>
       </c>
       <c r="I822" t="s">
@@ -32495,7 +32508,7 @@
       <c r="G823" s="1">
         <v>38096</v>
       </c>
-      <c r="H823" s="2">
+      <c r="H823" s="6">
         <v>122487</v>
       </c>
       <c r="I823" t="s">
@@ -32530,7 +32543,7 @@
       <c r="G824" s="1">
         <v>42738</v>
       </c>
-      <c r="H824" s="2">
+      <c r="H824" s="6">
         <v>101870</v>
       </c>
       <c r="I824" t="s">
@@ -32565,7 +32578,7 @@
       <c r="G825" s="1">
         <v>44009</v>
       </c>
-      <c r="H825" s="2">
+      <c r="H825" s="6">
         <v>40316</v>
       </c>
       <c r="I825" t="s">
@@ -32600,7 +32613,7 @@
       <c r="G826" s="1">
         <v>38391</v>
       </c>
-      <c r="H826" s="2">
+      <c r="H826" s="6">
         <v>115145</v>
       </c>
       <c r="I826" t="s">
@@ -32635,7 +32648,7 @@
       <c r="G827" s="1">
         <v>39885</v>
       </c>
-      <c r="H827" s="2">
+      <c r="H827" s="6">
         <v>62335</v>
       </c>
       <c r="I827" t="s">
@@ -32670,7 +32683,7 @@
       <c r="G828" s="1">
         <v>38847</v>
       </c>
-      <c r="H828" s="2">
+      <c r="H828" s="6">
         <v>41561</v>
       </c>
       <c r="I828" t="s">
@@ -32705,7 +32718,7 @@
       <c r="G829" s="1">
         <v>40657</v>
       </c>
-      <c r="H829" s="2">
+      <c r="H829" s="6">
         <v>131183</v>
       </c>
       <c r="I829" t="s">
@@ -32740,7 +32753,7 @@
       <c r="G830" s="1">
         <v>37445</v>
       </c>
-      <c r="H830" s="2">
+      <c r="H830" s="6">
         <v>92655</v>
       </c>
       <c r="I830" t="s">
@@ -32775,7 +32788,7 @@
       <c r="G831" s="1">
         <v>35157</v>
       </c>
-      <c r="H831" s="2">
+      <c r="H831" s="6">
         <v>157057</v>
       </c>
       <c r="I831" t="s">
@@ -32810,7 +32823,7 @@
       <c r="G832" s="1">
         <v>38392</v>
       </c>
-      <c r="H832" s="2">
+      <c r="H832" s="6">
         <v>64462</v>
       </c>
       <c r="I832" t="s">
@@ -32845,7 +32858,7 @@
       <c r="G833" s="1">
         <v>38632</v>
       </c>
-      <c r="H833" s="2">
+      <c r="H833" s="6">
         <v>79352</v>
       </c>
       <c r="I833" t="s">
@@ -32880,7 +32893,7 @@
       <c r="G834" s="1">
         <v>36977</v>
       </c>
-      <c r="H834" s="2">
+      <c r="H834" s="6">
         <v>157812</v>
       </c>
       <c r="I834" t="s">
@@ -32915,7 +32928,7 @@
       <c r="G835" s="1">
         <v>43354</v>
       </c>
-      <c r="H835" s="2">
+      <c r="H835" s="6">
         <v>80745</v>
       </c>
       <c r="I835" t="s">
@@ -32950,7 +32963,7 @@
       <c r="G836" s="1">
         <v>35113</v>
       </c>
-      <c r="H836" s="2">
+      <c r="H836" s="6">
         <v>75354</v>
       </c>
       <c r="I836" t="s">
@@ -32985,7 +32998,7 @@
       <c r="G837" s="1">
         <v>43363</v>
       </c>
-      <c r="H837" s="2">
+      <c r="H837" s="6">
         <v>78938</v>
       </c>
       <c r="I837" t="s">
@@ -33020,7 +33033,7 @@
       <c r="G838" s="1">
         <v>39701</v>
       </c>
-      <c r="H838" s="2">
+      <c r="H838" s="6">
         <v>96313</v>
       </c>
       <c r="I838" t="s">
@@ -33055,7 +33068,7 @@
       <c r="G839" s="1">
         <v>40511</v>
       </c>
-      <c r="H839" s="2">
+      <c r="H839" s="6">
         <v>153767</v>
       </c>
       <c r="I839" t="s">
@@ -33090,7 +33103,7 @@
       <c r="G840" s="1">
         <v>42266</v>
       </c>
-      <c r="H840" s="2">
+      <c r="H840" s="6">
         <v>103423</v>
       </c>
       <c r="I840" t="s">
@@ -33125,7 +33138,7 @@
       <c r="G841" s="1">
         <v>44370</v>
       </c>
-      <c r="H841" s="2">
+      <c r="H841" s="6">
         <v>86464</v>
       </c>
       <c r="I841" t="s">
@@ -33160,7 +33173,7 @@
       <c r="G842" s="1">
         <v>43114</v>
       </c>
-      <c r="H842" s="2">
+      <c r="H842" s="6">
         <v>80516</v>
       </c>
       <c r="I842" t="s">
@@ -33195,7 +33208,7 @@
       <c r="G843" s="1">
         <v>41507</v>
       </c>
-      <c r="H843" s="2">
+      <c r="H843" s="6">
         <v>105390</v>
       </c>
       <c r="I843" t="s">
@@ -33230,7 +33243,7 @@
       <c r="G844" s="1">
         <v>44445</v>
       </c>
-      <c r="H844" s="2">
+      <c r="H844" s="6">
         <v>83418</v>
       </c>
       <c r="I844" t="s">
@@ -33265,7 +33278,7 @@
       <c r="G845" s="1">
         <v>43042</v>
       </c>
-      <c r="H845" s="2">
+      <c r="H845" s="6">
         <v>66660</v>
       </c>
       <c r="I845" t="s">
@@ -33300,7 +33313,7 @@
       <c r="G846" s="1">
         <v>42165</v>
       </c>
-      <c r="H846" s="2">
+      <c r="H846" s="6">
         <v>101985</v>
       </c>
       <c r="I846" t="s">
@@ -33335,7 +33348,7 @@
       <c r="G847" s="1">
         <v>43439</v>
       </c>
-      <c r="H847" s="2">
+      <c r="H847" s="6">
         <v>199504</v>
       </c>
       <c r="I847" t="s">
@@ -33370,7 +33383,7 @@
       <c r="G848" s="1">
         <v>38995</v>
       </c>
-      <c r="H848" s="2">
+      <c r="H848" s="6">
         <v>147966</v>
       </c>
       <c r="I848" t="s">
@@ -33405,7 +33418,7 @@
       <c r="G849" s="1">
         <v>41810</v>
       </c>
-      <c r="H849" s="2">
+      <c r="H849" s="6">
         <v>41728</v>
       </c>
       <c r="I849" t="s">
@@ -33440,7 +33453,7 @@
       <c r="G850" s="1">
         <v>40591</v>
       </c>
-      <c r="H850" s="2">
+      <c r="H850" s="6">
         <v>94422</v>
       </c>
       <c r="I850" t="s">
@@ -33475,7 +33488,7 @@
       <c r="G851" s="1">
         <v>42184</v>
       </c>
-      <c r="H851" s="2">
+      <c r="H851" s="6">
         <v>191026</v>
       </c>
       <c r="I851" t="s">
@@ -33510,7 +33523,7 @@
       <c r="G852" s="1">
         <v>40511</v>
       </c>
-      <c r="H852" s="2">
+      <c r="H852" s="6">
         <v>186725</v>
       </c>
       <c r="I852" t="s">
@@ -33545,7 +33558,7 @@
       <c r="G853" s="1">
         <v>40045</v>
       </c>
-      <c r="H853" s="2">
+      <c r="H853" s="6">
         <v>52800</v>
       </c>
       <c r="I853" t="s">
@@ -33580,7 +33593,7 @@
       <c r="G854" s="1">
         <v>40517</v>
       </c>
-      <c r="H854" s="2">
+      <c r="H854" s="6">
         <v>113982</v>
       </c>
       <c r="I854" t="s">
@@ -33615,7 +33628,7 @@
       <c r="G855" s="1">
         <v>44271</v>
       </c>
-      <c r="H855" s="2">
+      <c r="H855" s="6">
         <v>56239</v>
       </c>
       <c r="I855" t="s">
@@ -33650,7 +33663,7 @@
       <c r="G856" s="1">
         <v>44257</v>
       </c>
-      <c r="H856" s="2">
+      <c r="H856" s="6">
         <v>44732</v>
       </c>
       <c r="I856" t="s">
@@ -33685,7 +33698,7 @@
       <c r="G857" s="1">
         <v>41816</v>
       </c>
-      <c r="H857" s="2">
+      <c r="H857" s="6">
         <v>153961</v>
       </c>
       <c r="I857" t="s">
@@ -33720,7 +33733,7 @@
       <c r="G858" s="1">
         <v>39069</v>
       </c>
-      <c r="H858" s="2">
+      <c r="H858" s="6">
         <v>68337</v>
       </c>
       <c r="I858" t="s">
@@ -33755,7 +33768,7 @@
       <c r="G859" s="1">
         <v>40305</v>
       </c>
-      <c r="H859" s="2">
+      <c r="H859" s="6">
         <v>145093</v>
       </c>
       <c r="I859" t="s">
@@ -33790,7 +33803,7 @@
       <c r="G860" s="1">
         <v>44266</v>
       </c>
-      <c r="H860" s="2">
+      <c r="H860" s="6">
         <v>74170</v>
       </c>
       <c r="I860" t="s">
@@ -33825,7 +33838,7 @@
       <c r="G861" s="1">
         <v>35153</v>
       </c>
-      <c r="H861" s="2">
+      <c r="H861" s="6">
         <v>62605</v>
       </c>
       <c r="I861" t="s">
@@ -33860,7 +33873,7 @@
       <c r="G862" s="1">
         <v>43903</v>
       </c>
-      <c r="H862" s="2">
+      <c r="H862" s="6">
         <v>107195</v>
       </c>
       <c r="I862" t="s">
@@ -33895,7 +33908,7 @@
       <c r="G863" s="1">
         <v>43111</v>
       </c>
-      <c r="H863" s="2">
+      <c r="H863" s="6">
         <v>127422</v>
       </c>
       <c r="I863" t="s">
@@ -33930,7 +33943,7 @@
       <c r="G864" s="1">
         <v>42912</v>
       </c>
-      <c r="H864" s="2">
+      <c r="H864" s="6">
         <v>161269</v>
       </c>
       <c r="I864" t="s">
@@ -33965,7 +33978,7 @@
       <c r="G865" s="1">
         <v>41675</v>
       </c>
-      <c r="H865" s="2">
+      <c r="H865" s="6">
         <v>203445</v>
       </c>
       <c r="I865" t="s">
@@ -34000,7 +34013,7 @@
       <c r="G866" s="1">
         <v>40560</v>
       </c>
-      <c r="H866" s="2">
+      <c r="H866" s="6">
         <v>131353</v>
       </c>
       <c r="I866" t="s">
@@ -34035,7 +34048,7 @@
       <c r="G867" s="1">
         <v>40253</v>
       </c>
-      <c r="H867" s="2">
+      <c r="H867" s="6">
         <v>88182</v>
       </c>
       <c r="I867" t="s">
@@ -34070,7 +34083,7 @@
       <c r="G868" s="1">
         <v>43703</v>
       </c>
-      <c r="H868" s="2">
+      <c r="H868" s="6">
         <v>75780</v>
       </c>
       <c r="I868" t="s">
@@ -34105,7 +34118,7 @@
       <c r="G869" s="1">
         <v>43557</v>
       </c>
-      <c r="H869" s="2">
+      <c r="H869" s="6">
         <v>52621</v>
       </c>
       <c r="I869" t="s">
@@ -34140,7 +34153,7 @@
       <c r="G870" s="1">
         <v>43146</v>
       </c>
-      <c r="H870" s="2">
+      <c r="H870" s="6">
         <v>106079</v>
       </c>
       <c r="I870" t="s">
@@ -34175,7 +34188,7 @@
       <c r="G871" s="1">
         <v>42777</v>
       </c>
-      <c r="H871" s="2">
+      <c r="H871" s="6">
         <v>92058</v>
       </c>
       <c r="I871" t="s">
@@ -34210,7 +34223,7 @@
       <c r="G872" s="1">
         <v>43527</v>
       </c>
-      <c r="H872" s="2">
+      <c r="H872" s="6">
         <v>67114</v>
       </c>
       <c r="I872" t="s">
@@ -34245,7 +34258,7 @@
       <c r="G873" s="1">
         <v>44024</v>
       </c>
-      <c r="H873" s="2">
+      <c r="H873" s="6">
         <v>56565</v>
       </c>
       <c r="I873" t="s">
@@ -34280,7 +34293,7 @@
       <c r="G874" s="1">
         <v>40683</v>
       </c>
-      <c r="H874" s="2">
+      <c r="H874" s="6">
         <v>64937</v>
       </c>
       <c r="I874" t="s">
@@ -34315,7 +34328,7 @@
       <c r="G875" s="1">
         <v>38967</v>
       </c>
-      <c r="H875" s="2">
+      <c r="H875" s="6">
         <v>127626</v>
       </c>
       <c r="I875" t="s">
@@ -34350,7 +34363,7 @@
       <c r="G876" s="1">
         <v>38013</v>
       </c>
-      <c r="H876" s="2">
+      <c r="H876" s="6">
         <v>88478</v>
       </c>
       <c r="I876" t="s">
@@ -34385,7 +34398,7 @@
       <c r="G877" s="1">
         <v>41749</v>
       </c>
-      <c r="H877" s="2">
+      <c r="H877" s="6">
         <v>91679</v>
       </c>
       <c r="I877" t="s">
@@ -34420,7 +34433,7 @@
       <c r="G878" s="1">
         <v>33682</v>
       </c>
-      <c r="H878" s="2">
+      <c r="H878" s="6">
         <v>199848</v>
       </c>
       <c r="I878" t="s">
@@ -34455,7 +34468,7 @@
       <c r="G879" s="1">
         <v>43414</v>
       </c>
-      <c r="H879" s="2">
+      <c r="H879" s="6">
         <v>61944</v>
       </c>
       <c r="I879" t="s">
@@ -34490,7 +34503,7 @@
       <c r="G880" s="1">
         <v>42960</v>
       </c>
-      <c r="H880" s="2">
+      <c r="H880" s="6">
         <v>154624</v>
       </c>
       <c r="I880" t="s">
@@ -34525,7 +34538,7 @@
       <c r="G881" s="1">
         <v>40109</v>
       </c>
-      <c r="H881" s="2">
+      <c r="H881" s="6">
         <v>79447</v>
       </c>
       <c r="I881" t="s">
@@ -34560,7 +34573,7 @@
       <c r="G882" s="1">
         <v>35852</v>
       </c>
-      <c r="H882" s="2">
+      <c r="H882" s="6">
         <v>71111</v>
       </c>
       <c r="I882" t="s">
@@ -34595,7 +34608,7 @@
       <c r="G883" s="1">
         <v>41931</v>
       </c>
-      <c r="H883" s="2">
+      <c r="H883" s="6">
         <v>159538</v>
       </c>
       <c r="I883" t="s">
@@ -34630,7 +34643,7 @@
       <c r="G884" s="1">
         <v>43375</v>
       </c>
-      <c r="H884" s="2">
+      <c r="H884" s="6">
         <v>111404</v>
       </c>
       <c r="I884" t="s">
@@ -34665,7 +34678,7 @@
       <c r="G885" s="1">
         <v>44058</v>
       </c>
-      <c r="H885" s="2">
+      <c r="H885" s="6">
         <v>172007</v>
       </c>
       <c r="I885" t="s">
@@ -34700,7 +34713,7 @@
       <c r="G886" s="1">
         <v>40745</v>
       </c>
-      <c r="H886" s="2">
+      <c r="H886" s="6">
         <v>219474</v>
       </c>
       <c r="I886" t="s">
@@ -34735,7 +34748,7 @@
       <c r="G887" s="1">
         <v>43600</v>
       </c>
-      <c r="H887" s="2">
+      <c r="H887" s="6">
         <v>174415</v>
       </c>
       <c r="I887" t="s">
@@ -34770,7 +34783,7 @@
       <c r="G888" s="1">
         <v>44217</v>
       </c>
-      <c r="H888" s="2">
+      <c r="H888" s="6">
         <v>90333</v>
       </c>
       <c r="I888" t="s">
@@ -34805,7 +34818,7 @@
       <c r="G889" s="1">
         <v>44217</v>
       </c>
-      <c r="H889" s="2">
+      <c r="H889" s="6">
         <v>67299</v>
       </c>
       <c r="I889" t="s">
@@ -34840,7 +34853,7 @@
       <c r="G890" s="1">
         <v>38406</v>
       </c>
-      <c r="H890" s="2">
+      <c r="H890" s="6">
         <v>45286</v>
       </c>
       <c r="I890" t="s">
@@ -34875,7 +34888,7 @@
       <c r="G891" s="1">
         <v>39302</v>
       </c>
-      <c r="H891" s="2">
+      <c r="H891" s="6">
         <v>194723</v>
       </c>
       <c r="I891" t="s">
@@ -34910,7 +34923,7 @@
       <c r="G892" s="1">
         <v>41131</v>
       </c>
-      <c r="H892" s="2">
+      <c r="H892" s="6">
         <v>109850</v>
       </c>
       <c r="I892" t="s">
@@ -34945,7 +34958,7 @@
       <c r="G893" s="1">
         <v>41748</v>
       </c>
-      <c r="H893" s="2">
+      <c r="H893" s="6">
         <v>45295</v>
       </c>
       <c r="I893" t="s">
@@ -34980,7 +34993,7 @@
       <c r="G894" s="1">
         <v>40413</v>
       </c>
-      <c r="H894" s="2">
+      <c r="H894" s="6">
         <v>61310</v>
       </c>
       <c r="I894" t="s">
@@ -35015,7 +35028,7 @@
       <c r="G895" s="1">
         <v>42683</v>
       </c>
-      <c r="H895" s="2">
+      <c r="H895" s="6">
         <v>87851</v>
       </c>
       <c r="I895" t="s">
@@ -35050,7 +35063,7 @@
       <c r="G896" s="1">
         <v>43171</v>
       </c>
-      <c r="H896" s="2">
+      <c r="H896" s="6">
         <v>47913</v>
       </c>
       <c r="I896" t="s">
@@ -35085,7 +35098,7 @@
       <c r="G897" s="1">
         <v>42985</v>
       </c>
-      <c r="H897" s="2">
+      <c r="H897" s="6">
         <v>46727</v>
       </c>
       <c r="I897" t="s">
@@ -35120,7 +35133,7 @@
       <c r="G898" s="1">
         <v>44302</v>
       </c>
-      <c r="H898" s="2">
+      <c r="H898" s="6">
         <v>133400</v>
       </c>
       <c r="I898" t="s">
@@ -35155,7 +35168,7 @@
       <c r="G899" s="1">
         <v>43943</v>
       </c>
-      <c r="H899" s="2">
+      <c r="H899" s="6">
         <v>90535</v>
       </c>
       <c r="I899" t="s">
@@ -35190,7 +35203,7 @@
       <c r="G900" s="1">
         <v>38909</v>
       </c>
-      <c r="H900" s="2">
+      <c r="H900" s="6">
         <v>93343</v>
       </c>
       <c r="I900" t="s">
@@ -35225,7 +35238,7 @@
       <c r="G901" s="1">
         <v>38771</v>
       </c>
-      <c r="H901" s="2">
+      <c r="H901" s="6">
         <v>63705</v>
       </c>
       <c r="I901" t="s">
@@ -35260,7 +35273,7 @@
       <c r="G902" s="1">
         <v>36584</v>
       </c>
-      <c r="H902" s="2">
+      <c r="H902" s="6">
         <v>258081</v>
       </c>
       <c r="I902" t="s">
@@ -35295,7 +35308,7 @@
       <c r="G903" s="1">
         <v>44095</v>
       </c>
-      <c r="H903" s="2">
+      <c r="H903" s="6">
         <v>54654</v>
       </c>
       <c r="I903" t="s">
@@ -35330,7 +35343,7 @@
       <c r="G904" s="1">
         <v>36062</v>
       </c>
-      <c r="H904" s="2">
+      <c r="H904" s="6">
         <v>58006</v>
       </c>
       <c r="I904" t="s">
@@ -35365,7 +35378,7 @@
       <c r="G905" s="1">
         <v>40620</v>
       </c>
-      <c r="H905" s="2">
+      <c r="H905" s="6">
         <v>150034</v>
       </c>
       <c r="I905" t="s">
@@ -35400,7 +35413,7 @@
       <c r="G906" s="1">
         <v>39232</v>
       </c>
-      <c r="H906" s="2">
+      <c r="H906" s="6">
         <v>198562</v>
       </c>
       <c r="I906" t="s">
@@ -35435,7 +35448,7 @@
       <c r="G907" s="1">
         <v>39960</v>
       </c>
-      <c r="H907" s="2">
+      <c r="H907" s="6">
         <v>62411</v>
       </c>
       <c r="I907" t="s">
@@ -35470,7 +35483,7 @@
       <c r="G908" s="1">
         <v>33612</v>
       </c>
-      <c r="H908" s="2">
+      <c r="H908" s="6">
         <v>111299</v>
       </c>
       <c r="I908" t="s">
@@ -35505,7 +35518,7 @@
       <c r="G909" s="1">
         <v>43659</v>
       </c>
-      <c r="H909" s="2">
+      <c r="H909" s="6">
         <v>41545</v>
       </c>
       <c r="I909" t="s">
@@ -35540,7 +35553,7 @@
       <c r="G910" s="1">
         <v>43569</v>
       </c>
-      <c r="H910" s="2">
+      <c r="H910" s="6">
         <v>74467</v>
       </c>
       <c r="I910" t="s">
@@ -35575,7 +35588,7 @@
       <c r="G911" s="1">
         <v>37296</v>
       </c>
-      <c r="H911" s="2">
+      <c r="H911" s="6">
         <v>117545</v>
       </c>
       <c r="I911" t="s">
@@ -35610,7 +35623,7 @@
       <c r="G912" s="1">
         <v>40983</v>
       </c>
-      <c r="H912" s="2">
+      <c r="H912" s="6">
         <v>117226</v>
       </c>
       <c r="I912" t="s">
@@ -35645,7 +35658,7 @@
       <c r="G913" s="1">
         <v>43489</v>
       </c>
-      <c r="H913" s="2">
+      <c r="H913" s="6">
         <v>55767</v>
       </c>
       <c r="I913" t="s">
@@ -35680,7 +35693,7 @@
       <c r="G914" s="1">
         <v>42691</v>
       </c>
-      <c r="H914" s="2">
+      <c r="H914" s="6">
         <v>60930</v>
       </c>
       <c r="I914" t="s">
@@ -35715,7 +35728,7 @@
       <c r="G915" s="1">
         <v>43397</v>
       </c>
-      <c r="H915" s="2">
+      <c r="H915" s="6">
         <v>154973</v>
       </c>
       <c r="I915" t="s">
@@ -35750,7 +35763,7 @@
       <c r="G916" s="1">
         <v>43029</v>
       </c>
-      <c r="H916" s="2">
+      <c r="H916" s="6">
         <v>69332</v>
       </c>
       <c r="I916" t="s">
@@ -35785,7 +35798,7 @@
       <c r="G917" s="1">
         <v>36990</v>
       </c>
-      <c r="H917" s="2">
+      <c r="H917" s="6">
         <v>119699</v>
       </c>
       <c r="I917" t="s">
@@ -35820,7 +35833,7 @@
       <c r="G918" s="1">
         <v>44094</v>
       </c>
-      <c r="H918" s="2">
+      <c r="H918" s="6">
         <v>198176</v>
       </c>
       <c r="I918" t="s">
@@ -35855,7 +35868,7 @@
       <c r="G919" s="1">
         <v>41127</v>
       </c>
-      <c r="H919" s="2">
+      <c r="H919" s="6">
         <v>58586</v>
       </c>
       <c r="I919" t="s">
@@ -35890,7 +35903,7 @@
       <c r="G920" s="1">
         <v>40875</v>
       </c>
-      <c r="H920" s="2">
+      <c r="H920" s="6">
         <v>74010</v>
       </c>
       <c r="I920" t="s">
@@ -35925,7 +35938,7 @@
       <c r="G921" s="1">
         <v>43864</v>
       </c>
-      <c r="H921" s="2">
+      <c r="H921" s="6">
         <v>96598</v>
       </c>
       <c r="I921" t="s">
@@ -35960,7 +35973,7 @@
       <c r="G922" s="1">
         <v>37762</v>
       </c>
-      <c r="H922" s="2">
+      <c r="H922" s="6">
         <v>106444</v>
       </c>
       <c r="I922" t="s">
@@ -35995,7 +36008,7 @@
       <c r="G923" s="1">
         <v>42957</v>
       </c>
-      <c r="H923" s="2">
+      <c r="H923" s="6">
         <v>156931</v>
       </c>
       <c r="I923" t="s">
@@ -36030,7 +36043,7 @@
       <c r="G924" s="1">
         <v>41928</v>
       </c>
-      <c r="H924" s="2">
+      <c r="H924" s="6">
         <v>171360</v>
       </c>
       <c r="I924" t="s">
@@ -36065,7 +36078,7 @@
       <c r="G925" s="1">
         <v>39908</v>
       </c>
-      <c r="H925" s="2">
+      <c r="H925" s="6">
         <v>64505</v>
       </c>
       <c r="I925" t="s">
@@ -36100,7 +36113,7 @@
       <c r="G926" s="1">
         <v>44478</v>
       </c>
-      <c r="H926" s="2">
+      <c r="H926" s="6">
         <v>102298</v>
       </c>
       <c r="I926" t="s">
@@ -36135,7 +36148,7 @@
       <c r="G927" s="1">
         <v>43721</v>
       </c>
-      <c r="H927" s="2">
+      <c r="H927" s="6">
         <v>133297</v>
       </c>
       <c r="I927" t="s">
@@ -36170,7 +36183,7 @@
       <c r="G928" s="1">
         <v>44272</v>
       </c>
-      <c r="H928" s="2">
+      <c r="H928" s="6">
         <v>155080</v>
       </c>
       <c r="I928" t="s">
@@ -36205,7 +36218,7 @@
       <c r="G929" s="1">
         <v>43325</v>
       </c>
-      <c r="H929" s="2">
+      <c r="H929" s="6">
         <v>81828</v>
       </c>
       <c r="I929" t="s">
@@ -36240,7 +36253,7 @@
       <c r="G930" s="1">
         <v>36823</v>
       </c>
-      <c r="H930" s="2">
+      <c r="H930" s="6">
         <v>149417</v>
       </c>
       <c r="I930" t="s">
@@ -36275,7 +36288,7 @@
       <c r="G931" s="1">
         <v>41024</v>
       </c>
-      <c r="H931" s="2">
+      <c r="H931" s="6">
         <v>113269</v>
       </c>
       <c r="I931" t="s">
@@ -36310,7 +36323,7 @@
       <c r="G932" s="1">
         <v>43085</v>
       </c>
-      <c r="H932" s="2">
+      <c r="H932" s="6">
         <v>136716</v>
       </c>
       <c r="I932" t="s">
@@ -36345,7 +36358,7 @@
       <c r="G933" s="1">
         <v>40836</v>
       </c>
-      <c r="H933" s="2">
+      <c r="H933" s="6">
         <v>122644</v>
       </c>
       <c r="I933" t="s">
@@ -36380,7 +36393,7 @@
       <c r="G934" s="1">
         <v>36653</v>
       </c>
-      <c r="H934" s="2">
+      <c r="H934" s="6">
         <v>106428</v>
       </c>
       <c r="I934" t="s">
@@ -36415,7 +36428,7 @@
       <c r="G935" s="1">
         <v>39830</v>
       </c>
-      <c r="H935" s="2">
+      <c r="H935" s="6">
         <v>238236</v>
       </c>
       <c r="I935" t="s">
@@ -36450,7 +36463,7 @@
       <c r="G936" s="1">
         <v>41264</v>
       </c>
-      <c r="H936" s="2">
+      <c r="H936" s="6">
         <v>153253</v>
       </c>
       <c r="I936" t="s">
@@ -36485,7 +36498,7 @@
       <c r="G937" s="1">
         <v>41915</v>
       </c>
-      <c r="H937" s="2">
+      <c r="H937" s="6">
         <v>103707</v>
       </c>
       <c r="I937" t="s">
@@ -36520,7 +36533,7 @@
       <c r="G938" s="1">
         <v>41130</v>
       </c>
-      <c r="H938" s="2">
+      <c r="H938" s="6">
         <v>245360</v>
       </c>
       <c r="I938" t="s">
@@ -36555,7 +36568,7 @@
       <c r="G939" s="1">
         <v>44385</v>
       </c>
-      <c r="H939" s="2">
+      <c r="H939" s="6">
         <v>67275</v>
       </c>
       <c r="I939" t="s">
@@ -36590,7 +36603,7 @@
       <c r="G940" s="1">
         <v>42026</v>
       </c>
-      <c r="H940" s="2">
+      <c r="H940" s="6">
         <v>101288</v>
       </c>
       <c r="I940" t="s">
@@ -36625,7 +36638,7 @@
       <c r="G941" s="1">
         <v>34209</v>
       </c>
-      <c r="H941" s="2">
+      <c r="H941" s="6">
         <v>177443</v>
       </c>
       <c r="I941" t="s">
@@ -36660,7 +36673,7 @@
       <c r="G942" s="1">
         <v>42487</v>
       </c>
-      <c r="H942" s="2">
+      <c r="H942" s="6">
         <v>91400</v>
       </c>
       <c r="I942" t="s">
@@ -36695,7 +36708,7 @@
       <c r="G943" s="1">
         <v>39335</v>
       </c>
-      <c r="H943" s="2">
+      <c r="H943" s="6">
         <v>181247</v>
       </c>
       <c r="I943" t="s">
@@ -36730,7 +36743,7 @@
       <c r="G944" s="1">
         <v>37914</v>
       </c>
-      <c r="H944" s="2">
+      <c r="H944" s="6">
         <v>135558</v>
       </c>
       <c r="I944" t="s">
@@ -36765,7 +36778,7 @@
       <c r="G945" s="1">
         <v>40894</v>
       </c>
-      <c r="H945" s="2">
+      <c r="H945" s="6">
         <v>56878</v>
       </c>
       <c r="I945" t="s">
@@ -36800,7 +36813,7 @@
       <c r="G946" s="1">
         <v>43728</v>
       </c>
-      <c r="H946" s="2">
+      <c r="H946" s="6">
         <v>94735</v>
       </c>
       <c r="I946" t="s">
@@ -36835,7 +36848,7 @@
       <c r="G947" s="1">
         <v>39229</v>
       </c>
-      <c r="H947" s="2">
+      <c r="H947" s="6">
         <v>51234</v>
       </c>
       <c r="I947" t="s">
@@ -36870,7 +36883,7 @@
       <c r="G948" s="1">
         <v>42018</v>
       </c>
-      <c r="H948" s="2">
+      <c r="H948" s="6">
         <v>230025</v>
       </c>
       <c r="I948" t="s">
@@ -36905,7 +36918,7 @@
       <c r="G949" s="1">
         <v>40248</v>
       </c>
-      <c r="H949" s="2">
+      <c r="H949" s="6">
         <v>134006</v>
       </c>
       <c r="I949" t="s">
@@ -36940,7 +36953,7 @@
       <c r="G950" s="1">
         <v>40092</v>
       </c>
-      <c r="H950" s="2">
+      <c r="H950" s="6">
         <v>103096</v>
       </c>
       <c r="I950" t="s">
@@ -36975,7 +36988,7 @@
       <c r="G951" s="1">
         <v>42602</v>
       </c>
-      <c r="H951" s="2">
+      <c r="H951" s="6">
         <v>58703</v>
       </c>
       <c r="I951" t="s">
@@ -37010,7 +37023,7 @@
       <c r="G952" s="1">
         <v>41267</v>
       </c>
-      <c r="H952" s="2">
+      <c r="H952" s="6">
         <v>132544</v>
       </c>
       <c r="I952" t="s">
@@ -37045,7 +37058,7 @@
       <c r="G953" s="1">
         <v>43936</v>
       </c>
-      <c r="H953" s="2">
+      <c r="H953" s="6">
         <v>126671</v>
       </c>
       <c r="I953" t="s">
@@ -37080,7 +37093,7 @@
       <c r="G954" s="1">
         <v>44218</v>
       </c>
-      <c r="H954" s="2">
+      <c r="H954" s="6">
         <v>56405</v>
       </c>
       <c r="I954" t="s">
@@ -37115,7 +37128,7 @@
       <c r="G955" s="1">
         <v>41972</v>
       </c>
-      <c r="H955" s="2">
+      <c r="H955" s="6">
         <v>88730</v>
       </c>
       <c r="I955" t="s">
@@ -37150,7 +37163,7 @@
       <c r="G956" s="1">
         <v>39708</v>
       </c>
-      <c r="H956" s="2">
+      <c r="H956" s="6">
         <v>62861</v>
       </c>
       <c r="I956" t="s">
@@ -37185,7 +37198,7 @@
       <c r="G957" s="1">
         <v>38919</v>
       </c>
-      <c r="H957" s="2">
+      <c r="H957" s="6">
         <v>151246</v>
       </c>
       <c r="I957" t="s">
@@ -37220,7 +37233,7 @@
       <c r="G958" s="1">
         <v>35532</v>
       </c>
-      <c r="H958" s="2">
+      <c r="H958" s="6">
         <v>154388</v>
       </c>
       <c r="I958" t="s">
@@ -37255,7 +37268,7 @@
       <c r="G959" s="1">
         <v>34603</v>
       </c>
-      <c r="H959" s="2">
+      <c r="H959" s="6">
         <v>162978</v>
       </c>
       <c r="I959" t="s">
@@ -37290,7 +37303,7 @@
       <c r="G960" s="1">
         <v>34290</v>
       </c>
-      <c r="H960" s="2">
+      <c r="H960" s="6">
         <v>80170</v>
       </c>
       <c r="I960" t="s">
@@ -37325,7 +37338,7 @@
       <c r="G961" s="1">
         <v>44314</v>
       </c>
-      <c r="H961" s="2">
+      <c r="H961" s="6">
         <v>98520</v>
       </c>
       <c r="I961" t="s">
@@ -37360,7 +37373,7 @@
       <c r="G962" s="1">
         <v>36523</v>
       </c>
-      <c r="H962" s="2">
+      <c r="H962" s="6">
         <v>116527</v>
       </c>
       <c r="I962" t="s">
@@ -37395,7 +37408,7 @@
       <c r="G963" s="1">
         <v>43776</v>
       </c>
-      <c r="H963" s="2">
+      <c r="H963" s="6">
         <v>174607</v>
       </c>
       <c r="I963" t="s">
@@ -37430,7 +37443,7 @@
       <c r="G964" s="1">
         <v>38819</v>
       </c>
-      <c r="H964" s="2">
+      <c r="H964" s="6">
         <v>64202</v>
       </c>
       <c r="I964" t="s">
@@ -37465,7 +37478,7 @@
       <c r="G965" s="1">
         <v>43671</v>
       </c>
-      <c r="H965" s="2">
+      <c r="H965" s="6">
         <v>50883</v>
       </c>
       <c r="I965" t="s">
@@ -37500,7 +37513,7 @@
       <c r="G966" s="1">
         <v>42677</v>
       </c>
-      <c r="H966" s="2">
+      <c r="H966" s="6">
         <v>94618</v>
       </c>
       <c r="I966" t="s">
@@ -37535,7 +37548,7 @@
       <c r="G967" s="1">
         <v>43753</v>
       </c>
-      <c r="H967" s="2">
+      <c r="H967" s="6">
         <v>151556</v>
       </c>
       <c r="I967" t="s">
@@ -37570,7 +37583,7 @@
       <c r="G968" s="1">
         <v>43898</v>
       </c>
-      <c r="H968" s="2">
+      <c r="H968" s="6">
         <v>80659</v>
       </c>
       <c r="I968" t="s">
@@ -37605,7 +37618,7 @@
       <c r="G969" s="1">
         <v>43772</v>
       </c>
-      <c r="H969" s="2">
+      <c r="H969" s="6">
         <v>195385</v>
       </c>
       <c r="I969" t="s">
@@ -37640,7 +37653,7 @@
       <c r="G970" s="1">
         <v>42509</v>
       </c>
-      <c r="H970" s="2">
+      <c r="H970" s="6">
         <v>52693</v>
       </c>
       <c r="I970" t="s">
@@ -37675,7 +37688,7 @@
       <c r="G971" s="1">
         <v>42486</v>
       </c>
-      <c r="H971" s="2">
+      <c r="H971" s="6">
         <v>72045</v>
       </c>
       <c r="I971" t="s">
@@ -37710,7 +37723,7 @@
       <c r="G972" s="1">
         <v>38684</v>
       </c>
-      <c r="H972" s="2">
+      <c r="H972" s="6">
         <v>62749</v>
       </c>
       <c r="I972" t="s">
@@ -37745,7 +37758,7 @@
       <c r="G973" s="1">
         <v>43255</v>
       </c>
-      <c r="H973" s="2">
+      <c r="H973" s="6">
         <v>154884</v>
       </c>
       <c r="I973" t="s">
@@ -37780,7 +37793,7 @@
       <c r="G974" s="1">
         <v>42437</v>
       </c>
-      <c r="H974" s="2">
+      <c r="H974" s="6">
         <v>96566</v>
       </c>
       <c r="I974" t="s">
@@ -37815,7 +37828,7 @@
       <c r="G975" s="1">
         <v>37126</v>
       </c>
-      <c r="H975" s="2">
+      <c r="H975" s="6">
         <v>54994</v>
       </c>
       <c r="I975" t="s">
@@ -37850,7 +37863,7 @@
       <c r="G976" s="1">
         <v>40944</v>
       </c>
-      <c r="H976" s="2">
+      <c r="H976" s="6">
         <v>61523</v>
       </c>
       <c r="I976" t="s">
@@ -37885,7 +37898,7 @@
       <c r="G977" s="1">
         <v>40524</v>
       </c>
-      <c r="H977" s="2">
+      <c r="H977" s="6">
         <v>190512</v>
       </c>
       <c r="I977" t="s">
@@ -37920,7 +37933,7 @@
       <c r="G978" s="1">
         <v>41318</v>
       </c>
-      <c r="H978" s="2">
+      <c r="H978" s="6">
         <v>124827</v>
       </c>
       <c r="I978" t="s">
@@ -37955,7 +37968,7 @@
       <c r="G979" s="1">
         <v>43484</v>
       </c>
-      <c r="H979" s="2">
+      <c r="H979" s="6">
         <v>101577</v>
       </c>
       <c r="I979" t="s">
@@ -37990,7 +38003,7 @@
       <c r="G980" s="1">
         <v>38642</v>
       </c>
-      <c r="H980" s="2">
+      <c r="H980" s="6">
         <v>105223</v>
       </c>
       <c r="I980" t="s">
@@ -38025,7 +38038,7 @@
       <c r="G981" s="1">
         <v>39635</v>
       </c>
-      <c r="H981" s="2">
+      <c r="H981" s="6">
         <v>94815</v>
       </c>
       <c r="I981" t="s">
@@ -38060,7 +38073,7 @@
       <c r="G982" s="1">
         <v>44545</v>
       </c>
-      <c r="H982" s="2">
+      <c r="H982" s="6">
         <v>114893</v>
       </c>
       <c r="I982" t="s">
@@ -38095,7 +38108,7 @@
       <c r="G983" s="1">
         <v>42745</v>
       </c>
-      <c r="H983" s="2">
+      <c r="H983" s="6">
         <v>80622</v>
       </c>
       <c r="I983" t="s">
@@ -38130,7 +38143,7 @@
       <c r="G984" s="1">
         <v>42685</v>
       </c>
-      <c r="H984" s="2">
+      <c r="H984" s="6">
         <v>246589</v>
       </c>
       <c r="I984" t="s">
@@ -38165,7 +38178,7 @@
       <c r="G985" s="1">
         <v>43240</v>
       </c>
-      <c r="H985" s="2">
+      <c r="H985" s="6">
         <v>119397</v>
       </c>
       <c r="I985" t="s">
@@ -38200,7 +38213,7 @@
       <c r="G986" s="1">
         <v>44549</v>
       </c>
-      <c r="H986" s="2">
+      <c r="H986" s="6">
         <v>150666</v>
       </c>
       <c r="I986" t="s">
@@ -38235,7 +38248,7 @@
       <c r="G987" s="1">
         <v>37265</v>
       </c>
-      <c r="H987" s="2">
+      <c r="H987" s="6">
         <v>148035</v>
       </c>
       <c r="I987" t="s">
@@ -38270,7 +38283,7 @@
       <c r="G988" s="1">
         <v>42891</v>
       </c>
-      <c r="H988" s="2">
+      <c r="H988" s="6">
         <v>158898</v>
       </c>
       <c r="I988" t="s">
@@ -38305,7 +38318,7 @@
       <c r="G989" s="1">
         <v>40967</v>
       </c>
-      <c r="H989" s="2">
+      <c r="H989" s="6">
         <v>89659</v>
       </c>
       <c r="I989" t="s">
@@ -38340,7 +38353,7 @@
       <c r="G990" s="1">
         <v>39201</v>
       </c>
-      <c r="H990" s="2">
+      <c r="H990" s="6">
         <v>171487</v>
       </c>
       <c r="I990" t="s">
@@ -38375,7 +38388,7 @@
       <c r="G991" s="1">
         <v>42603</v>
       </c>
-      <c r="H991" s="2">
+      <c r="H991" s="6">
         <v>258498</v>
       </c>
       <c r="I991" t="s">
@@ -38410,7 +38423,7 @@
       <c r="G992" s="1">
         <v>40511</v>
       </c>
-      <c r="H992" s="2">
+      <c r="H992" s="6">
         <v>146961</v>
       </c>
       <c r="I992" t="s">
@@ -38445,7 +38458,7 @@
       <c r="G993" s="1">
         <v>35907</v>
       </c>
-      <c r="H993" s="2">
+      <c r="H993" s="6">
         <v>85369</v>
       </c>
       <c r="I993" t="s">
@@ -38480,7 +38493,7 @@
       <c r="G994" s="1">
         <v>42169</v>
       </c>
-      <c r="H994" s="2">
+      <c r="H994" s="6">
         <v>67489</v>
       </c>
       <c r="I994" t="s">
@@ -38515,7 +38528,7 @@
       <c r="G995" s="1">
         <v>43379</v>
       </c>
-      <c r="H995" s="2">
+      <c r="H995" s="6">
         <v>166259</v>
       </c>
       <c r="I995" t="s">
@@ -38550,7 +38563,7 @@
       <c r="G996" s="1">
         <v>39820</v>
       </c>
-      <c r="H996" s="2">
+      <c r="H996" s="6">
         <v>47032</v>
       </c>
       <c r="I996" t="s">
@@ -38585,7 +38598,7 @@
       <c r="G997" s="1">
         <v>42631</v>
       </c>
-      <c r="H997" s="2">
+      <c r="H997" s="6">
         <v>98427</v>
       </c>
       <c r="I997" t="s">
@@ -38620,7 +38633,7 @@
       <c r="G998" s="1">
         <v>40329</v>
       </c>
-      <c r="H998" s="2">
+      <c r="H998" s="6">
         <v>47387</v>
       </c>
       <c r="I998" t="s">
@@ -38655,7 +38668,7 @@
       <c r="G999" s="1">
         <v>43626</v>
       </c>
-      <c r="H999" s="2">
+      <c r="H999" s="6">
         <v>176710</v>
       </c>
       <c r="I999" t="s">
@@ -38690,7 +38703,7 @@
       <c r="G1000" s="1">
         <v>40936</v>
       </c>
-      <c r="H1000" s="2">
+      <c r="H1000" s="6">
         <v>95960</v>
       </c>
       <c r="I1000" t="s">
@@ -38725,7 +38738,7 @@
       <c r="G1001" s="1">
         <v>44038</v>
       </c>
-      <c r="H1001" s="2">
+      <c r="H1001" s="6">
         <v>216195</v>
       </c>
       <c r="I1001" t="s">
